--- a/scripts/output/202004/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202004/全家/全家整体资产配置.xlsx
@@ -592,10 +592,10 @@
         <v>3899.26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>5076.84</v>
+        <v>5084.64</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>-472.2</v>
+        <v>-464.4</v>
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
@@ -639,10 +639,10 @@
         <v>3303.75</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4998.57</v>
+        <v>5041.52</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-453.27</v>
+        <v>-410.33</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>4586.65</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4232.56</v>
+        <v>4298.15</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-80.27</v>
+        <v>-14.68</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         <v>2489.89</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3215.44</v>
+        <v>3258.52</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>-121.26</v>
+        <v>-78.18000000000001</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>1220.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2493.97</v>
+        <v>2502.63</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-107.98</v>
+        <v>-99.31999999999999</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2410.44</v>
+        <v>2426.39</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>-41.86</v>
+        <v>-25.9</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
         <v>1443.38</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1564.34</v>
+        <v>1564.05</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>-140.87</v>
+        <v>-141.16</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1040.31</v>
+        <v>1055.14</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>16.76</v>
+        <v>31.6</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         <v>929.23</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>1005.89</v>
+        <v>998.09</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-73.78</v>
+        <v>-81.59</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
         <v>500.24</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>640.8099999999999</v>
+        <v>639.3099999999999</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>41.27</v>
+        <v>39.77</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>253.87</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>634.67</v>
+        <v>621.98</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>52.3</v>
+        <v>39.6</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>300.61</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>264.72</v>
+        <v>267.51</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>14.85</v>
+        <v>17.65</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1203,10 +1203,10 @@
         <v>136.17</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>220.75</v>
+        <v>216.1</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>-10.43</v>
+        <v>-15.07</v>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         <v>64.5</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>79.38</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>-13.33</v>
+        <v>-13.2</v>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>47862</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>58425.14</v>
+        <v>58429.93</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>421.19</v>
+        <v>425.97</v>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
@@ -1485,10 +1485,10 @@
         <v>36337.6</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>38946.64</v>
+        <v>39008.41</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>363.38</v>
+        <v>425.15</v>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>12644.87</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>19561.61</v>
+        <v>19574.26</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>-83.45999999999999</v>
+        <v>-70.81</v>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>18000.52</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>19519.76</v>
+        <v>19546.76</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1.8</v>
+        <v>28.8</v>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
@@ -1626,10 +1626,10 @@
         <v>14459.61</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>19472.76</v>
+        <v>19482.88</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>40.49</v>
+        <v>50.61</v>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
@@ -1767,10 +1767,10 @@
         <v>16731.88</v>
       </c>
       <c r="E28" s="20" t="n">
-        <v>9314.639999999999</v>
+        <v>9420.049999999999</v>
       </c>
       <c r="F28" s="20" t="n">
-        <v>-2685.47</v>
+        <v>-2580.06</v>
       </c>
       <c r="G28" s="21" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>13896</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>9616.030000000001</v>
+        <v>10519.27</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>1167.26</v>
+        <v>2070.5</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
         <v>3000</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>2754</v>
+        <v>2793</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="G30" s="26" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>9600</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>12364.8</v>
+        <v>12480</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-134.4</v>
+        <v>-19.2</v>
       </c>
       <c r="G31" s="26" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
         <v>12000</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>10464</v>
+        <v>10536</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="G32" s="26" t="inlineStr">
         <is>
@@ -2002,10 +2002,10 @@
         <v>2700</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>7211.7</v>
+        <v>7306.2</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>901.8</v>
+        <v>996.3</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         <v>9100</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>33424.3</v>
+        <v>33879.3</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>2056.6</v>
+        <v>2511.6</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
         <v>37600</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>204092.8</v>
+        <v>210146.4</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>-5752.8</v>
+        <v>300.8</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         <v>33800</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>24978.2</v>
+        <v>25654.2</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-4664.4</v>
+        <v>-3988.4</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>32700</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>30149.4</v>
+        <v>30738</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>4545.3</v>
+        <v>5133.9</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2237,10 +2237,10 @@
         <v>34100</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>26768.5</v>
+        <v>27450.5</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>-2864.4</v>
+        <v>-2182.4</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         <v>2300</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>8114.4</v>
+        <v>8148.9</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>2895.7</v>
+        <v>2930.2</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>9200</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>16486.4</v>
+        <v>16964.8</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>9457.6</v>
+        <v>9936</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2378,10 +2378,10 @@
         <v>9600</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>14102.4</v>
+        <v>14256</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>2889.6</v>
+        <v>3043.2</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2425,10 +2425,10 @@
         <v>4157.52</v>
       </c>
       <c r="E42" s="35" t="n">
-        <v>8032.74</v>
+        <v>8178.67</v>
       </c>
       <c r="F42" s="35" t="n">
-        <v>28.69</v>
+        <v>174.62</v>
       </c>
       <c r="G42" s="36" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         <v>9722</v>
       </c>
       <c r="E43" s="35" t="n">
-        <v>5412.24</v>
+        <v>5473.49</v>
       </c>
       <c r="F43" s="35" t="n">
-        <v>75.83</v>
+        <v>137.08</v>
       </c>
       <c r="G43" s="36" t="inlineStr">
         <is>
@@ -2519,10 +2519,10 @@
         <v>4943.96</v>
       </c>
       <c r="E44" s="35" t="n">
-        <v>4818.38</v>
+        <v>4887.1</v>
       </c>
       <c r="F44" s="35" t="n">
-        <v>149.31</v>
+        <v>218.03</v>
       </c>
       <c r="G44" s="36" t="inlineStr">
         <is>
@@ -2566,10 +2566,10 @@
         <v>7379.54</v>
       </c>
       <c r="E45" s="35" t="n">
-        <v>4105.24</v>
+        <v>4173.87</v>
       </c>
       <c r="F45" s="35" t="n">
-        <v>103.31</v>
+        <v>171.94</v>
       </c>
       <c r="G45" s="36" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         <v>4074.72</v>
       </c>
       <c r="E46" s="35" t="n">
-        <v>3822.09</v>
+        <v>3850.61</v>
       </c>
       <c r="F46" s="35" t="n">
-        <v>-180.1</v>
+        <v>-151.58</v>
       </c>
       <c r="G46" s="36" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         <v>4550.55</v>
       </c>
       <c r="E47" s="35" t="n">
-        <v>3562.17</v>
+        <v>3602.22</v>
       </c>
       <c r="F47" s="35" t="n">
-        <v>227.07</v>
+        <v>267.12</v>
       </c>
       <c r="G47" s="36" t="inlineStr">
         <is>
@@ -2707,10 +2707,10 @@
         <v>809.28</v>
       </c>
       <c r="E48" s="35" t="n">
-        <v>736.4400000000001</v>
+        <v>752.95</v>
       </c>
       <c r="F48" s="35" t="n">
-        <v>69.44</v>
+        <v>85.95</v>
       </c>
       <c r="G48" s="36" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         <v>611.53</v>
       </c>
       <c r="E49" s="35" t="n">
-        <v>605.41</v>
+        <v>606.58</v>
       </c>
       <c r="F49" s="35" t="n">
-        <v>-61.58</v>
+        <v>-60.42</v>
       </c>
       <c r="G49" s="36" t="inlineStr">
         <is>
@@ -2801,10 +2801,10 @@
         <v>473.85</v>
       </c>
       <c r="E50" s="35" t="n">
-        <v>475.75</v>
+        <v>477.5</v>
       </c>
       <c r="F50" s="35" t="n">
-        <v>8.859999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="G50" s="36" t="inlineStr">
         <is>
@@ -2942,10 +2942,10 @@
         <v>4147.87</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>4135.43</v>
+        <v>3969.51</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>133.56</v>
+        <v>-32.35</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2989,10 +2989,10 @@
         <v>342.8</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>717.21</v>
+        <v>703.49</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>50.22</v>
+        <v>36.51</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3036,10 +3036,10 @@
         <v>1483.88</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>1964.21</v>
+        <v>1986.17</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>-36.8</v>
+        <v>-14.84</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         <v>576.8</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>738.88</v>
+        <v>737.15</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>71.87</v>
+        <v>70.14</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3130,10 +3130,10 @@
         <v>5299.96</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>1303.79</v>
+        <v>1367.39</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>-696.9400000000001</v>
+        <v>-633.35</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
         <v>1026.5</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>710.34</v>
+        <v>777.0599999999999</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>43.32</v>
+        <v>110.04</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3224,10 +3224,10 @@
         <v>930.1900000000001</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>733.92</v>
+        <v>772.0599999999999</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>66.88</v>
+        <v>105.02</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3271,10 +3271,10 @@
         <v>1564.33</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>3022.44</v>
+        <v>3077.35</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>22.37</v>
+        <v>77.28</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         <v>3083.26</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>2892.1</v>
+        <v>2913.68</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-107.91</v>
+        <v>-86.33</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3365,10 +3365,10 @@
         <v>1812.7</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>1008.41</v>
+        <v>1025.26</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>8.34</v>
+        <v>25.2</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         <v>1059.17</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>976.66</v>
+        <v>985.66</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-23.3</v>
+        <v>-14.3</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3459,10 +3459,10 @@
         <v>916.83</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>907.66</v>
+        <v>909.4</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>-92.31999999999999</v>
+        <v>-90.58</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3506,10 +3506,10 @@
         <v>822.11</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>643.55</v>
+        <v>650.78</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>-26.47</v>
+        <v>-19.24</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3553,10 +3553,10 @@
         <v>1423.86</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>1884.76</v>
+        <v>1905.84</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>-115.19</v>
+        <v>-94.12</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>1152.67</v>
+        <v>1149.97</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>152.7</v>
+        <v>150</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3647,10 +3647,10 @@
         <v>2047.94</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>2041.8</v>
+        <v>1959.88</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>41.78</v>
+        <v>-40.14</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         <v>438.17</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>916.74</v>
+        <v>899.21</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-83.25</v>
+        <v>-100.78</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3741,10 +3741,10 @@
         <v>7734.05</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>1902.58</v>
+        <v>1995.38</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>-1097.46</v>
+        <v>-1004.65</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3788,10 +3788,10 @@
         <v>1394.58</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>1100.32</v>
+        <v>1157.5</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>100.27</v>
+        <v>157.45</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>917.23</v>
       </c>
       <c r="E72" s="35" t="n">
-        <v>1207.53</v>
+        <v>1216.52</v>
       </c>
       <c r="F72" s="35" t="n">
-        <v>207.57</v>
+        <v>216.56</v>
       </c>
       <c r="G72" s="36" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
         <v>595.47</v>
       </c>
       <c r="E73" s="35" t="n">
-        <v>1039.69</v>
+        <v>1044.45</v>
       </c>
       <c r="F73" s="35" t="n">
-        <v>39.72</v>
+        <v>44.48</v>
       </c>
       <c r="G73" s="36" t="inlineStr">
         <is>
@@ -3929,10 +3929,10 @@
         <v>72337.78999999999</v>
       </c>
       <c r="E74" s="40" t="n">
-        <v>67852.85000000001</v>
+        <v>68359.21000000001</v>
       </c>
       <c r="F74" s="40" t="n">
-        <v>1526.33</v>
+        <v>2032.69</v>
       </c>
       <c r="G74" s="41" t="inlineStr">
         <is>
@@ -3976,10 +3976,10 @@
         <v>63490</v>
       </c>
       <c r="E75" s="40" t="n">
-        <v>61877.35</v>
+        <v>62759.87</v>
       </c>
       <c r="F75" s="40" t="n">
-        <v>3676.07</v>
+        <v>4558.58</v>
       </c>
       <c r="G75" s="41" t="inlineStr">
         <is>
@@ -4023,10 +4023,10 @@
         <v>41627.14</v>
       </c>
       <c r="E76" s="40" t="n">
-        <v>41502.26</v>
+        <v>39837.17</v>
       </c>
       <c r="F76" s="40" t="n">
-        <v>-299.72</v>
+        <v>-1964.8</v>
       </c>
       <c r="G76" s="41" t="inlineStr">
         <is>
@@ -4070,10 +4070,10 @@
         <v>32370.29</v>
       </c>
       <c r="E77" s="40" t="n">
-        <v>38970.59</v>
+        <v>39061.23</v>
       </c>
       <c r="F77" s="40" t="n">
-        <v>6969.32</v>
+        <v>7059.96</v>
       </c>
       <c r="G77" s="41" t="inlineStr">
         <is>
@@ -4117,10 +4117,10 @@
         <v>41014.88</v>
       </c>
       <c r="E78" s="40" t="n">
-        <v>37323.54</v>
+        <v>38160.24</v>
       </c>
       <c r="F78" s="40" t="n">
-        <v>6763.35</v>
+        <v>7600.06</v>
       </c>
       <c r="G78" s="41" t="inlineStr">
         <is>
@@ -4164,10 +4164,10 @@
         <v>20086.63</v>
       </c>
       <c r="E79" s="40" t="n">
-        <v>35071.26</v>
+        <v>35231.95</v>
       </c>
       <c r="F79" s="40" t="n">
-        <v>3071.25</v>
+        <v>3231.94</v>
       </c>
       <c r="G79" s="41" t="inlineStr">
         <is>
@@ -4211,10 +4211,10 @@
         <v>27031.68</v>
       </c>
       <c r="E80" s="40" t="n">
-        <v>26761.36</v>
+        <v>26812.72</v>
       </c>
       <c r="F80" s="40" t="n">
-        <v>1159.66</v>
+        <v>1211.02</v>
       </c>
       <c r="G80" s="41" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         <v>14624.61</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>22434.15</v>
+        <v>22668.15</v>
       </c>
       <c r="F81" s="40" t="n">
-        <v>3233.5</v>
+        <v>3467.5</v>
       </c>
       <c r="G81" s="41" t="inlineStr">
         <is>
@@ -4305,10 +4305,10 @@
         <v>16626.05</v>
       </c>
       <c r="E82" s="40" t="n">
-        <v>22007.9</v>
+        <v>22253.97</v>
       </c>
       <c r="F82" s="40" t="n">
-        <v>-693.3099999999999</v>
+        <v>-447.24</v>
       </c>
       <c r="G82" s="41" t="inlineStr">
         <is>
@@ -4352,10 +4352,10 @@
         <v>16778.47</v>
       </c>
       <c r="E83" s="40" t="n">
-        <v>21493.22</v>
+        <v>21442.88</v>
       </c>
       <c r="F83" s="40" t="n">
-        <v>2291.94</v>
+        <v>2241.6</v>
       </c>
       <c r="G83" s="41" t="inlineStr">
         <is>
@@ -4399,10 +4399,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E84" s="40" t="n">
-        <v>15914.78</v>
+        <v>16153.03</v>
       </c>
       <c r="F84" s="40" t="n">
-        <v>3114.34</v>
+        <v>3352.59</v>
       </c>
       <c r="G84" s="41" t="inlineStr">
         <is>
@@ -4446,10 +4446,10 @@
         <v>13403.92</v>
       </c>
       <c r="E85" s="40" t="n">
-        <v>7461.96</v>
+        <v>7546.41</v>
       </c>
       <c r="F85" s="40" t="n">
-        <v>1061.59</v>
+        <v>1146.04</v>
       </c>
       <c r="G85" s="41" t="inlineStr">
         <is>
@@ -4493,10 +4493,10 @@
         <v>3289.25</v>
       </c>
       <c r="E86" s="40" t="n">
-        <v>6881.77</v>
+        <v>6750.2</v>
       </c>
       <c r="F86" s="40" t="n">
-        <v>481.55</v>
+        <v>349.98</v>
       </c>
       <c r="G86" s="41" t="inlineStr">
         <is>
@@ -4540,10 +4540,10 @@
         <v>37267.45</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>9167.790000000001</v>
+        <v>9615</v>
       </c>
       <c r="F87" s="40" t="n">
-        <v>-10032.4</v>
+        <v>-9585.190000000001</v>
       </c>
       <c r="G87" s="41" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>3299.64</v>
       </c>
       <c r="E88" s="40" t="n">
-        <v>6375.23</v>
+        <v>6491.05</v>
       </c>
       <c r="F88" s="40" t="n">
-        <v>-25.08</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="G88" s="41" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         <v>8925.34</v>
       </c>
       <c r="E89" s="40" t="n">
-        <v>7042.09</v>
+        <v>7408.03</v>
       </c>
       <c r="F89" s="40" t="n">
-        <v>641.73</v>
+        <v>1007.67</v>
       </c>
       <c r="G89" s="41" t="inlineStr">
         <is>
@@ -4728,10 +4728,10 @@
         <v>1553.77</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>2023.01</v>
+        <v>2026.12</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-183.19</v>
+        <v>-180.08</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4775,10 +4775,10 @@
         <v>1325.41</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>2005.35</v>
+        <v>2022.58</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>-187.15</v>
+        <v>-169.92</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4822,10 +4822,10 @@
         <v>1797.43</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1658.67</v>
+        <v>1684.37</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>-32.17</v>
+        <v>-6.47</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4869,10 +4869,10 @@
         <v>1026.71</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>1325.89</v>
+        <v>1343.66</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>-50.21</v>
+        <v>-32.44</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4916,10 +4916,10 @@
         <v>485.77</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>992.91</v>
+        <v>996.36</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>-45.76</v>
+        <v>-42.31</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4963,10 +4963,10 @@
         <v>528.99</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>935.25</v>
+        <v>941.4400000000001</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-16.5</v>
+        <v>-10.32</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -5010,10 +5010,10 @@
         <v>594.27</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>644.0700000000001</v>
+        <v>643.95</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-55.39</v>
+        <v>-55.5</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5057,10 +5057,10 @@
         <v>426.97</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>416.12</v>
+        <v>422.06</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>6.75</v>
+        <v>12.68</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5104,10 +5104,10 @@
         <v>378.03</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>409.22</v>
+        <v>406.04</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>-29.22</v>
+        <v>-32.4</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>111.78</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>279.45</v>
+        <v>273.86</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>23.26</v>
+        <v>17.67</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5198,10 +5198,10 @@
         <v>215.44</v>
       </c>
       <c r="E101" s="10" t="n">
-        <v>275.98</v>
+        <v>275.33</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>17.73</v>
+        <v>17.08</v>
       </c>
       <c r="G101" s="11" t="inlineStr">
         <is>
@@ -5292,10 +5292,10 @@
         <v>140.72</v>
       </c>
       <c r="E103" s="10" t="n">
-        <v>123.92</v>
+        <v>125.23</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>7.32</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         <v>57.97</v>
       </c>
       <c r="E104" s="10" t="n">
-        <v>93.98</v>
+        <v>92</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>-3.51</v>
+        <v>-5.49</v>
       </c>
       <c r="G104" s="11" t="inlineStr">
         <is>
@@ -5386,10 +5386,10 @@
         <v>25.8</v>
       </c>
       <c r="E105" s="10" t="n">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="F105" s="10" t="n">
-        <v>-5.33</v>
+        <v>-5.28</v>
       </c>
       <c r="G105" s="11" t="inlineStr">
         <is>
@@ -5574,10 +5574,10 @@
         <v>1588.12</v>
       </c>
       <c r="E109" s="10" t="n">
-        <v>1938.62</v>
+        <v>1938.78</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>5.24</v>
+        <v>5.4</v>
       </c>
       <c r="G109" s="11" t="inlineStr">
         <is>
@@ -5621,10 +5621,10 @@
         <v>876.9</v>
       </c>
       <c r="E110" s="10" t="n">
-        <v>950.91</v>
+        <v>952.23</v>
       </c>
       <c r="F110" s="10" t="n">
-        <v>-15.78</v>
+        <v>-14.47</v>
       </c>
       <c r="G110" s="11" t="inlineStr">
         <is>
@@ -5668,10 +5668,10 @@
         <v>883.55</v>
       </c>
       <c r="E111" s="10" t="n">
-        <v>946.99</v>
+        <v>948.49</v>
       </c>
       <c r="F111" s="10" t="n">
-        <v>-19.7</v>
+        <v>-18.2</v>
       </c>
       <c r="G111" s="11" t="inlineStr">
         <is>
@@ -5715,10 +5715,10 @@
         <v>355.34</v>
       </c>
       <c r="E112" s="10" t="n">
-        <v>478.54</v>
+        <v>478.79</v>
       </c>
       <c r="F112" s="10" t="n">
-        <v>-4.8</v>
+        <v>-4.55</v>
       </c>
       <c r="G112" s="11" t="inlineStr">
         <is>
@@ -5762,10 +5762,10 @@
         <v>304.75</v>
       </c>
       <c r="E113" s="10" t="n">
-        <v>471.45</v>
+        <v>471.75</v>
       </c>
       <c r="F113" s="10" t="n">
-        <v>-11.89</v>
+        <v>-11.58</v>
       </c>
       <c r="G113" s="11" t="inlineStr">
         <is>
@@ -5809,10 +5809,10 @@
         <v>1454.39</v>
       </c>
       <c r="E114" s="10" t="n">
-        <v>1893.62</v>
+        <v>1896.52</v>
       </c>
       <c r="F114" s="10" t="n">
-        <v>-180.2</v>
+        <v>-177.29</v>
       </c>
       <c r="G114" s="11" t="inlineStr">
         <is>
@@ -5856,10 +5856,10 @@
         <v>1210.44</v>
       </c>
       <c r="E115" s="10" t="n">
-        <v>1831.4</v>
+        <v>1847.13</v>
       </c>
       <c r="F115" s="10" t="n">
-        <v>-166.8</v>
+        <v>-151.06</v>
       </c>
       <c r="G115" s="11" t="inlineStr">
         <is>
@@ -5903,10 +5903,10 @@
         <v>1697.75</v>
       </c>
       <c r="E116" s="10" t="n">
-        <v>1566.68</v>
+        <v>1590.96</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>-29.37</v>
+        <v>-5.09</v>
       </c>
       <c r="G116" s="11" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         <v>952.26</v>
       </c>
       <c r="E117" s="10" t="n">
-        <v>1229.75</v>
+        <v>1246.22</v>
       </c>
       <c r="F117" s="10" t="n">
-        <v>-52.28</v>
+        <v>-35.8</v>
       </c>
       <c r="G117" s="11" t="inlineStr">
         <is>
@@ -5997,10 +5997,10 @@
         <v>456.18</v>
       </c>
       <c r="E118" s="10" t="n">
-        <v>932.4299999999999</v>
+        <v>935.67</v>
       </c>
       <c r="F118" s="10" t="n">
-        <v>-36.77</v>
+        <v>-33.53</v>
       </c>
       <c r="G118" s="11" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         <v>492.58</v>
       </c>
       <c r="E119" s="10" t="n">
-        <v>870.88</v>
+        <v>876.64</v>
       </c>
       <c r="F119" s="10" t="n">
-        <v>-14.09</v>
+        <v>-8.32</v>
       </c>
       <c r="G119" s="11" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         <v>482.97</v>
       </c>
       <c r="E120" s="10" t="n">
-        <v>523.4400000000001</v>
+        <v>523.35</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>-49.7</v>
+        <v>-49.79</v>
       </c>
       <c r="G120" s="11" t="inlineStr">
         <is>
@@ -6138,10 +6138,10 @@
         <v>353.32</v>
       </c>
       <c r="E121" s="10" t="n">
-        <v>382.47</v>
+        <v>379.5</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>-29.4</v>
+        <v>-32.36</v>
       </c>
       <c r="G121" s="11" t="inlineStr">
         <is>
@@ -6185,10 +6185,10 @@
         <v>390.82</v>
       </c>
       <c r="E122" s="10" t="n">
-        <v>380.89</v>
+        <v>386.33</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>5.75</v>
+        <v>11.18</v>
       </c>
       <c r="G122" s="11" t="inlineStr">
         <is>
@@ -6232,10 +6232,10 @@
         <v>90.23</v>
       </c>
       <c r="E123" s="10" t="n">
-        <v>115.58</v>
+        <v>115.31</v>
       </c>
       <c r="F123" s="10" t="n">
-        <v>5.5</v>
+        <v>5.22</v>
       </c>
       <c r="G123" s="11" t="inlineStr">
         <is>
@@ -6279,10 +6279,10 @@
         <v>38.03</v>
       </c>
       <c r="E124" s="10" t="n">
-        <v>95.08</v>
+        <v>93.17</v>
       </c>
       <c r="F124" s="10" t="n">
-        <v>8.550000000000001</v>
+        <v>6.64</v>
       </c>
       <c r="G124" s="11" t="inlineStr">
         <is>
@@ -6326,10 +6326,10 @@
         <v>47.5</v>
       </c>
       <c r="E125" s="10" t="n">
-        <v>77</v>
+        <v>75.38</v>
       </c>
       <c r="F125" s="10" t="n">
-        <v>-5.49</v>
+        <v>-7.11</v>
       </c>
       <c r="G125" s="11" t="inlineStr">
         <is>
@@ -6420,10 +6420,10 @@
         <v>38.25</v>
       </c>
       <c r="E127" s="10" t="n">
-        <v>33.68</v>
+        <v>34.04</v>
       </c>
       <c r="F127" s="10" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="G127" s="11" t="inlineStr">
         <is>
@@ -6467,10 +6467,10 @@
         <v>25.8</v>
       </c>
       <c r="E128" s="10" t="n">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>-5.33</v>
+        <v>-5.28</v>
       </c>
       <c r="G128" s="11" t="inlineStr">
         <is>
@@ -6655,10 +6655,10 @@
         <v>274071.1</v>
       </c>
       <c r="E132" s="10" t="n">
-        <v>334558.59</v>
+        <v>334586</v>
       </c>
       <c r="F132" s="10" t="n">
-        <v>1479.98</v>
+        <v>1507.39</v>
       </c>
       <c r="G132" s="11" t="inlineStr">
         <is>
@@ -6702,10 +6702,10 @@
         <v>153211.84</v>
       </c>
       <c r="E133" s="10" t="n">
-        <v>166142.92</v>
+        <v>166372.74</v>
       </c>
       <c r="F133" s="10" t="n">
-        <v>-1884.51</v>
+        <v>-1654.69</v>
       </c>
       <c r="G133" s="11" t="inlineStr">
         <is>
@@ -6749,10 +6749,10 @@
         <v>154864.26</v>
       </c>
       <c r="E134" s="10" t="n">
-        <v>165983.51</v>
+        <v>166246.78</v>
       </c>
       <c r="F134" s="10" t="n">
-        <v>-2756.58</v>
+        <v>-2493.31</v>
       </c>
       <c r="G134" s="11" t="inlineStr">
         <is>
@@ -6796,10 +6796,10 @@
         <v>61673.29</v>
       </c>
       <c r="E135" s="10" t="n">
-        <v>83055.42</v>
+        <v>83098.59</v>
       </c>
       <c r="F135" s="10" t="n">
-        <v>-542.72</v>
+        <v>-499.55</v>
       </c>
       <c r="G135" s="11" t="inlineStr">
         <is>
@@ -6843,10 +6843,10 @@
         <v>53422.76</v>
       </c>
       <c r="E136" s="10" t="n">
-        <v>82645.00999999999</v>
+        <v>82698.42999999999</v>
       </c>
       <c r="F136" s="10" t="n">
-        <v>-1543.92</v>
+        <v>-1490.5</v>
       </c>
       <c r="G136" s="11" t="inlineStr">
         <is>
@@ -6984,10 +6984,10 @@
         <v>9368.450000000001</v>
       </c>
       <c r="E139" s="40" t="n">
-        <v>10311.85</v>
+        <v>10483.3</v>
       </c>
       <c r="F139" s="40" t="n">
-        <v>520.89</v>
+        <v>692.33</v>
       </c>
       <c r="G139" s="41" t="inlineStr">
         <is>
@@ -7031,10 +7031,10 @@
         <v>10068.96</v>
       </c>
       <c r="E140" s="40" t="n">
-        <v>9444.68</v>
+        <v>9515.17</v>
       </c>
       <c r="F140" s="40" t="n">
-        <v>244.68</v>
+        <v>315.16</v>
       </c>
       <c r="G140" s="41" t="inlineStr">
         <is>
@@ -7078,10 +7078,10 @@
         <v>6096.21</v>
       </c>
       <c r="E141" s="40" t="n">
-        <v>5941.37</v>
+        <v>6026.1</v>
       </c>
       <c r="F141" s="40" t="n">
-        <v>741.3</v>
+        <v>826.04</v>
       </c>
       <c r="G141" s="41" t="inlineStr">
         <is>
@@ -7125,10 +7125,10 @@
         <v>6187.76</v>
       </c>
       <c r="E142" s="40" t="n">
-        <v>5630.86</v>
+        <v>5757.09</v>
       </c>
       <c r="F142" s="40" t="n">
-        <v>1344.6</v>
+        <v>1470.83</v>
       </c>
       <c r="G142" s="41" t="inlineStr">
         <is>
@@ -7172,10 +7172,10 @@
         <v>2760.12</v>
       </c>
       <c r="E143" s="40" t="n">
-        <v>4234.02</v>
+        <v>4278.19</v>
       </c>
       <c r="F143" s="40" t="n">
-        <v>634</v>
+        <v>678.16</v>
       </c>
       <c r="G143" s="41" t="inlineStr">
         <is>
@@ -7219,10 +7219,10 @@
         <v>1981.84</v>
       </c>
       <c r="E144" s="40" t="n">
-        <v>3460.29</v>
+        <v>3476.15</v>
       </c>
       <c r="F144" s="40" t="n">
-        <v>269.13</v>
+        <v>284.99</v>
       </c>
       <c r="G144" s="41" t="inlineStr">
         <is>
@@ -7266,10 +7266,10 @@
         <v>2046.97</v>
       </c>
       <c r="E145" s="40" t="n">
-        <v>3418.44</v>
+        <v>3469.61</v>
       </c>
       <c r="F145" s="40" t="n">
-        <v>706.2</v>
+        <v>757.38</v>
       </c>
       <c r="G145" s="41" t="inlineStr">
         <is>
@@ -7313,10 +7313,10 @@
         <v>5949.77</v>
       </c>
       <c r="E146" s="40" t="n">
-        <v>3312.24</v>
+        <v>3349.72</v>
       </c>
       <c r="F146" s="40" t="n">
-        <v>111.86</v>
+        <v>149.34</v>
       </c>
       <c r="G146" s="41" t="inlineStr">
         <is>
@@ -7360,10 +7360,10 @@
         <v>3988.79</v>
       </c>
       <c r="E147" s="40" t="n">
-        <v>3122.42</v>
+        <v>3157.53</v>
       </c>
       <c r="F147" s="40" t="n">
-        <v>296.77</v>
+        <v>331.87</v>
       </c>
       <c r="G147" s="41" t="inlineStr">
         <is>
@@ -7407,10 +7407,10 @@
         <v>2730.84</v>
       </c>
       <c r="E148" s="40" t="n">
-        <v>2722.65</v>
+        <v>2613.41</v>
       </c>
       <c r="F148" s="40" t="n">
-        <v>-77.56</v>
+        <v>-186.79</v>
       </c>
       <c r="G148" s="41" t="inlineStr">
         <is>
@@ -7454,10 +7454,10 @@
         <v>1630.08</v>
       </c>
       <c r="E149" s="40" t="n">
-        <v>1962.45</v>
+        <v>1967.02</v>
       </c>
       <c r="F149" s="40" t="n">
-        <v>362.37</v>
+        <v>366.93</v>
       </c>
       <c r="G149" s="41" t="inlineStr">
         <is>
@@ -7501,10 +7501,10 @@
         <v>1407.29</v>
       </c>
       <c r="E150" s="40" t="n">
-        <v>1802.74</v>
+        <v>1798.52</v>
       </c>
       <c r="F150" s="40" t="n">
-        <v>202.65</v>
+        <v>198.43</v>
       </c>
       <c r="G150" s="41" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         <v>1267.08</v>
       </c>
       <c r="E151" s="40" t="n">
-        <v>1254.41</v>
+        <v>1256.82</v>
       </c>
       <c r="F151" s="40" t="n">
-        <v>54.36</v>
+        <v>56.77</v>
       </c>
       <c r="G151" s="41" t="inlineStr">
         <is>
@@ -7595,10 +7595,10 @@
         <v>1546.42</v>
       </c>
       <c r="E152" s="40" t="n">
-        <v>1243.48</v>
+        <v>1265.59</v>
       </c>
       <c r="F152" s="40" t="n">
-        <v>43.45</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="G152" s="41" t="inlineStr">
         <is>
@@ -7642,10 +7642,10 @@
         <v>1338.46</v>
       </c>
       <c r="E153" s="40" t="n">
-        <v>1234.19</v>
+        <v>1245.57</v>
       </c>
       <c r="F153" s="40" t="n">
-        <v>34.13</v>
+        <v>45.51</v>
       </c>
       <c r="G153" s="41" t="inlineStr">
         <is>
@@ -7689,10 +7689,10 @@
         <v>889.71</v>
       </c>
       <c r="E154" s="40" t="n">
-        <v>1177.71</v>
+        <v>1190.88</v>
       </c>
       <c r="F154" s="40" t="n">
-        <v>-22.33</v>
+        <v>-9.16</v>
       </c>
       <c r="G154" s="41" t="inlineStr">
         <is>
@@ -7736,10 +7736,10 @@
         <v>4541.16</v>
       </c>
       <c r="E155" s="40" t="n">
-        <v>1117.13</v>
+        <v>1171.62</v>
       </c>
       <c r="F155" s="40" t="n">
-        <v>-883.26</v>
+        <v>-828.76</v>
       </c>
       <c r="G155" s="41" t="inlineStr">
         <is>
@@ -7783,10 +7783,10 @@
         <v>413.27</v>
       </c>
       <c r="E156" s="40" t="n">
-        <v>798.48</v>
+        <v>812.98</v>
       </c>
       <c r="F156" s="40" t="n">
-        <v>-1.53</v>
+        <v>12.98</v>
       </c>
       <c r="G156" s="41" t="inlineStr">
         <is>
@@ -7830,10 +7830,10 @@
         <v>380.85</v>
       </c>
       <c r="E157" s="40" t="n">
-        <v>796.8099999999999</v>
+        <v>781.58</v>
       </c>
       <c r="F157" s="40" t="n">
-        <v>-3.2</v>
+        <v>-18.43</v>
       </c>
       <c r="G157" s="41" t="inlineStr">
         <is>
@@ -7877,10 +7877,10 @@
         <v>496.13</v>
       </c>
       <c r="E158" s="40" t="n">
-        <v>498.11</v>
+        <v>499.95</v>
       </c>
       <c r="F158" s="40" t="n">
-        <v>98.08</v>
+        <v>99.92</v>
       </c>
       <c r="G158" s="41" t="inlineStr">
         <is>
@@ -7924,10 +7924,10 @@
         <v>366.9</v>
       </c>
       <c r="E159" s="40" t="n">
-        <v>483.02</v>
+        <v>486.62</v>
       </c>
       <c r="F159" s="40" t="n">
-        <v>159.75</v>
+        <v>163.34</v>
       </c>
       <c r="G159" s="41" t="inlineStr">
         <is>
@@ -7971,10 +7971,10 @@
         <v>325.61</v>
       </c>
       <c r="E160" s="40" t="n">
-        <v>401.74</v>
+        <v>405.68</v>
       </c>
       <c r="F160" s="40" t="n">
-        <v>1.73</v>
+        <v>5.67</v>
       </c>
       <c r="G160" s="41" t="inlineStr">
         <is>
@@ -8018,10 +8018,10 @@
         <v>557.83</v>
       </c>
       <c r="E161" s="40" t="n">
-        <v>440.13</v>
+        <v>463</v>
       </c>
       <c r="F161" s="40" t="n">
-        <v>40.11</v>
+        <v>62.98</v>
       </c>
       <c r="G161" s="41" t="inlineStr">
         <is>

--- a/scripts/output/202004/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202004/全家/全家整体资产配置.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,16 +586,16 @@
         <v>519671</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>1.4231</v>
+        <v>1.4209</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>3899.26</v>
+        <v>3980.9</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>5084.64</v>
+        <v>5230.9</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>-464.4</v>
+        <v>-425.56</v>
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
@@ -639,10 +639,10 @@
         <v>3303.75</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>5041.52</v>
+        <v>5074.56</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-410.33</v>
+        <v>-377.29</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>4586.65</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4298.15</v>
+        <v>4381.17</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-14.68</v>
+        <v>68.34</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>501021</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>1.3401</v>
+        <v>1.3402</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>2489.89</v>
+        <v>2551.86</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3258.52</v>
+        <v>3487.37</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>-78.18000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>1220.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2502.63</v>
+        <v>2540.09</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-99.31999999999999</v>
+        <v>-61.86</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2426.39</v>
+        <v>2455.29</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>-25.9</v>
+        <v>3</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -868,16 +868,16 @@
         <v>1594</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>1.1814</v>
+        <v>1.1759</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1443.38</v>
+        <v>1535.38</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1564.05</v>
+        <v>1660.51</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>-141.16</v>
+        <v>-144.94</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1055.14</v>
+        <v>1071.69</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>31.6</v>
+        <v>48.14</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -965,13 +965,13 @@
         <v>1.1619</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>929.23</v>
+        <v>952.1799999999999</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>998.09</v>
+        <v>1043.02</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-81.59</v>
+        <v>-63.32</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1012,13 +1012,13 @@
         <v>1.1985</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>500.24</v>
+        <v>549.2</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>639.3099999999999</v>
+        <v>715.61</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>39.77</v>
+        <v>57.39</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>253.87</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>621.98</v>
+        <v>663.11</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>39.6</v>
+        <v>80.73</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1109,10 +1109,10 @@
         <v>247.91</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>301.95</v>
+        <v>311.13</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-11.3</v>
+        <v>-2.13</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>300.61</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>267.51</v>
+        <v>278.91</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>17.65</v>
+        <v>29.04</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1200,13 +1200,13 @@
         <v>1.6977</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>136.17</v>
+        <v>150.78</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>216.1</v>
+        <v>257</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>-15.07</v>
+        <v>1.03</v>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
@@ -1237,23 +1237,23 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>易方达上证50指数A</t>
         </is>
       </c>
       <c r="B17" s="8" t="n">
-        <v>310398</v>
+        <v>110003</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>1.4374</v>
+        <v>1.7006</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>64.5</v>
+        <v>64.27</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>79.51000000000001</v>
+        <v>109.23</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>-13.2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
@@ -1267,12 +1267,12 @@
       </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K17" s="11" t="inlineStr">
@@ -1284,23 +1284,23 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>1550</v>
+        <v>310398</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.4374</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>0</v>
+        <v>80.11</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>0</v>
+        <v>-12.6</v>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
@@ -1331,14 +1331,14 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B19" s="8" t="n">
-        <v>2086</v>
+        <v>1550</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>1.2256</v>
+        <v>0.6708</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>0</v>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I19" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J19" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K19" s="11" t="inlineStr">
@@ -1378,14 +1378,14 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B20" s="8" t="n">
-        <v>501029</v>
+        <v>2086</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>0.9827</v>
+        <v>1.2256</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>0</v>
@@ -1394,26 +1394,26 @@
         <v>0</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
@@ -1425,70 +1425,70 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>2147</v>
+        <v>501029</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>1.2119</v>
+        <v>0.9827</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>47862</v>
+        <v>0</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>58429.93</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>425.97</v>
+        <v>-0</v>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I21" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J21" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K21" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>长安鑫益增强混合C</t>
         </is>
       </c>
       <c r="B22" s="8" t="n">
-        <v>7749</v>
+        <v>2147</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>1.0618</v>
+        <v>1.2119</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>36337.6</v>
+        <v>38345.9</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>39008.41</v>
+        <v>46916.21</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>425.15</v>
+        <v>444.81</v>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
@@ -1519,23 +1519,23 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>民生加银鹏程混合C</t>
         </is>
       </c>
       <c r="B23" s="8" t="n">
-        <v>485011</v>
+        <v>7749</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>1.5536</v>
+        <v>1.0618</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>12644.87</v>
+        <v>29071.68</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>19574.26</v>
+        <v>31411.95</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>-70.81</v>
+        <v>543.64</v>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
@@ -1566,23 +1566,23 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B24" s="8" t="n">
-        <v>6060</v>
+        <v>485011</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>1.0843</v>
+        <v>1.5536</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>18000.52</v>
+        <v>10080.25</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>19546.76</v>
+        <v>15795.75</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>28.8</v>
+        <v>135.08</v>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
@@ -1623,13 +1623,13 @@
         <v>1.3439</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>14459.61</v>
+        <v>11580.99</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>19482.88</v>
+        <v>15740.88</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>50.61</v>
+        <v>177.19</v>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
@@ -1658,589 +1658,589 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>鹏扬泓利债券C</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1.0843</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>14369.85</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>15684.69</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>103.46</v>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I26" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J26" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K26" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>2.2219</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>7072.09</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>15654.07</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>-59.41</v>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="J27" s="11" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K27" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>广发趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>8127</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1.5932</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>9821.860000000001</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>15625.6</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>-22.59</v>
+      </c>
+      <c r="G28" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I28" s="11" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="J28" s="11" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K28" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>住房公积金</t>
         </is>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B29" s="13" t="n">
         <v>999989</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C29" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D29" s="15" t="n">
         <v>319017.75</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E29" s="15" t="n">
         <v>319017.75</v>
       </c>
-      <c r="F26" s="15" t="n">
+      <c r="F29" s="15" t="n">
         <v>7027.67</v>
       </c>
-      <c r="G26" s="16" t="inlineStr">
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
-      <c r="H26" s="16" t="inlineStr">
+      <c r="H29" s="16" t="inlineStr">
         <is>
           <t>有息资金</t>
         </is>
       </c>
-      <c r="I26" s="16" t="inlineStr">
+      <c r="I29" s="16" t="inlineStr">
         <is>
           <t>住房公积金</t>
         </is>
       </c>
-      <c r="J26" s="16" t="inlineStr">
+      <c r="J29" s="16" t="inlineStr">
         <is>
           <t>989</t>
         </is>
       </c>
-      <c r="K26" s="16" t="inlineStr">
+      <c r="K29" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="12" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>外借款</t>
         </is>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B30" s="13" t="n">
         <v>999988</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C30" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D30" s="15" t="n">
         <v>5000</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E30" s="15" t="n">
         <v>5000</v>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F30" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="16" t="inlineStr">
+      <c r="G30" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
-      <c r="H27" s="16" t="inlineStr">
+      <c r="H30" s="16" t="inlineStr">
         <is>
           <t>无息资金</t>
         </is>
       </c>
-      <c r="I27" s="16" t="inlineStr">
+      <c r="I30" s="16" t="inlineStr">
         <is>
           <t>无息外借款</t>
         </is>
       </c>
-      <c r="J27" s="16" t="inlineStr">
+      <c r="J30" s="16" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="K27" s="16" t="inlineStr">
+      <c r="K30" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="17" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="17" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B28" s="18" t="n">
+      <c r="B31" s="18" t="n">
         <v>1064</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C31" s="19" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D31" s="20" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E28" s="20" t="n">
-        <v>9420.049999999999</v>
-      </c>
-      <c r="F28" s="20" t="n">
-        <v>-2580.06</v>
-      </c>
-      <c r="G28" s="21" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H28" s="21" t="inlineStr">
+      <c r="E31" s="20" t="n">
+        <v>9354.790000000001</v>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>-2645.31</v>
+      </c>
+      <c r="G31" s="21" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H31" s="21" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I28" s="21" t="inlineStr">
+      <c r="I31" s="21" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J28" s="21" t="inlineStr">
+      <c r="J31" s="21" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K28" s="21" t="inlineStr">
+      <c r="K31" s="21" t="inlineStr">
         <is>
           <t>支付宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="inlineStr">
-        <is>
-          <t>石油基金</t>
-        </is>
-      </c>
-      <c r="B29" s="23" t="n">
-        <v>160416</v>
-      </c>
-      <c r="C29" s="24" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="D29" s="25" t="n">
-        <v>13896</v>
-      </c>
-      <c r="E29" s="25" t="n">
-        <v>10519.27</v>
-      </c>
-      <c r="F29" s="25" t="n">
-        <v>2070.5</v>
-      </c>
-      <c r="G29" s="26" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H29" s="26" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I29" s="26" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="J29" s="26" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="K29" s="26" t="inlineStr">
-        <is>
-          <t>华宝证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="22" t="inlineStr">
-        <is>
-          <t>100红利</t>
-        </is>
-      </c>
-      <c r="B30" s="23" t="n">
-        <v>515180</v>
-      </c>
-      <c r="C30" s="24" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="D30" s="25" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E30" s="25" t="n">
-        <v>2793</v>
-      </c>
-      <c r="F30" s="25" t="n">
-        <v>198</v>
-      </c>
-      <c r="G30" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H30" s="26" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I30" s="26" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J30" s="26" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K30" s="26" t="inlineStr">
-        <is>
-          <t>华宝证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="inlineStr">
-        <is>
-          <t>恒生ETF</t>
-        </is>
-      </c>
-      <c r="B31" s="23" t="n">
-        <v>159920</v>
-      </c>
-      <c r="C31" s="24" t="n">
-        <v>1.302</v>
-      </c>
-      <c r="D31" s="25" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E31" s="25" t="n">
-        <v>12480</v>
-      </c>
-      <c r="F31" s="25" t="n">
-        <v>-19.2</v>
-      </c>
-      <c r="G31" s="26" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H31" s="26" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="I31" s="26" t="inlineStr">
-        <is>
-          <t>恒生</t>
-        </is>
-      </c>
-      <c r="J31" s="26" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="K31" s="26" t="inlineStr">
-        <is>
-          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="inlineStr">
         <is>
+          <t>石油基金</t>
+        </is>
+      </c>
+      <c r="B32" s="23" t="n">
+        <v>160416</v>
+      </c>
+      <c r="C32" s="24" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="D32" s="25" t="n">
+        <v>13896</v>
+      </c>
+      <c r="E32" s="25" t="n">
+        <v>10797.19</v>
+      </c>
+      <c r="F32" s="25" t="n">
+        <v>2348.42</v>
+      </c>
+      <c r="G32" s="26" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H32" s="26" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I32" s="26" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J32" s="26" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K32" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="inlineStr">
+        <is>
+          <t>100红利</t>
+        </is>
+      </c>
+      <c r="B33" s="23" t="n">
+        <v>515180</v>
+      </c>
+      <c r="C33" s="24" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="D33" s="25" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="25" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F33" s="25" t="n">
+        <v>222</v>
+      </c>
+      <c r="G33" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H33" s="26" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I33" s="26" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J33" s="26" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K33" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="22" t="inlineStr">
+        <is>
+          <t>恒生ETF</t>
+        </is>
+      </c>
+      <c r="B34" s="23" t="n">
+        <v>159920</v>
+      </c>
+      <c r="C34" s="24" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="D34" s="25" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E34" s="25" t="n">
+        <v>12921.6</v>
+      </c>
+      <c r="F34" s="25" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="G34" s="26" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H34" s="26" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I34" s="26" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J34" s="26" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K34" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="22" t="inlineStr">
+        <is>
           <t>日经ETF</t>
         </is>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B35" s="23" t="n">
         <v>513520</v>
       </c>
-      <c r="C32" s="24" t="n">
+      <c r="C35" s="24" t="n">
         <v>0.832</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D35" s="25" t="n">
         <v>12000</v>
       </c>
-      <c r="E32" s="25" t="n">
-        <v>10536</v>
-      </c>
-      <c r="F32" s="25" t="n">
-        <v>552</v>
-      </c>
-      <c r="G32" s="26" t="inlineStr">
+      <c r="E35" s="25" t="n">
+        <v>11076</v>
+      </c>
+      <c r="F35" s="25" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G35" s="26" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="H32" s="26" t="inlineStr">
+      <c r="H35" s="26" t="inlineStr">
         <is>
           <t>日本</t>
         </is>
       </c>
-      <c r="I32" s="26" t="inlineStr">
+      <c r="I35" s="26" t="inlineStr">
         <is>
           <t>日经225</t>
         </is>
       </c>
-      <c r="J32" s="26" t="inlineStr">
+      <c r="J35" s="26" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="K32" s="26" t="inlineStr">
+      <c r="K35" s="26" t="inlineStr">
         <is>
           <t>华宝证券</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="27" t="inlineStr">
-        <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="B33" s="28" t="n">
-        <v>510050</v>
-      </c>
-      <c r="C33" s="29" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="D33" s="30" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E33" s="30" t="n">
-        <v>7306.2</v>
-      </c>
-      <c r="F33" s="30" t="n">
-        <v>996.3</v>
-      </c>
-      <c r="G33" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H33" s="31" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I33" s="31" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="J33" s="31" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K33" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="27" t="inlineStr">
-        <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B34" s="28" t="n">
-        <v>510300</v>
-      </c>
-      <c r="C34" s="29" t="n">
-        <v>3.447</v>
-      </c>
-      <c r="D34" s="30" t="n">
-        <v>9100</v>
-      </c>
-      <c r="E34" s="30" t="n">
-        <v>33879.3</v>
-      </c>
-      <c r="F34" s="30" t="n">
-        <v>2511.6</v>
-      </c>
-      <c r="G34" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H34" s="31" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I34" s="31" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="J34" s="31" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="K34" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>500ETF</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n">
-        <v>510500</v>
-      </c>
-      <c r="C35" s="29" t="n">
-        <v>5.581</v>
-      </c>
-      <c r="D35" s="30" t="n">
-        <v>37600</v>
-      </c>
-      <c r="E35" s="30" t="n">
-        <v>210146.4</v>
-      </c>
-      <c r="F35" s="30" t="n">
-        <v>300.8</v>
-      </c>
-      <c r="G35" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H35" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I35" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J35" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K35" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
+      <c r="A36" s="22" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n">
+      <c r="B36" s="23" t="n">
         <v>512580</v>
       </c>
-      <c r="C36" s="29" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="D36" s="30" t="n">
-        <v>33800</v>
-      </c>
-      <c r="E36" s="30" t="n">
-        <v>25654.2</v>
-      </c>
-      <c r="F36" s="30" t="n">
-        <v>-3988.4</v>
-      </c>
-      <c r="G36" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H36" s="31" t="inlineStr">
+      <c r="C36" s="24" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="D36" s="25" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E36" s="25" t="n">
+        <v>2488.2</v>
+      </c>
+      <c r="F36" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H36" s="26" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I36" s="31" t="inlineStr">
+      <c r="I36" s="26" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J36" s="31" t="inlineStr">
+      <c r="J36" s="26" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K36" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
+      <c r="K36" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>证券ETF</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n">
-        <v>512880</v>
-      </c>
-      <c r="C37" s="29" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="D37" s="30" t="n">
-        <v>32700</v>
-      </c>
-      <c r="E37" s="30" t="n">
-        <v>30738</v>
-      </c>
-      <c r="F37" s="30" t="n">
-        <v>5133.9</v>
-      </c>
-      <c r="G37" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H37" s="31" t="inlineStr">
+      <c r="A37" s="22" t="inlineStr">
+        <is>
+          <t>传媒ETF</t>
+        </is>
+      </c>
+      <c r="B37" s="23" t="n">
+        <v>512980</v>
+      </c>
+      <c r="C37" s="24" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="D37" s="25" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E37" s="25" t="n">
+        <v>2504.8</v>
+      </c>
+      <c r="F37" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H37" s="26" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I37" s="31" t="inlineStr">
-        <is>
-          <t>证券公司</t>
-        </is>
-      </c>
-      <c r="J37" s="31" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="K37" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
+      <c r="I37" s="26" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J37" s="26" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K37" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>512980</v>
+        <v>510050</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>0.869</v>
+        <v>2.291</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>34100</v>
+        <v>2700</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>27450.5</v>
+        <v>7392.6</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>-2182.4</v>
+        <v>1206.9</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2249,17 +2249,17 @@
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2271,42 +2271,42 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>518880</v>
+        <v>510300</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>2.269</v>
+        <v>3.385</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>2300</v>
+        <v>9100</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>8148.9</v>
+        <v>34252.4</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>2930.2</v>
+        <v>3448.9</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2318,23 +2318,23 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>159915</v>
+        <v>510500</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>0.764</v>
+        <v>5.581</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>9200</v>
+        <v>37600</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>16964.8</v>
+        <v>212515.2</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>9936</v>
+        <v>2669.6</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2348,12 +2348,12 @@
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2365,258 +2365,258 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
+          <t>环保ETF</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="n">
+        <v>512580</v>
+      </c>
+      <c r="C41" s="29" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="D41" s="30" t="n">
+        <v>33800</v>
+      </c>
+      <c r="E41" s="30" t="n">
+        <v>25485.2</v>
+      </c>
+      <c r="F41" s="30" t="n">
+        <v>-4157.4</v>
+      </c>
+      <c r="G41" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H41" s="31" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I41" s="31" t="inlineStr">
+        <is>
+          <t>中证环保</t>
+        </is>
+      </c>
+      <c r="J41" s="31" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K41" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>证券ETF</t>
+        </is>
+      </c>
+      <c r="B42" s="28" t="n">
+        <v>512880</v>
+      </c>
+      <c r="C42" s="29" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="D42" s="30" t="n">
+        <v>32700</v>
+      </c>
+      <c r="E42" s="30" t="n">
+        <v>30705.3</v>
+      </c>
+      <c r="F42" s="30" t="n">
+        <v>5101.2</v>
+      </c>
+      <c r="G42" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H42" s="31" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I42" s="31" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="J42" s="31" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K42" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>传媒ETF</t>
+        </is>
+      </c>
+      <c r="B43" s="28" t="n">
+        <v>512980</v>
+      </c>
+      <c r="C43" s="29" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="D43" s="30" t="n">
+        <v>34100</v>
+      </c>
+      <c r="E43" s="30" t="n">
+        <v>27552.8</v>
+      </c>
+      <c r="F43" s="30" t="n">
+        <v>-2080.1</v>
+      </c>
+      <c r="G43" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H43" s="31" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I43" s="31" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J43" s="31" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K43" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B44" s="28" t="n">
+        <v>518880</v>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="D44" s="30" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E44" s="30" t="n">
+        <v>8443.299999999999</v>
+      </c>
+      <c r="F44" s="30" t="n">
+        <v>3224.6</v>
+      </c>
+      <c r="G44" s="31" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H44" s="31" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I44" s="31" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J44" s="31" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K44" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B41" s="28" t="n">
+      <c r="B45" s="28" t="n">
         <v>159938</v>
       </c>
-      <c r="C41" s="29" t="n">
+      <c r="C45" s="29" t="n">
         <v>1.168</v>
       </c>
-      <c r="D41" s="30" t="n">
+      <c r="D45" s="30" t="n">
         <v>9600</v>
       </c>
-      <c r="E41" s="30" t="n">
-        <v>14256</v>
-      </c>
-      <c r="F41" s="30" t="n">
-        <v>3043.2</v>
-      </c>
-      <c r="G41" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H41" s="31" t="inlineStr">
+      <c r="E45" s="30" t="n">
+        <v>15072</v>
+      </c>
+      <c r="F45" s="30" t="n">
+        <v>3859.2</v>
+      </c>
+      <c r="G45" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H45" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I41" s="31" t="inlineStr">
+      <c r="I45" s="31" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J41" s="31" t="inlineStr">
+      <c r="J45" s="31" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K41" s="31" t="inlineStr">
+      <c r="K45" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="32" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B42" s="33" t="n">
-        <v>478</v>
-      </c>
-      <c r="C42" s="34" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D42" s="35" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E42" s="35" t="n">
-        <v>8178.67</v>
-      </c>
-      <c r="F42" s="35" t="n">
-        <v>174.62</v>
-      </c>
-      <c r="G42" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H42" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I42" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J42" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K42" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="32" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接A</t>
-        </is>
-      </c>
-      <c r="B43" s="33" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C43" s="34" t="n">
-        <v>0.5489000000000001</v>
-      </c>
-      <c r="D43" s="35" t="n">
-        <v>9722</v>
-      </c>
-      <c r="E43" s="35" t="n">
-        <v>5473.49</v>
-      </c>
-      <c r="F43" s="35" t="n">
-        <v>137.08</v>
-      </c>
-      <c r="G43" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H43" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I43" s="36" t="inlineStr">
-        <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-      <c r="J43" s="36" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="K43" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="32" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B44" s="33" t="n">
-        <v>968</v>
-      </c>
-      <c r="C44" s="34" t="n">
-        <v>0.9444</v>
-      </c>
-      <c r="D44" s="35" t="n">
-        <v>4943.96</v>
-      </c>
-      <c r="E44" s="35" t="n">
-        <v>4887.1</v>
-      </c>
-      <c r="F44" s="35" t="n">
-        <v>218.03</v>
-      </c>
-      <c r="G44" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H44" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I44" s="36" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J44" s="36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K44" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="32" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B45" s="33" t="n">
-        <v>1052</v>
-      </c>
-      <c r="C45" s="34" t="n">
-        <v>0.5423</v>
-      </c>
-      <c r="D45" s="35" t="n">
-        <v>7379.54</v>
-      </c>
-      <c r="E45" s="35" t="n">
-        <v>4173.87</v>
-      </c>
-      <c r="F45" s="35" t="n">
-        <v>171.94</v>
-      </c>
-      <c r="G45" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H45" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I45" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J45" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K45" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B46" s="33" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C46" s="34" t="n">
-        <v>0.9822</v>
+        <v>1.9252</v>
       </c>
       <c r="D46" s="35" t="n">
-        <v>4074.72</v>
+        <v>4157.52</v>
       </c>
       <c r="E46" s="35" t="n">
-        <v>3850.61</v>
+        <v>8238.540000000001</v>
       </c>
       <c r="F46" s="35" t="n">
-        <v>-151.58</v>
+        <v>234.48</v>
       </c>
       <c r="G46" s="36" t="inlineStr">
         <is>
@@ -2625,17 +2625,17 @@
       </c>
       <c r="H46" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I46" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J46" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K46" s="36" t="inlineStr">
@@ -2647,23 +2647,23 @@
     <row r="47">
       <c r="A47" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="33" t="n">
-        <v>4752</v>
+        <v>1064</v>
       </c>
       <c r="C47" s="34" t="n">
-        <v>0.7329</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D47" s="35" t="n">
-        <v>4550.55</v>
+        <v>9722</v>
       </c>
       <c r="E47" s="35" t="n">
-        <v>3602.22</v>
+        <v>5435.57</v>
       </c>
       <c r="F47" s="35" t="n">
-        <v>267.12</v>
+        <v>99.16</v>
       </c>
       <c r="G47" s="36" t="inlineStr">
         <is>
@@ -2677,12 +2677,12 @@
       </c>
       <c r="I47" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J47" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K47" s="36" t="inlineStr">
@@ -2694,23 +2694,23 @@
     <row r="48">
       <c r="A48" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B48" s="33" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C48" s="34" t="n">
-        <v>0.8242</v>
+        <v>0.9444</v>
       </c>
       <c r="D48" s="35" t="n">
-        <v>809.28</v>
+        <v>4943.96</v>
       </c>
       <c r="E48" s="35" t="n">
-        <v>752.95</v>
+        <v>4963.74</v>
       </c>
       <c r="F48" s="35" t="n">
-        <v>85.95</v>
+        <v>294.66</v>
       </c>
       <c r="G48" s="36" t="inlineStr">
         <is>
@@ -2724,12 +2724,12 @@
       </c>
       <c r="I48" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J48" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K48" s="36" t="inlineStr">
@@ -2741,23 +2741,23 @@
     <row r="49">
       <c r="A49" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="33" t="n">
-        <v>1469</v>
+        <v>1052</v>
       </c>
       <c r="C49" s="34" t="n">
-        <v>1.0907</v>
+        <v>0.5423</v>
       </c>
       <c r="D49" s="35" t="n">
-        <v>611.53</v>
+        <v>7379.54</v>
       </c>
       <c r="E49" s="35" t="n">
-        <v>606.58</v>
+        <v>4223.31</v>
       </c>
       <c r="F49" s="35" t="n">
-        <v>-60.42</v>
+        <v>221.39</v>
       </c>
       <c r="G49" s="36" t="inlineStr">
         <is>
@@ -2766,17 +2766,17 @@
       </c>
       <c r="H49" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I49" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J49" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K49" s="36" t="inlineStr">
@@ -2788,23 +2788,23 @@
     <row r="50">
       <c r="A50" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B50" s="33" t="n">
-        <v>502010</v>
+        <v>100032</v>
       </c>
       <c r="C50" s="34" t="n">
-        <v>0.9853</v>
+        <v>0.9822</v>
       </c>
       <c r="D50" s="35" t="n">
-        <v>473.85</v>
+        <v>4074.72</v>
       </c>
       <c r="E50" s="35" t="n">
-        <v>477.5</v>
+        <v>3875.06</v>
       </c>
       <c r="F50" s="35" t="n">
-        <v>10.61</v>
+        <v>-127.13</v>
       </c>
       <c r="G50" s="36" t="inlineStr">
         <is>
@@ -2813,17 +2813,17 @@
       </c>
       <c r="H50" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I50" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J50" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K50" s="36" t="inlineStr">
@@ -2835,23 +2835,23 @@
     <row r="51">
       <c r="A51" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B51" s="33" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C51" s="34" t="n">
-        <v>0</v>
+        <v>0.7329</v>
       </c>
       <c r="D51" s="35" t="n">
-        <v>0</v>
+        <v>4550.55</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>0</v>
+        <v>3565.36</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>0</v>
+        <v>230.26</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2860,17 +2860,17 @@
       </c>
       <c r="H51" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I51" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J51" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K51" s="36" t="inlineStr">
@@ -2882,23 +2882,23 @@
     <row r="52">
       <c r="A52" s="32" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B52" s="33" t="n">
-        <v>3765</v>
+        <v>1180</v>
       </c>
       <c r="C52" s="34" t="n">
-        <v>0</v>
+        <v>0.8242</v>
       </c>
       <c r="D52" s="35" t="n">
-        <v>0</v>
+        <v>809.28</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>0</v>
+        <v>788.16</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>0</v>
+        <v>121.15</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2907,17 +2907,17 @@
       </c>
       <c r="H52" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I52" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J52" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K52" s="36" t="inlineStr">
@@ -2929,42 +2929,42 @@
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>614</v>
+        <v>1469</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>0.9648</v>
+        <v>1.0907</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>4147.87</v>
+        <v>611.53</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>3969.51</v>
+        <v>607.86</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>-32.35</v>
+        <v>-59.13</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2976,42 +2976,42 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>50025</v>
+        <v>502010</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>1.9457</v>
+        <v>0.9853</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>342.8</v>
+        <v>473.85</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>703.49</v>
+        <v>480.39</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>36.51</v>
+        <v>13.5</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3023,42 +3023,42 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>71</v>
+        <v>110026</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>1.3485</v>
+        <v>0</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>1483.88</v>
+        <v>0</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>1986.17</v>
+        <v>0</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>-14.84</v>
+        <v>0</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3070,42 +3070,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>164906</v>
+        <v>3765</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>1.1564</v>
+        <v>0</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>576.8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>737.15</v>
+        <v>0</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>70.14</v>
+        <v>0</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3117,42 +3117,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>162411</v>
+        <v>614</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>0.3775</v>
+        <v>0.9648</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>5299.96</v>
+        <v>4147.87</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>1367.39</v>
+        <v>4309.64</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>-633.35</v>
+        <v>307.77</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3164,42 +3164,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>华安标普石油指数</t>
+          <t>博时标普500ETF联接A</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>160416</v>
+        <v>50025</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>0.6498</v>
+        <v>1.9457</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>1026.5</v>
+        <v>342.8</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>777.0599999999999</v>
+        <v>768.87</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>110.04</v>
+        <v>101.88</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>标普500</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3211,42 +3211,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>南方原油A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>501018</v>
+        <v>71</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>0.7171</v>
+        <v>1.3485</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>930.1900000000001</v>
+        <v>1483.88</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>772.0599999999999</v>
+        <v>2055.62</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>105.02</v>
+        <v>54.61</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3258,211 +3258,211 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>478</v>
+        <v>164906</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.9178</v>
+        <v>1.1564</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>1564.33</v>
+        <v>576.8</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>3077.35</v>
+        <v>751.5700000000001</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>77.28</v>
+        <v>84.56</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>100032</v>
+        <v>162411</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>0.973</v>
+        <v>0.3775</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>3083.26</v>
+        <v>5299.96</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>2913.68</v>
+        <v>1303.79</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-86.33</v>
+        <v>-696.9400000000001</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>华安标普石油指数</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>1052</v>
+        <v>160416</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>0.5517</v>
+        <v>0.6498</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>1812.7</v>
+        <v>1026.5</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>1025.26</v>
+        <v>797.59</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>25.2</v>
+        <v>130.57</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>南方原油A</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>1051</v>
+        <v>501018</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.7171</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>1059.17</v>
+        <v>930.1900000000001</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>985.66</v>
+        <v>757.17</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-14.3</v>
+        <v>90.14</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>1469</v>
+        <v>478</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>1.0907</v>
+        <v>1.9178</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>916.83</v>
+        <v>1564.33</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>909.4</v>
+        <v>3099.88</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>-90.58</v>
+        <v>99.8</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3471,17 +3471,17 @@
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3493,23 +3493,23 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.973</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>822.11</v>
+        <v>3083.26</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>650.78</v>
+        <v>2932.18</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>-19.24</v>
+        <v>-67.83</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3518,17 +3518,17 @@
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3540,42 +3540,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>71</v>
+        <v>1052</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.4046</v>
+        <v>0.5517</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>1423.86</v>
+        <v>1812.7</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>1905.84</v>
+        <v>1037.41</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>-94.12</v>
+        <v>37.34</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3587,42 +3587,42 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>1.1113</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>899.8200000000001</v>
+        <v>1059.17</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>1149.97</v>
+        <v>996.04</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>150</v>
+        <v>-3.92</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3634,42 +3634,42 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>614</v>
+        <v>1469</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>0.9766</v>
+        <v>1.0907</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>2047.94</v>
+        <v>916.83</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>1959.88</v>
+        <v>911.33</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-40.14</v>
+        <v>-88.66</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3681,42 +3681,42 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>50025</v>
+        <v>4752</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>2.2822</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>438.17</v>
+        <v>822.11</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>899.21</v>
+        <v>644.12</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-100.78</v>
+        <v>-25.9</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H69" s="36" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I69" s="36" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J69" s="36" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K69" s="36" t="inlineStr">
@@ -3728,42 +3728,42 @@
     <row r="70">
       <c r="A70" s="32" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B70" s="33" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C70" s="34" t="n">
-        <v>0.3879</v>
+        <v>1.4046</v>
       </c>
       <c r="D70" s="35" t="n">
-        <v>7734.05</v>
+        <v>1423.86</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>1995.38</v>
+        <v>1972.47</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>-1004.65</v>
+        <v>-27.48</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H70" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I70" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J70" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K70" s="36" t="inlineStr">
@@ -3775,42 +3775,42 @@
     <row r="71">
       <c r="A71" s="32" t="inlineStr">
         <is>
-          <t>南方原油A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B71" s="33" t="n">
-        <v>501018</v>
+        <v>164906</v>
       </c>
       <c r="C71" s="34" t="n">
-        <v>0.7171</v>
+        <v>1.1113</v>
       </c>
       <c r="D71" s="35" t="n">
-        <v>1394.58</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>1157.5</v>
+        <v>1172.47</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>157.45</v>
+        <v>172.5</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H71" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I71" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J71" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K71" s="36" t="inlineStr">
@@ -3822,42 +3822,42 @@
     <row r="72">
       <c r="A72" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B72" s="33" t="n">
-        <v>216</v>
+        <v>614</v>
       </c>
       <c r="C72" s="34" t="n">
-        <v>1.0902</v>
+        <v>0.9766</v>
       </c>
       <c r="D72" s="35" t="n">
-        <v>917.23</v>
+        <v>2047.94</v>
       </c>
       <c r="E72" s="35" t="n">
-        <v>1216.52</v>
+        <v>2127.81</v>
       </c>
       <c r="F72" s="35" t="n">
-        <v>216.56</v>
+        <v>127.79</v>
       </c>
       <c r="G72" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H72" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I72" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J72" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K72" s="36" t="inlineStr">
@@ -3869,258 +3869,258 @@
     <row r="73">
       <c r="A73" s="32" t="inlineStr">
         <is>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B73" s="33" t="n">
+        <v>50025</v>
+      </c>
+      <c r="C73" s="34" t="n">
+        <v>2.2822</v>
+      </c>
+      <c r="D73" s="35" t="n">
+        <v>438.17</v>
+      </c>
+      <c r="E73" s="35" t="n">
+        <v>982.77</v>
+      </c>
+      <c r="F73" s="35" t="n">
+        <v>-17.22</v>
+      </c>
+      <c r="G73" s="36" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H73" s="36" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="I73" s="36" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+      <c r="J73" s="36" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K73" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="32" t="inlineStr">
+        <is>
+          <t>华宝标普石油指数A</t>
+        </is>
+      </c>
+      <c r="B74" s="33" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C74" s="34" t="n">
+        <v>0.3879</v>
+      </c>
+      <c r="D74" s="35" t="n">
+        <v>7734.05</v>
+      </c>
+      <c r="E74" s="35" t="n">
+        <v>1902.58</v>
+      </c>
+      <c r="F74" s="35" t="n">
+        <v>-1097.46</v>
+      </c>
+      <c r="G74" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H74" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I74" s="36" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J74" s="36" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K74" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="32" t="inlineStr">
+        <is>
+          <t>南方原油A</t>
+        </is>
+      </c>
+      <c r="B75" s="33" t="n">
+        <v>501018</v>
+      </c>
+      <c r="C75" s="34" t="n">
+        <v>0.7171</v>
+      </c>
+      <c r="D75" s="35" t="n">
+        <v>1394.58</v>
+      </c>
+      <c r="E75" s="35" t="n">
+        <v>1135.19</v>
+      </c>
+      <c r="F75" s="35" t="n">
+        <v>135.13</v>
+      </c>
+      <c r="G75" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H75" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I75" s="36" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J75" s="36" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K75" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="32" t="inlineStr">
+        <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B76" s="33" t="n">
+        <v>216</v>
+      </c>
+      <c r="C76" s="34" t="n">
+        <v>1.0902</v>
+      </c>
+      <c r="D76" s="35" t="n">
+        <v>917.23</v>
+      </c>
+      <c r="E76" s="35" t="n">
+        <v>1248.07</v>
+      </c>
+      <c r="F76" s="35" t="n">
+        <v>248.11</v>
+      </c>
+      <c r="G76" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H76" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I76" s="36" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J76" s="36" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K76" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="32" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B73" s="33" t="n">
+      <c r="B77" s="33" t="n">
         <v>110027</v>
       </c>
-      <c r="C73" s="34" t="n">
+      <c r="C77" s="34" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D73" s="35" t="n">
+      <c r="D77" s="35" t="n">
         <v>595.47</v>
       </c>
-      <c r="E73" s="35" t="n">
-        <v>1044.45</v>
-      </c>
-      <c r="F73" s="35" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="G73" s="36" t="inlineStr">
+      <c r="E77" s="35" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F77" s="35" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="G77" s="36" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H73" s="36" t="inlineStr">
+      <c r="H77" s="36" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I73" s="36" t="inlineStr">
+      <c r="I77" s="36" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J73" s="36" t="inlineStr">
+      <c r="J77" s="36" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K73" s="36" t="inlineStr">
+      <c r="K77" s="36" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="37" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强A</t>
-        </is>
-      </c>
-      <c r="B74" s="38" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C74" s="39" t="n">
-        <v>0.9169</v>
-      </c>
-      <c r="D74" s="40" t="n">
-        <v>72337.78999999999</v>
-      </c>
-      <c r="E74" s="40" t="n">
-        <v>68359.21000000001</v>
-      </c>
-      <c r="F74" s="40" t="n">
-        <v>2032.69</v>
-      </c>
-      <c r="G74" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H74" s="41" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I74" s="41" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J74" s="41" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K74" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="37" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B75" s="38" t="n">
-        <v>968</v>
-      </c>
-      <c r="C75" s="39" t="n">
-        <v>0.9167</v>
-      </c>
-      <c r="D75" s="40" t="n">
-        <v>63490</v>
-      </c>
-      <c r="E75" s="40" t="n">
-        <v>62759.87</v>
-      </c>
-      <c r="F75" s="40" t="n">
-        <v>4558.58</v>
-      </c>
-      <c r="G75" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H75" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I75" s="41" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J75" s="41" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K75" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="37" t="inlineStr">
-        <is>
-          <t>华安德国30(DAX)联接</t>
-        </is>
-      </c>
-      <c r="B76" s="38" t="n">
-        <v>614</v>
-      </c>
-      <c r="C76" s="39" t="n">
-        <v>1.0042</v>
-      </c>
-      <c r="D76" s="40" t="n">
-        <v>41627.14</v>
-      </c>
-      <c r="E76" s="40" t="n">
-        <v>39837.17</v>
-      </c>
-      <c r="F76" s="40" t="n">
-        <v>-1964.8</v>
-      </c>
-      <c r="G76" s="41" t="inlineStr">
-        <is>
-          <t>海外成熟</t>
-        </is>
-      </c>
-      <c r="H76" s="41" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="I76" s="41" t="inlineStr">
-        <is>
-          <t>德国30</t>
-        </is>
-      </c>
-      <c r="J76" s="41" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="K76" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="37" t="inlineStr">
-        <is>
-          <t>兴全可转债混合</t>
-        </is>
-      </c>
-      <c r="B77" s="38" t="n">
-        <v>340001</v>
-      </c>
-      <c r="C77" s="39" t="n">
-        <v>0.9886</v>
-      </c>
-      <c r="D77" s="40" t="n">
-        <v>32370.29</v>
-      </c>
-      <c r="E77" s="40" t="n">
-        <v>39061.23</v>
-      </c>
-      <c r="F77" s="40" t="n">
-        <v>7059.96</v>
-      </c>
-      <c r="G77" s="41" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H77" s="41" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I77" s="41" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J77" s="41" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K77" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="37" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B78" s="38" t="n">
-        <v>1180</v>
+        <v>100032</v>
       </c>
       <c r="C78" s="39" t="n">
-        <v>0.7451</v>
+        <v>0.9169</v>
       </c>
       <c r="D78" s="40" t="n">
-        <v>41014.88</v>
+        <v>72337.78999999999</v>
       </c>
       <c r="E78" s="40" t="n">
-        <v>38160.24</v>
+        <v>68793.24000000001</v>
       </c>
       <c r="F78" s="40" t="n">
-        <v>7600.06</v>
+        <v>2466.72</v>
       </c>
       <c r="G78" s="41" t="inlineStr">
         <is>
@@ -4129,17 +4129,17 @@
       </c>
       <c r="H78" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I78" s="41" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J78" s="41" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K78" s="41" t="inlineStr">
@@ -4151,42 +4151,42 @@
     <row r="79">
       <c r="A79" s="37" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B79" s="38" t="n">
-        <v>110027</v>
+        <v>968</v>
       </c>
       <c r="C79" s="39" t="n">
-        <v>1.5931</v>
+        <v>0.9167</v>
       </c>
       <c r="D79" s="40" t="n">
-        <v>20086.63</v>
+        <v>63490</v>
       </c>
       <c r="E79" s="40" t="n">
-        <v>35231.95</v>
+        <v>63743.96</v>
       </c>
       <c r="F79" s="40" t="n">
-        <v>3231.94</v>
+        <v>5542.68</v>
       </c>
       <c r="G79" s="41" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H79" s="41" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I79" s="41" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J79" s="41" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K79" s="41" t="inlineStr">
@@ -4198,42 +4198,42 @@
     <row r="80">
       <c r="A80" s="37" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B80" s="38" t="n">
-        <v>1469</v>
+        <v>614</v>
       </c>
       <c r="C80" s="39" t="n">
-        <v>0.9471000000000001</v>
+        <v>1.0042</v>
       </c>
       <c r="D80" s="40" t="n">
-        <v>27031.68</v>
+        <v>41627.14</v>
       </c>
       <c r="E80" s="40" t="n">
-        <v>26812.72</v>
+        <v>43250.6</v>
       </c>
       <c r="F80" s="40" t="n">
-        <v>1211.02</v>
+        <v>1448.62</v>
       </c>
       <c r="G80" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H80" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I80" s="41" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J80" s="41" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K80" s="41" t="inlineStr">
@@ -4245,42 +4245,42 @@
     <row r="81">
       <c r="A81" s="37" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B81" s="38" t="n">
-        <v>100038</v>
+        <v>340001</v>
       </c>
       <c r="C81" s="39" t="n">
-        <v>1.3129</v>
+        <v>0.9886</v>
       </c>
       <c r="D81" s="40" t="n">
-        <v>14624.61</v>
+        <v>32370.29</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>22668.15</v>
+        <v>39015.91</v>
       </c>
       <c r="F81" s="40" t="n">
-        <v>3467.5</v>
+        <v>7014.64</v>
       </c>
       <c r="G81" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H81" s="41" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I81" s="41" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J81" s="41" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K81" s="41" t="inlineStr">
@@ -4292,42 +4292,42 @@
     <row r="82">
       <c r="A82" s="37" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B82" s="38" t="n">
-        <v>71</v>
+        <v>1180</v>
       </c>
       <c r="C82" s="39" t="n">
-        <v>1.3654</v>
+        <v>0.7451</v>
       </c>
       <c r="D82" s="40" t="n">
-        <v>16626.05</v>
+        <v>41014.88</v>
       </c>
       <c r="E82" s="40" t="n">
-        <v>22253.97</v>
+        <v>39944.39</v>
       </c>
       <c r="F82" s="40" t="n">
-        <v>-447.24</v>
+        <v>9384.200000000001</v>
       </c>
       <c r="G82" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H82" s="41" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I82" s="41" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J82" s="41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K82" s="41" t="inlineStr">
@@ -4339,42 +4339,42 @@
     <row r="83">
       <c r="A83" s="37" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B83" s="38" t="n">
-        <v>164906</v>
+        <v>110027</v>
       </c>
       <c r="C83" s="39" t="n">
-        <v>1.1444</v>
+        <v>1.5931</v>
       </c>
       <c r="D83" s="40" t="n">
-        <v>16778.47</v>
+        <v>20086.63</v>
       </c>
       <c r="E83" s="40" t="n">
-        <v>21442.88</v>
+        <v>35452.9</v>
       </c>
       <c r="F83" s="40" t="n">
-        <v>2241.6</v>
+        <v>3452.89</v>
       </c>
       <c r="G83" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H83" s="41" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I83" s="41" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J83" s="41" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K83" s="41" t="inlineStr">
@@ -4386,23 +4386,23 @@
     <row r="84">
       <c r="A84" s="37" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B84" s="38" t="n">
-        <v>161017</v>
+        <v>1469</v>
       </c>
       <c r="C84" s="39" t="n">
-        <v>1.3432</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="D84" s="40" t="n">
-        <v>9529.809999999999</v>
+        <v>27031.68</v>
       </c>
       <c r="E84" s="40" t="n">
-        <v>16153.03</v>
+        <v>26869.49</v>
       </c>
       <c r="F84" s="40" t="n">
-        <v>3352.59</v>
+        <v>1267.79</v>
       </c>
       <c r="G84" s="41" t="inlineStr">
         <is>
@@ -4411,17 +4411,17 @@
       </c>
       <c r="H84" s="41" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I84" s="41" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J84" s="41" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K84" s="41" t="inlineStr">
@@ -4433,23 +4433,23 @@
     <row r="85">
       <c r="A85" s="37" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B85" s="38" t="n">
-        <v>1064</v>
+        <v>100038</v>
       </c>
       <c r="C85" s="39" t="n">
-        <v>0.4775</v>
+        <v>1.3129</v>
       </c>
       <c r="D85" s="40" t="n">
-        <v>13403.92</v>
+        <v>14624.61</v>
       </c>
       <c r="E85" s="40" t="n">
-        <v>7546.41</v>
+        <v>22931.39</v>
       </c>
       <c r="F85" s="40" t="n">
-        <v>1146.04</v>
+        <v>3730.74</v>
       </c>
       <c r="G85" s="41" t="inlineStr">
         <is>
@@ -4458,17 +4458,17 @@
       </c>
       <c r="H85" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I85" s="41" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J85" s="41" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K85" s="41" t="inlineStr">
@@ -4480,42 +4480,42 @@
     <row r="86">
       <c r="A86" s="37" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B86" s="38" t="n">
-        <v>50025</v>
+        <v>71</v>
       </c>
       <c r="C86" s="39" t="n">
-        <v>1.9458</v>
+        <v>1.3654</v>
       </c>
       <c r="D86" s="40" t="n">
-        <v>3289.25</v>
+        <v>16626.05</v>
       </c>
       <c r="E86" s="40" t="n">
-        <v>6750.2</v>
+        <v>23032.07</v>
       </c>
       <c r="F86" s="40" t="n">
-        <v>349.98</v>
+        <v>330.86</v>
       </c>
       <c r="G86" s="41" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H86" s="41" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I86" s="41" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J86" s="41" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K86" s="41" t="inlineStr">
@@ -4527,42 +4527,42 @@
     <row r="87">
       <c r="A87" s="37" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B87" s="38" t="n">
-        <v>162411</v>
+        <v>164906</v>
       </c>
       <c r="C87" s="39" t="n">
-        <v>0.5152</v>
+        <v>1.1444</v>
       </c>
       <c r="D87" s="40" t="n">
-        <v>37267.45</v>
+        <v>16778.47</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>9615</v>
+        <v>21862.35</v>
       </c>
       <c r="F87" s="40" t="n">
-        <v>-9585.190000000001</v>
+        <v>2661.07</v>
       </c>
       <c r="G87" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H87" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I87" s="41" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J87" s="41" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K87" s="41" t="inlineStr">
@@ -4574,23 +4574,23 @@
     <row r="88">
       <c r="A88" s="37" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B88" s="38" t="n">
-        <v>478</v>
+        <v>161017</v>
       </c>
       <c r="C88" s="39" t="n">
-        <v>1.9397</v>
+        <v>1.3432</v>
       </c>
       <c r="D88" s="40" t="n">
-        <v>3299.64</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E88" s="40" t="n">
-        <v>6491.05</v>
+        <v>16391.27</v>
       </c>
       <c r="F88" s="40" t="n">
-        <v>90.73999999999999</v>
+        <v>3590.83</v>
       </c>
       <c r="G88" s="41" t="inlineStr">
         <is>
@@ -4621,305 +4621,305 @@
     <row r="89">
       <c r="A89" s="37" t="inlineStr">
         <is>
+          <t>广发中证环保ETF联接A</t>
+        </is>
+      </c>
+      <c r="B89" s="38" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C89" s="39" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="D89" s="40" t="n">
+        <v>13403.92</v>
+      </c>
+      <c r="E89" s="40" t="n">
+        <v>7494.13</v>
+      </c>
+      <c r="F89" s="40" t="n">
+        <v>1093.76</v>
+      </c>
+      <c r="G89" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H89" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I89" s="41" t="inlineStr">
+        <is>
+          <t>中证环保</t>
+        </is>
+      </c>
+      <c r="J89" s="41" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K89" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="37" t="inlineStr">
+        <is>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B90" s="38" t="n">
+        <v>50025</v>
+      </c>
+      <c r="C90" s="39" t="n">
+        <v>1.9458</v>
+      </c>
+      <c r="D90" s="40" t="n">
+        <v>3289.25</v>
+      </c>
+      <c r="E90" s="40" t="n">
+        <v>7377.46</v>
+      </c>
+      <c r="F90" s="40" t="n">
+        <v>977.24</v>
+      </c>
+      <c r="G90" s="41" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H90" s="41" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="I90" s="41" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+      <c r="J90" s="41" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K90" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="37" t="inlineStr">
+        <is>
+          <t>华宝标普油气上游股票人民币A</t>
+        </is>
+      </c>
+      <c r="B91" s="38" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C91" s="39" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="D91" s="40" t="n">
+        <v>37267.45</v>
+      </c>
+      <c r="E91" s="40" t="n">
+        <v>9167.790000000001</v>
+      </c>
+      <c r="F91" s="40" t="n">
+        <v>-10032.4</v>
+      </c>
+      <c r="G91" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H91" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I91" s="41" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J91" s="41" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K91" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="37" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B92" s="38" t="n">
+        <v>478</v>
+      </c>
+      <c r="C92" s="39" t="n">
+        <v>1.9397</v>
+      </c>
+      <c r="D92" s="40" t="n">
+        <v>3299.64</v>
+      </c>
+      <c r="E92" s="40" t="n">
+        <v>6538.57</v>
+      </c>
+      <c r="F92" s="40" t="n">
+        <v>138.25</v>
+      </c>
+      <c r="G92" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H92" s="41" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I92" s="41" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J92" s="41" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K92" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="37" t="inlineStr">
+        <is>
           <t>南方原油A</t>
         </is>
       </c>
-      <c r="B89" s="38" t="n">
+      <c r="B93" s="38" t="n">
         <v>501018</v>
       </c>
-      <c r="C89" s="39" t="n">
+      <c r="C93" s="39" t="n">
         <v>0.7171</v>
       </c>
-      <c r="D89" s="40" t="n">
+      <c r="D93" s="40" t="n">
         <v>8925.34</v>
       </c>
-      <c r="E89" s="40" t="n">
-        <v>7408.03</v>
-      </c>
-      <c r="F89" s="40" t="n">
-        <v>1007.67</v>
-      </c>
-      <c r="G89" s="41" t="inlineStr">
+      <c r="E93" s="40" t="n">
+        <v>7265.23</v>
+      </c>
+      <c r="F93" s="40" t="n">
+        <v>864.87</v>
+      </c>
+      <c r="G93" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H89" s="41" t="inlineStr">
+      <c r="H93" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I89" s="41" t="inlineStr">
+      <c r="I93" s="41" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="J89" s="41" t="inlineStr">
+      <c r="J93" s="41" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="K89" s="41" t="inlineStr">
+      <c r="K93" s="41" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>货币基金综合</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B94" s="3" t="n">
         <v>999999</v>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C94" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D90" s="5" t="n">
+      <c r="D94" s="5" t="n">
         <v>1001.99</v>
       </c>
-      <c r="E90" s="5" t="n">
+      <c r="E94" s="5" t="n">
         <v>1001.99</v>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F94" s="5" t="n">
         <v>1.99</v>
       </c>
-      <c r="G90" s="6" t="inlineStr">
+      <c r="G94" s="6" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H90" s="6" t="inlineStr">
+      <c r="H94" s="6" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I90" s="6" t="inlineStr">
+      <c r="I94" s="6" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J90" s="6" t="inlineStr">
+      <c r="J94" s="6" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K90" s="6" t="inlineStr">
+      <c r="K94" s="6" t="inlineStr">
         <is>
           <t>现金账户父母</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="7" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B91" s="8" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C91" s="9" t="n">
-        <v>1.4199</v>
-      </c>
-      <c r="D91" s="10" t="n">
-        <v>1553.77</v>
-      </c>
-      <c r="E91" s="10" t="n">
-        <v>2026.12</v>
-      </c>
-      <c r="F91" s="10" t="n">
-        <v>-180.08</v>
-      </c>
-      <c r="G91" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H91" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I91" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J91" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K91" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="7" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="B92" s="8" t="n">
-        <v>90010</v>
-      </c>
-      <c r="C92" s="9" t="n">
-        <v>1.6542</v>
-      </c>
-      <c r="D92" s="10" t="n">
-        <v>1325.41</v>
-      </c>
-      <c r="E92" s="10" t="n">
-        <v>2022.58</v>
-      </c>
-      <c r="F92" s="10" t="n">
-        <v>-169.92</v>
-      </c>
-      <c r="G92" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H92" s="11" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I92" s="11" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J92" s="11" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K92" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="7" t="inlineStr">
-        <is>
-          <t>景顺长城中证500低波动</t>
-        </is>
-      </c>
-      <c r="B93" s="8" t="n">
-        <v>3318</v>
-      </c>
-      <c r="C93" s="9" t="n">
-        <v>0.9407</v>
-      </c>
-      <c r="D93" s="10" t="n">
-        <v>1797.43</v>
-      </c>
-      <c r="E93" s="10" t="n">
-        <v>1684.37</v>
-      </c>
-      <c r="F93" s="10" t="n">
-        <v>-6.47</v>
-      </c>
-      <c r="G93" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H93" s="11" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I93" s="11" t="inlineStr">
-        <is>
-          <t>500低波动</t>
-        </is>
-      </c>
-      <c r="J93" s="11" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="K93" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="7" t="inlineStr">
-        <is>
-          <t>华宝香港中小</t>
-        </is>
-      </c>
-      <c r="B94" s="8" t="n">
-        <v>501021</v>
-      </c>
-      <c r="C94" s="9" t="n">
-        <v>1.3403</v>
-      </c>
-      <c r="D94" s="10" t="n">
-        <v>1026.71</v>
-      </c>
-      <c r="E94" s="10" t="n">
-        <v>1343.66</v>
-      </c>
-      <c r="F94" s="10" t="n">
-        <v>-32.44</v>
-      </c>
-      <c r="G94" s="11" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H94" s="11" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="I94" s="11" t="inlineStr">
-        <is>
-          <t>香港中小</t>
-        </is>
-      </c>
-      <c r="J94" s="11" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="K94" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>530015</v>
+        <v>519671</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>2.1382</v>
+        <v>1.4178</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>485.77</v>
+        <v>1586.43</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>996.36</v>
+        <v>2084.57</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>-42.31</v>
+        <v>-164.67</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4950,23 +4950,23 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>70023</v>
+        <v>90010</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>1.7992</v>
+        <v>1.6542</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>528.99</v>
+        <v>1325.41</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>941.4400000000001</v>
+        <v>2035.83</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-10.32</v>
+        <v>-156.66</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4975,17 +4975,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -4997,23 +4997,23 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B97" s="8" t="n">
-        <v>1594</v>
+        <v>3318</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>1.177</v>
+        <v>0.9407</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>594.27</v>
+        <v>1797.43</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>643.95</v>
+        <v>1716.91</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-55.5</v>
+        <v>26.06</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5044,42 +5044,42 @@
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>968</v>
+        <v>501021</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>0.9588</v>
+        <v>1.3404</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>426.97</v>
+        <v>1051.5</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>422.06</v>
+        <v>1436.98</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>12.68</v>
+        <v>27.55</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H98" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
@@ -5091,42 +5091,42 @@
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B99" s="8" t="n">
-        <v>6327</v>
+        <v>530015</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>1.1598</v>
+        <v>2.1382</v>
       </c>
       <c r="D99" s="10" t="n">
-        <v>378.03</v>
+        <v>485.77</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>406.04</v>
+        <v>1011.28</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>-32.4</v>
+        <v>-27.4</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H99" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I99" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J99" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K99" s="11" t="inlineStr">
@@ -5138,42 +5138,42 @@
     <row r="100">
       <c r="A100" s="7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B100" s="8" t="n">
-        <v>40046</v>
+        <v>70023</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>2.2919</v>
+        <v>1.7992</v>
       </c>
       <c r="D100" s="10" t="n">
-        <v>111.78</v>
+        <v>528.99</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>273.86</v>
+        <v>952.66</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>17.67</v>
+        <v>0.9</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H100" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I100" s="11" t="inlineStr">
         <is>
-          <t>纳斯达克</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J100" s="11" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K100" s="11" t="inlineStr">
@@ -5185,42 +5185,42 @@
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B101" s="8" t="n">
-        <v>164906</v>
+        <v>1594</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>1.1987</v>
+        <v>1.1719</v>
       </c>
       <c r="D101" s="10" t="n">
-        <v>215.44</v>
+        <v>631.0700000000001</v>
       </c>
       <c r="E101" s="10" t="n">
-        <v>275.33</v>
+        <v>682.5</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>17.08</v>
+        <v>-57.05</v>
       </c>
       <c r="G101" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H101" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I101" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J101" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K101" s="11" t="inlineStr">
@@ -5232,42 +5232,42 @@
     <row r="102">
       <c r="A102" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B102" s="8" t="n">
-        <v>501050</v>
+        <v>6327</v>
       </c>
       <c r="C102" s="9" t="n">
-        <v>1.284</v>
+        <v>1.1598</v>
       </c>
       <c r="D102" s="10" t="n">
-        <v>142.1</v>
+        <v>387.21</v>
       </c>
       <c r="E102" s="10" t="n">
-        <v>173.08</v>
+        <v>424.15</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>-9.380000000000001</v>
+        <v>-24.94</v>
       </c>
       <c r="G102" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H102" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I102" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J102" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K102" s="11" t="inlineStr">
@@ -5279,23 +5279,23 @@
     <row r="103">
       <c r="A103" s="7" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B103" s="8" t="n">
-        <v>161725</v>
+        <v>968</v>
       </c>
       <c r="C103" s="9" t="n">
-        <v>0.8286</v>
+        <v>0.9588</v>
       </c>
       <c r="D103" s="10" t="n">
-        <v>140.72</v>
+        <v>426.97</v>
       </c>
       <c r="E103" s="10" t="n">
-        <v>125.23</v>
+        <v>428.68</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>8.630000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
@@ -5309,12 +5309,12 @@
       </c>
       <c r="I103" s="11" t="inlineStr">
         <is>
-          <t>全指消费</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J103" s="11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K103" s="11" t="inlineStr">
@@ -5326,42 +5326,42 @@
     <row r="104">
       <c r="A104" s="7" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B104" s="8" t="n">
-        <v>161128</v>
+        <v>164906</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>1.6817</v>
+        <v>1.1987</v>
       </c>
       <c r="D104" s="10" t="n">
-        <v>57.97</v>
+        <v>235.02</v>
       </c>
       <c r="E104" s="10" t="n">
-        <v>92</v>
+        <v>306.23</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>-5.49</v>
+        <v>24.51</v>
       </c>
       <c r="G104" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H104" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I104" s="11" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J104" s="11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K104" s="11" t="inlineStr">
@@ -5373,42 +5373,42 @@
     <row r="105">
       <c r="A105" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华安纳斯达克100指数</t>
         </is>
       </c>
       <c r="B105" s="8" t="n">
-        <v>310398</v>
+        <v>40046</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>1.4372</v>
+        <v>2.2919</v>
       </c>
       <c r="D105" s="10" t="n">
-        <v>25.8</v>
+        <v>111.78</v>
       </c>
       <c r="E105" s="10" t="n">
-        <v>31.8</v>
+        <v>291.97</v>
       </c>
       <c r="F105" s="10" t="n">
-        <v>-5.28</v>
+        <v>35.78</v>
       </c>
       <c r="G105" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H105" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I105" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>纳斯达克</t>
         </is>
       </c>
       <c r="J105" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K105" s="11" t="inlineStr">
@@ -5420,23 +5420,23 @@
     <row r="106">
       <c r="A106" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B106" s="8" t="n">
-        <v>1550</v>
+        <v>501050</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.284</v>
       </c>
       <c r="D106" s="10" t="n">
-        <v>0</v>
+        <v>142.1</v>
       </c>
       <c r="E106" s="10" t="n">
-        <v>0</v>
+        <v>178.34</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>0</v>
+        <v>-4.12</v>
       </c>
       <c r="G106" s="11" t="inlineStr">
         <is>
@@ -5445,17 +5445,17 @@
       </c>
       <c r="H106" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I106" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J106" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K106" s="11" t="inlineStr">
@@ -5467,42 +5467,42 @@
     <row r="107">
       <c r="A107" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="B107" s="8" t="n">
-        <v>2086</v>
+        <v>161725</v>
       </c>
       <c r="C107" s="9" t="n">
-        <v>1.2257</v>
+        <v>0.8286</v>
       </c>
       <c r="D107" s="10" t="n">
-        <v>0</v>
+        <v>140.72</v>
       </c>
       <c r="E107" s="10" t="n">
-        <v>0</v>
+        <v>130.56</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>0</v>
+        <v>13.96</v>
       </c>
       <c r="G107" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H107" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I107" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J107" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K107" s="11" t="inlineStr">
@@ -5514,42 +5514,42 @@
     <row r="108">
       <c r="A108" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B108" s="8" t="n">
-        <v>501029</v>
+        <v>161128</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.6817</v>
       </c>
       <c r="D108" s="10" t="n">
-        <v>0</v>
+        <v>63.82</v>
       </c>
       <c r="E108" s="10" t="n">
-        <v>0</v>
+        <v>108.78</v>
       </c>
       <c r="F108" s="10" t="n">
-        <v>-0</v>
+        <v>1.46</v>
       </c>
       <c r="G108" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H108" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I108" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J108" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K108" s="11" t="inlineStr">
@@ -5561,493 +5561,493 @@
     <row r="109">
       <c r="A109" s="7" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>易方达上证50指数A</t>
         </is>
       </c>
       <c r="B109" s="8" t="n">
-        <v>2147</v>
+        <v>110003</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>1.2174</v>
+        <v>1.7012</v>
       </c>
       <c r="D109" s="10" t="n">
-        <v>1588.12</v>
+        <v>25.7</v>
       </c>
       <c r="E109" s="10" t="n">
-        <v>1938.78</v>
+        <v>43.68</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>5.4</v>
+        <v>-0.04</v>
       </c>
       <c r="G109" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H109" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I109" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J109" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K109" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B110" s="8" t="n">
-        <v>6060</v>
+        <v>310398</v>
       </c>
       <c r="C110" s="9" t="n">
-        <v>1.1024</v>
+        <v>1.4372</v>
       </c>
       <c r="D110" s="10" t="n">
-        <v>876.9</v>
+        <v>25.8</v>
       </c>
       <c r="E110" s="10" t="n">
-        <v>952.23</v>
+        <v>32.04</v>
       </c>
       <c r="F110" s="10" t="n">
-        <v>-14.47</v>
+        <v>-5.04</v>
       </c>
       <c r="G110" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H110" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I110" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J110" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K110" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="7" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B111" s="8" t="n">
-        <v>7749</v>
+        <v>1550</v>
       </c>
       <c r="C111" s="9" t="n">
-        <v>1.0941</v>
+        <v>0.6708</v>
       </c>
       <c r="D111" s="10" t="n">
-        <v>883.55</v>
+        <v>0</v>
       </c>
       <c r="E111" s="10" t="n">
-        <v>948.49</v>
+        <v>0</v>
       </c>
       <c r="F111" s="10" t="n">
-        <v>-18.2</v>
+        <v>0</v>
       </c>
       <c r="G111" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H111" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I111" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J111" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K111" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B112" s="8" t="n">
-        <v>1338</v>
+        <v>2086</v>
       </c>
       <c r="C112" s="9" t="n">
-        <v>1.3602</v>
+        <v>1.2257</v>
       </c>
       <c r="D112" s="10" t="n">
-        <v>355.34</v>
+        <v>0</v>
       </c>
       <c r="E112" s="10" t="n">
-        <v>478.79</v>
+        <v>0</v>
       </c>
       <c r="F112" s="10" t="n">
-        <v>-4.55</v>
+        <v>0</v>
       </c>
       <c r="G112" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H112" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I112" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J112" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K112" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B113" s="8" t="n">
-        <v>485011</v>
+        <v>501029</v>
       </c>
       <c r="C113" s="9" t="n">
-        <v>1.586</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D113" s="10" t="n">
-        <v>304.75</v>
+        <v>0</v>
       </c>
       <c r="E113" s="10" t="n">
-        <v>471.75</v>
+        <v>0</v>
       </c>
       <c r="F113" s="10" t="n">
-        <v>-11.58</v>
+        <v>-0</v>
       </c>
       <c r="G113" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H113" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I113" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J113" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K113" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>长安鑫益增强混合C</t>
         </is>
       </c>
       <c r="B114" s="8" t="n">
-        <v>519671</v>
+        <v>2147</v>
       </c>
       <c r="C114" s="9" t="n">
-        <v>1.4259</v>
+        <v>1.2174</v>
       </c>
       <c r="D114" s="10" t="n">
-        <v>1454.39</v>
+        <v>1588.12</v>
       </c>
       <c r="E114" s="10" t="n">
-        <v>1896.52</v>
+        <v>1943.06</v>
       </c>
       <c r="F114" s="10" t="n">
-        <v>-177.29</v>
+        <v>9.69</v>
       </c>
       <c r="G114" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H114" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I114" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J114" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K114" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B115" s="8" t="n">
-        <v>90010</v>
+        <v>6060</v>
       </c>
       <c r="C115" s="9" t="n">
-        <v>1.6508</v>
+        <v>1.1024</v>
       </c>
       <c r="D115" s="10" t="n">
-        <v>1210.44</v>
+        <v>876.9</v>
       </c>
       <c r="E115" s="10" t="n">
-        <v>1847.13</v>
+        <v>957.14</v>
       </c>
       <c r="F115" s="10" t="n">
-        <v>-151.06</v>
+        <v>-9.56</v>
       </c>
       <c r="G115" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H115" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I115" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J115" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K115" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>民生加银鹏程混合C</t>
         </is>
       </c>
       <c r="B116" s="8" t="n">
-        <v>3318</v>
+        <v>7749</v>
       </c>
       <c r="C116" s="9" t="n">
-        <v>0.9401</v>
+        <v>1.0941</v>
       </c>
       <c r="D116" s="10" t="n">
-        <v>1697.75</v>
+        <v>883.55</v>
       </c>
       <c r="E116" s="10" t="n">
-        <v>1590.96</v>
+        <v>954.6799999999999</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>-5.09</v>
+        <v>-12.02</v>
       </c>
       <c r="G116" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H116" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I116" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J116" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K116" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>安信稳健增值混合C</t>
         </is>
       </c>
       <c r="B117" s="8" t="n">
-        <v>501021</v>
+        <v>1338</v>
       </c>
       <c r="C117" s="9" t="n">
-        <v>1.3463</v>
+        <v>1.3602</v>
       </c>
       <c r="D117" s="10" t="n">
-        <v>952.26</v>
+        <v>355.34</v>
       </c>
       <c r="E117" s="10" t="n">
-        <v>1246.22</v>
+        <v>482.98</v>
       </c>
       <c r="F117" s="10" t="n">
-        <v>-35.8</v>
+        <v>-0.36</v>
       </c>
       <c r="G117" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H117" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I117" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J117" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K117" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B118" s="8" t="n">
-        <v>530015</v>
+        <v>485011</v>
       </c>
       <c r="C118" s="9" t="n">
-        <v>2.1246</v>
+        <v>1.586</v>
       </c>
       <c r="D118" s="10" t="n">
-        <v>456.18</v>
+        <v>304.75</v>
       </c>
       <c r="E118" s="10" t="n">
-        <v>935.67</v>
+        <v>477.54</v>
       </c>
       <c r="F118" s="10" t="n">
-        <v>-33.53</v>
+        <v>-5.79</v>
       </c>
       <c r="G118" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H118" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I118" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J118" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K118" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B119" s="8" t="n">
-        <v>70023</v>
+        <v>519671</v>
       </c>
       <c r="C119" s="9" t="n">
-        <v>1.7966</v>
+        <v>1.4235</v>
       </c>
       <c r="D119" s="10" t="n">
-        <v>492.58</v>
+        <v>1487.05</v>
       </c>
       <c r="E119" s="10" t="n">
-        <v>876.64</v>
+        <v>1953.98</v>
       </c>
       <c r="F119" s="10" t="n">
-        <v>-8.32</v>
+        <v>-162.83</v>
       </c>
       <c r="G119" s="11" t="inlineStr">
         <is>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="I119" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J119" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K119" s="11" t="inlineStr">
@@ -6078,23 +6078,23 @@
     <row r="120">
       <c r="A120" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B120" s="8" t="n">
-        <v>1594</v>
+        <v>90010</v>
       </c>
       <c r="C120" s="9" t="n">
-        <v>1.1867</v>
+        <v>1.6508</v>
       </c>
       <c r="D120" s="10" t="n">
-        <v>482.97</v>
+        <v>1210.44</v>
       </c>
       <c r="E120" s="10" t="n">
-        <v>523.35</v>
+        <v>1859.24</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>-49.79</v>
+        <v>-138.96</v>
       </c>
       <c r="G120" s="11" t="inlineStr">
         <is>
@@ -6103,17 +6103,17 @@
       </c>
       <c r="H120" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I120" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J120" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K120" s="11" t="inlineStr">
@@ -6125,42 +6125,42 @@
     <row r="121">
       <c r="A121" s="7" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B121" s="8" t="n">
-        <v>6327</v>
+        <v>3318</v>
       </c>
       <c r="C121" s="9" t="n">
-        <v>1.1657</v>
+        <v>0.9401</v>
       </c>
       <c r="D121" s="10" t="n">
-        <v>353.32</v>
+        <v>1697.75</v>
       </c>
       <c r="E121" s="10" t="n">
-        <v>379.5</v>
+        <v>1621.69</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>-32.36</v>
+        <v>25.64</v>
       </c>
       <c r="G121" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H121" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I121" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J121" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K121" s="11" t="inlineStr">
@@ -6172,42 +6172,42 @@
     <row r="122">
       <c r="A122" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B122" s="8" t="n">
-        <v>968</v>
+        <v>501021</v>
       </c>
       <c r="C122" s="9" t="n">
-        <v>0.9599</v>
+        <v>1.3463</v>
       </c>
       <c r="D122" s="10" t="n">
-        <v>390.82</v>
+        <v>977.05</v>
       </c>
       <c r="E122" s="10" t="n">
-        <v>386.33</v>
+        <v>1335.24</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>11.18</v>
+        <v>19.83</v>
       </c>
       <c r="G122" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H122" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I122" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J122" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K122" s="11" t="inlineStr">
@@ -6219,42 +6219,42 @@
     <row r="123">
       <c r="A123" s="7" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B123" s="8" t="n">
-        <v>164906</v>
+        <v>530015</v>
       </c>
       <c r="C123" s="9" t="n">
-        <v>1.2201</v>
+        <v>2.1246</v>
       </c>
       <c r="D123" s="10" t="n">
-        <v>90.23</v>
+        <v>456.18</v>
       </c>
       <c r="E123" s="10" t="n">
-        <v>115.31</v>
+        <v>949.6799999999999</v>
       </c>
       <c r="F123" s="10" t="n">
-        <v>5.22</v>
+        <v>-19.52</v>
       </c>
       <c r="G123" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H123" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I123" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J123" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K123" s="11" t="inlineStr">
@@ -6266,42 +6266,42 @@
     <row r="124">
       <c r="A124" s="7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B124" s="8" t="n">
-        <v>40046</v>
+        <v>70023</v>
       </c>
       <c r="C124" s="9" t="n">
-        <v>2.2753</v>
+        <v>1.7966</v>
       </c>
       <c r="D124" s="10" t="n">
-        <v>38.03</v>
+        <v>492.58</v>
       </c>
       <c r="E124" s="10" t="n">
-        <v>93.17</v>
+        <v>887.09</v>
       </c>
       <c r="F124" s="10" t="n">
-        <v>6.64</v>
+        <v>2.12</v>
       </c>
       <c r="G124" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H124" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I124" s="11" t="inlineStr">
         <is>
-          <t>纳斯达克</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J124" s="11" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K124" s="11" t="inlineStr">
@@ -6313,42 +6313,42 @@
     <row r="125">
       <c r="A125" s="7" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B125" s="8" t="n">
-        <v>161128</v>
+        <v>1594</v>
       </c>
       <c r="C125" s="9" t="n">
-        <v>1.7366</v>
+        <v>1.1799</v>
       </c>
       <c r="D125" s="10" t="n">
-        <v>47.5</v>
+        <v>519.77</v>
       </c>
       <c r="E125" s="10" t="n">
-        <v>75.38</v>
+        <v>562.13</v>
       </c>
       <c r="F125" s="10" t="n">
-        <v>-7.11</v>
+        <v>-51.15</v>
       </c>
       <c r="G125" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H125" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I125" s="11" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J125" s="11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K125" s="11" t="inlineStr">
@@ -6360,42 +6360,42 @@
     <row r="126">
       <c r="A126" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B126" s="8" t="n">
-        <v>501050</v>
+        <v>6327</v>
       </c>
       <c r="C126" s="9" t="n">
-        <v>1.2891</v>
+        <v>1.1657</v>
       </c>
       <c r="D126" s="10" t="n">
-        <v>62.09</v>
+        <v>362.5</v>
       </c>
       <c r="E126" s="10" t="n">
-        <v>75.63</v>
+        <v>397.08</v>
       </c>
       <c r="F126" s="10" t="n">
-        <v>-4.41</v>
+        <v>-25.48</v>
       </c>
       <c r="G126" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H126" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I126" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J126" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K126" s="11" t="inlineStr">
@@ -6407,23 +6407,23 @@
     <row r="127">
       <c r="A127" s="7" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B127" s="8" t="n">
-        <v>161725</v>
+        <v>968</v>
       </c>
       <c r="C127" s="9" t="n">
-        <v>0.8711</v>
+        <v>0.9599</v>
       </c>
       <c r="D127" s="10" t="n">
-        <v>38.25</v>
+        <v>390.82</v>
       </c>
       <c r="E127" s="10" t="n">
-        <v>34.04</v>
+        <v>392.38</v>
       </c>
       <c r="F127" s="10" t="n">
-        <v>0.72</v>
+        <v>17.24</v>
       </c>
       <c r="G127" s="11" t="inlineStr">
         <is>
@@ -6437,12 +6437,12 @@
       </c>
       <c r="I127" s="11" t="inlineStr">
         <is>
-          <t>全指消费</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J127" s="11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K127" s="11" t="inlineStr">
@@ -6454,42 +6454,42 @@
     <row r="128">
       <c r="A128" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B128" s="8" t="n">
-        <v>310398</v>
+        <v>164906</v>
       </c>
       <c r="C128" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2201</v>
       </c>
       <c r="D128" s="10" t="n">
-        <v>25.8</v>
+        <v>109.81</v>
       </c>
       <c r="E128" s="10" t="n">
-        <v>31.8</v>
+        <v>143.08</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>-5.28</v>
+        <v>9.1</v>
       </c>
       <c r="G128" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H128" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I128" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J128" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K128" s="11" t="inlineStr">
@@ -6501,42 +6501,42 @@
     <row r="129">
       <c r="A129" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华安纳斯达克100指数</t>
         </is>
       </c>
       <c r="B129" s="8" t="n">
-        <v>1550</v>
+        <v>40046</v>
       </c>
       <c r="C129" s="9" t="n">
-        <v>0.6708</v>
+        <v>2.2753</v>
       </c>
       <c r="D129" s="10" t="n">
-        <v>0</v>
+        <v>38.03</v>
       </c>
       <c r="E129" s="10" t="n">
-        <v>0</v>
+        <v>99.33</v>
       </c>
       <c r="F129" s="10" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="G129" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H129" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I129" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>纳斯达克</t>
         </is>
       </c>
       <c r="J129" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K129" s="11" t="inlineStr">
@@ -6548,42 +6548,42 @@
     <row r="130">
       <c r="A130" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B130" s="8" t="n">
-        <v>2086</v>
+        <v>161128</v>
       </c>
       <c r="C130" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.7366</v>
       </c>
       <c r="D130" s="10" t="n">
-        <v>0</v>
+        <v>53.35</v>
       </c>
       <c r="E130" s="10" t="n">
-        <v>0</v>
+        <v>90.94</v>
       </c>
       <c r="F130" s="10" t="n">
-        <v>0</v>
+        <v>-1.71</v>
       </c>
       <c r="G130" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H130" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I130" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J130" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K130" s="11" t="inlineStr">
@@ -6595,23 +6595,23 @@
     <row r="131">
       <c r="A131" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B131" s="8" t="n">
-        <v>501029</v>
+        <v>501050</v>
       </c>
       <c r="C131" s="9" t="n">
-        <v>0.9829</v>
+        <v>1.2891</v>
       </c>
       <c r="D131" s="10" t="n">
-        <v>0</v>
+        <v>62.09</v>
       </c>
       <c r="E131" s="10" t="n">
-        <v>0</v>
+        <v>77.92</v>
       </c>
       <c r="F131" s="10" t="n">
-        <v>-0</v>
+        <v>-2.12</v>
       </c>
       <c r="G131" s="11" t="inlineStr">
         <is>
@@ -6620,17 +6620,17 @@
       </c>
       <c r="H131" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I131" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J131" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K131" s="11" t="inlineStr">
@@ -6642,249 +6642,249 @@
     <row r="132">
       <c r="A132" s="7" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>易方达上证50指数A</t>
         </is>
       </c>
       <c r="B132" s="8" t="n">
-        <v>2147</v>
+        <v>110003</v>
       </c>
       <c r="C132" s="9" t="n">
-        <v>1.2153</v>
+        <v>1.7012</v>
       </c>
       <c r="D132" s="10" t="n">
-        <v>274071.1</v>
+        <v>25.7</v>
       </c>
       <c r="E132" s="10" t="n">
-        <v>334586</v>
+        <v>43.68</v>
       </c>
       <c r="F132" s="10" t="n">
-        <v>1507.39</v>
+        <v>-0.04</v>
       </c>
       <c r="G132" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H132" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I132" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J132" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K132" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="B133" s="8" t="n">
-        <v>6060</v>
+        <v>161725</v>
       </c>
       <c r="C133" s="9" t="n">
-        <v>1.0967</v>
+        <v>0.8711</v>
       </c>
       <c r="D133" s="10" t="n">
-        <v>153211.84</v>
+        <v>38.25</v>
       </c>
       <c r="E133" s="10" t="n">
-        <v>166372.74</v>
+        <v>35.49</v>
       </c>
       <c r="F133" s="10" t="n">
-        <v>-1654.69</v>
+        <v>2.17</v>
       </c>
       <c r="G133" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H133" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I133" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J133" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K133" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B134" s="8" t="n">
-        <v>7749</v>
+        <v>310398</v>
       </c>
       <c r="C134" s="9" t="n">
-        <v>1.0896</v>
+        <v>1.4372</v>
       </c>
       <c r="D134" s="10" t="n">
-        <v>154864.26</v>
+        <v>25.8</v>
       </c>
       <c r="E134" s="10" t="n">
-        <v>166246.78</v>
+        <v>32.04</v>
       </c>
       <c r="F134" s="10" t="n">
-        <v>-2493.31</v>
+        <v>-5.04</v>
       </c>
       <c r="G134" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H134" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I134" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J134" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K134" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B135" s="8" t="n">
-        <v>1338</v>
+        <v>1550</v>
       </c>
       <c r="C135" s="9" t="n">
-        <v>1.3555</v>
+        <v>0.6708</v>
       </c>
       <c r="D135" s="10" t="n">
-        <v>61673.29</v>
+        <v>0</v>
       </c>
       <c r="E135" s="10" t="n">
-        <v>83098.59</v>
+        <v>0</v>
       </c>
       <c r="F135" s="10" t="n">
-        <v>-499.55</v>
+        <v>0</v>
       </c>
       <c r="G135" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H135" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I135" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J135" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K135" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B136" s="8" t="n">
-        <v>485011</v>
+        <v>2086</v>
       </c>
       <c r="C136" s="9" t="n">
-        <v>1.5759</v>
+        <v>1.2258</v>
       </c>
       <c r="D136" s="10" t="n">
-        <v>53422.76</v>
+        <v>0</v>
       </c>
       <c r="E136" s="10" t="n">
-        <v>82698.42999999999</v>
+        <v>0</v>
       </c>
       <c r="F136" s="10" t="n">
-        <v>-1490.5</v>
+        <v>0</v>
       </c>
       <c r="G136" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H136" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I136" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J136" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K136" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B137" s="8" t="n">
-        <v>6585</v>
+        <v>501029</v>
       </c>
       <c r="C137" s="9" t="n">
-        <v>0</v>
+        <v>0.9829</v>
       </c>
       <c r="D137" s="10" t="n">
         <v>0</v>
@@ -6893,383 +6893,383 @@
         <v>0</v>
       </c>
       <c r="F137" s="10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G137" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H137" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I137" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J137" s="11" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K137" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="inlineStr">
         <is>
+          <t>长安鑫益增强混合C</t>
+        </is>
+      </c>
+      <c r="B138" s="8" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C138" s="9" t="n">
+        <v>1.2153</v>
+      </c>
+      <c r="D138" s="10" t="n">
+        <v>204702.46</v>
+      </c>
+      <c r="E138" s="10" t="n">
+        <v>250453.46</v>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>1678.56</v>
+      </c>
+      <c r="G138" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H138" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I138" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J138" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K138" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="inlineStr">
+        <is>
+          <t>民生加银鹏程混合C</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="n">
+        <v>7749</v>
+      </c>
+      <c r="C139" s="9" t="n">
+        <v>1.0896</v>
+      </c>
+      <c r="D139" s="10" t="n">
+        <v>155193.38</v>
+      </c>
+      <c r="E139" s="10" t="n">
+        <v>167686.45</v>
+      </c>
+      <c r="F139" s="10" t="n">
+        <v>-1412.26</v>
+      </c>
+      <c r="G139" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H139" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I139" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J139" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K139" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="inlineStr">
+        <is>
+          <t>工银双利债券B</t>
+        </is>
+      </c>
+      <c r="B140" s="8" t="n">
+        <v>485011</v>
+      </c>
+      <c r="C140" s="9" t="n">
+        <v>1.5758</v>
+      </c>
+      <c r="D140" s="10" t="n">
+        <v>53807.75</v>
+      </c>
+      <c r="E140" s="10" t="n">
+        <v>84316.74000000001</v>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>-473.51</v>
+      </c>
+      <c r="G140" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H140" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I140" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J140" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K140" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="inlineStr">
+        <is>
+          <t>安信稳健增值混合C</t>
+        </is>
+      </c>
+      <c r="B141" s="8" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C141" s="9" t="n">
+        <v>1.3555</v>
+      </c>
+      <c r="D141" s="10" t="n">
+        <v>61822.59</v>
+      </c>
+      <c r="E141" s="10" t="n">
+        <v>84029.25999999999</v>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>228.74</v>
+      </c>
+      <c r="G141" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H141" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I141" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J141" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K141" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="inlineStr">
+        <is>
+          <t>鹏扬泓利债券C</t>
+        </is>
+      </c>
+      <c r="B142" s="8" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C142" s="9" t="n">
+        <v>1.0967</v>
+      </c>
+      <c r="D142" s="10" t="n">
+        <v>76710.81</v>
+      </c>
+      <c r="E142" s="10" t="n">
+        <v>83729.85000000001</v>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>-398.9</v>
+      </c>
+      <c r="G142" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H142" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I142" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J142" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K142" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="B143" s="8" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C143" s="9" t="n">
+        <v>2.2231</v>
+      </c>
+      <c r="D143" s="10" t="n">
+        <v>37702.16</v>
+      </c>
+      <c r="E143" s="10" t="n">
+        <v>83453.73</v>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>-361.94</v>
+      </c>
+      <c r="G143" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H143" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I143" s="11" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="J143" s="11" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K143" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="inlineStr">
+        <is>
           <t>广发趋势优选混合C</t>
         </is>
       </c>
-      <c r="B138" s="8" t="n">
+      <c r="B144" s="8" t="n">
         <v>8127</v>
       </c>
-      <c r="C138" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" s="11" t="inlineStr">
+      <c r="C144" s="9" t="n">
+        <v>1.5932</v>
+      </c>
+      <c r="D144" s="10" t="n">
+        <v>52379.09</v>
+      </c>
+      <c r="E144" s="10" t="n">
+        <v>83329.89</v>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>-120.47</v>
+      </c>
+      <c r="G144" s="11" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H138" s="11" t="inlineStr">
+      <c r="H144" s="11" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I138" s="11" t="inlineStr">
-        <is>
-          <t>偏债</t>
-        </is>
-      </c>
-      <c r="J138" s="11" t="inlineStr">
+      <c r="I144" s="11" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="J144" s="11" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="K138" s="11" t="inlineStr">
+      <c r="K144" s="11" t="inlineStr">
         <is>
           <t>钉钉宝365父</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="37" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B139" s="38" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C139" s="39" t="n">
-        <v>1.0451</v>
-      </c>
-      <c r="D139" s="40" t="n">
-        <v>9368.450000000001</v>
-      </c>
-      <c r="E139" s="40" t="n">
-        <v>10483.3</v>
-      </c>
-      <c r="F139" s="40" t="n">
-        <v>692.33</v>
-      </c>
-      <c r="G139" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H139" s="41" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I139" s="41" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J139" s="41" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K139" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="37" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强A</t>
-        </is>
-      </c>
-      <c r="B140" s="38" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C140" s="39" t="n">
-        <v>0.9137</v>
-      </c>
-      <c r="D140" s="40" t="n">
-        <v>10068.96</v>
-      </c>
-      <c r="E140" s="40" t="n">
-        <v>9515.17</v>
-      </c>
-      <c r="F140" s="40" t="n">
-        <v>315.16</v>
-      </c>
-      <c r="G140" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H140" s="41" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I140" s="41" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J140" s="41" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K140" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="37" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B141" s="38" t="n">
-        <v>968</v>
-      </c>
-      <c r="C141" s="39" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D141" s="40" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E141" s="40" t="n">
-        <v>6026.1</v>
-      </c>
-      <c r="F141" s="40" t="n">
-        <v>826.04</v>
-      </c>
-      <c r="G141" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H141" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I141" s="41" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J141" s="41" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K141" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="37" t="inlineStr">
-        <is>
-          <t>广发医药卫生联接A</t>
-        </is>
-      </c>
-      <c r="B142" s="38" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C142" s="39" t="n">
-        <v>0.6927</v>
-      </c>
-      <c r="D142" s="40" t="n">
-        <v>6187.76</v>
-      </c>
-      <c r="E142" s="40" t="n">
-        <v>5757.09</v>
-      </c>
-      <c r="F142" s="40" t="n">
-        <v>1470.83</v>
-      </c>
-      <c r="G142" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H142" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I142" s="41" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J142" s="41" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K142" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="37" t="inlineStr">
-        <is>
-          <t>富国沪深300指数增强</t>
-        </is>
-      </c>
-      <c r="B143" s="38" t="n">
-        <v>100038</v>
-      </c>
-      <c r="C143" s="39" t="n">
-        <v>1.3043</v>
-      </c>
-      <c r="D143" s="40" t="n">
-        <v>2760.12</v>
-      </c>
-      <c r="E143" s="40" t="n">
-        <v>4278.19</v>
-      </c>
-      <c r="F143" s="40" t="n">
-        <v>678.16</v>
-      </c>
-      <c r="G143" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H143" s="41" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I143" s="41" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="J143" s="41" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="K143" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="37" t="inlineStr">
-        <is>
-          <t>易方达安心回报债券A</t>
-        </is>
-      </c>
-      <c r="B144" s="38" t="n">
-        <v>110027</v>
-      </c>
-      <c r="C144" s="39" t="n">
-        <v>1.6102</v>
-      </c>
-      <c r="D144" s="40" t="n">
-        <v>1981.84</v>
-      </c>
-      <c r="E144" s="40" t="n">
-        <v>3476.15</v>
-      </c>
-      <c r="F144" s="40" t="n">
-        <v>284.99</v>
-      </c>
-      <c r="G144" s="41" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H144" s="41" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I144" s="41" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J144" s="41" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K144" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="37" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B145" s="38" t="n">
-        <v>161017</v>
+        <v>162711</v>
       </c>
       <c r="C145" s="39" t="n">
-        <v>1.325</v>
+        <v>1.0451</v>
       </c>
       <c r="D145" s="40" t="n">
-        <v>2046.97</v>
+        <v>9368.450000000001</v>
       </c>
       <c r="E145" s="40" t="n">
-        <v>3469.61</v>
+        <v>10606.02</v>
       </c>
       <c r="F145" s="40" t="n">
-        <v>757.38</v>
+        <v>815.0599999999999</v>
       </c>
       <c r="G145" s="41" t="inlineStr">
         <is>
@@ -7300,23 +7300,23 @@
     <row r="146">
       <c r="A146" s="37" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B146" s="38" t="n">
-        <v>1064</v>
+        <v>100032</v>
       </c>
       <c r="C146" s="39" t="n">
-        <v>0.5379</v>
+        <v>0.9137</v>
       </c>
       <c r="D146" s="40" t="n">
-        <v>5949.77</v>
+        <v>10068.96</v>
       </c>
       <c r="E146" s="40" t="n">
-        <v>3349.72</v>
+        <v>9575.58</v>
       </c>
       <c r="F146" s="40" t="n">
-        <v>149.34</v>
+        <v>375.57</v>
       </c>
       <c r="G146" s="41" t="inlineStr">
         <is>
@@ -7325,17 +7325,17 @@
       </c>
       <c r="H146" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I146" s="41" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J146" s="41" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K146" s="41" t="inlineStr">
@@ -7347,23 +7347,23 @@
     <row r="147">
       <c r="A147" s="37" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B147" s="38" t="n">
-        <v>4752</v>
+        <v>968</v>
       </c>
       <c r="C147" s="39" t="n">
-        <v>0.7084</v>
+        <v>0.853</v>
       </c>
       <c r="D147" s="40" t="n">
-        <v>3988.79</v>
+        <v>6096.21</v>
       </c>
       <c r="E147" s="40" t="n">
-        <v>3157.53</v>
+        <v>6120.59</v>
       </c>
       <c r="F147" s="40" t="n">
-        <v>331.87</v>
+        <v>920.53</v>
       </c>
       <c r="G147" s="41" t="inlineStr">
         <is>
@@ -7377,12 +7377,12 @@
       </c>
       <c r="I147" s="41" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J147" s="41" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K147" s="41" t="inlineStr">
@@ -7394,42 +7394,42 @@
     <row r="148">
       <c r="A148" s="37" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B148" s="38" t="n">
-        <v>614</v>
+        <v>1180</v>
       </c>
       <c r="C148" s="39" t="n">
-        <v>1.0254</v>
+        <v>0.6927</v>
       </c>
       <c r="D148" s="40" t="n">
-        <v>2730.84</v>
+        <v>6187.76</v>
       </c>
       <c r="E148" s="40" t="n">
-        <v>2613.41</v>
+        <v>6026.26</v>
       </c>
       <c r="F148" s="40" t="n">
-        <v>-186.79</v>
+        <v>1740</v>
       </c>
       <c r="G148" s="41" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H148" s="41" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I148" s="41" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J148" s="41" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K148" s="41" t="inlineStr">
@@ -7441,42 +7441,42 @@
     <row r="149">
       <c r="A149" s="37" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B149" s="38" t="n">
-        <v>340001</v>
+        <v>100038</v>
       </c>
       <c r="C149" s="39" t="n">
-        <v>0.9816</v>
+        <v>1.3043</v>
       </c>
       <c r="D149" s="40" t="n">
-        <v>1630.08</v>
+        <v>2760.12</v>
       </c>
       <c r="E149" s="40" t="n">
-        <v>1967.02</v>
+        <v>4327.87</v>
       </c>
       <c r="F149" s="40" t="n">
-        <v>366.93</v>
+        <v>727.84</v>
       </c>
       <c r="G149" s="41" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H149" s="41" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I149" s="41" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J149" s="41" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K149" s="41" t="inlineStr">
@@ -7488,42 +7488,42 @@
     <row r="150">
       <c r="A150" s="37" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B150" s="38" t="n">
-        <v>164906</v>
+        <v>110027</v>
       </c>
       <c r="C150" s="39" t="n">
-        <v>1.137</v>
+        <v>1.6102</v>
       </c>
       <c r="D150" s="40" t="n">
-        <v>1407.29</v>
+        <v>1981.84</v>
       </c>
       <c r="E150" s="40" t="n">
-        <v>1798.52</v>
+        <v>3497.95</v>
       </c>
       <c r="F150" s="40" t="n">
-        <v>198.43</v>
+        <v>306.79</v>
       </c>
       <c r="G150" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H150" s="41" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I150" s="41" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J150" s="41" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K150" s="41" t="inlineStr">
@@ -7535,23 +7535,23 @@
     <row r="151">
       <c r="A151" s="37" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B151" s="38" t="n">
-        <v>1469</v>
+        <v>161017</v>
       </c>
       <c r="C151" s="39" t="n">
-        <v>0.9471000000000001</v>
+        <v>1.325</v>
       </c>
       <c r="D151" s="40" t="n">
-        <v>1267.08</v>
+        <v>2046.97</v>
       </c>
       <c r="E151" s="40" t="n">
-        <v>1256.82</v>
+        <v>3520.79</v>
       </c>
       <c r="F151" s="40" t="n">
-        <v>56.77</v>
+        <v>808.55</v>
       </c>
       <c r="G151" s="41" t="inlineStr">
         <is>
@@ -7560,17 +7560,17 @@
       </c>
       <c r="H151" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I151" s="41" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J151" s="41" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K151" s="41" t="inlineStr">
@@ -7582,23 +7582,23 @@
     <row r="152">
       <c r="A152" s="37" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B152" s="38" t="n">
-        <v>162413</v>
+        <v>1064</v>
       </c>
       <c r="C152" s="39" t="n">
-        <v>0.776</v>
+        <v>0.5379</v>
       </c>
       <c r="D152" s="40" t="n">
-        <v>1546.42</v>
+        <v>5949.77</v>
       </c>
       <c r="E152" s="40" t="n">
-        <v>1265.59</v>
+        <v>3326.52</v>
       </c>
       <c r="F152" s="40" t="n">
-        <v>65.56999999999999</v>
+        <v>126.14</v>
       </c>
       <c r="G152" s="41" t="inlineStr">
         <is>
@@ -7607,17 +7607,17 @@
       </c>
       <c r="H152" s="41" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I152" s="41" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J152" s="41" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K152" s="41" t="inlineStr">
@@ -7629,23 +7629,23 @@
     <row r="153">
       <c r="A153" s="37" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B153" s="38" t="n">
-        <v>1051</v>
+        <v>4752</v>
       </c>
       <c r="C153" s="39" t="n">
-        <v>0.8966</v>
+        <v>0.7084</v>
       </c>
       <c r="D153" s="40" t="n">
-        <v>1338.46</v>
+        <v>3988.79</v>
       </c>
       <c r="E153" s="40" t="n">
-        <v>1245.57</v>
+        <v>3125.22</v>
       </c>
       <c r="F153" s="40" t="n">
-        <v>45.51</v>
+        <v>299.56</v>
       </c>
       <c r="G153" s="41" t="inlineStr">
         <is>
@@ -7654,17 +7654,17 @@
       </c>
       <c r="H153" s="41" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I153" s="41" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J153" s="41" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K153" s="41" t="inlineStr">
@@ -7676,42 +7676,42 @@
     <row r="154">
       <c r="A154" s="37" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B154" s="38" t="n">
-        <v>71</v>
+        <v>614</v>
       </c>
       <c r="C154" s="39" t="n">
-        <v>1.3488</v>
+        <v>1.0254</v>
       </c>
       <c r="D154" s="40" t="n">
-        <v>889.71</v>
+        <v>2730.84</v>
       </c>
       <c r="E154" s="40" t="n">
-        <v>1190.88</v>
+        <v>2837.34</v>
       </c>
       <c r="F154" s="40" t="n">
-        <v>-9.16</v>
+        <v>37.14</v>
       </c>
       <c r="G154" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H154" s="41" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I154" s="41" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J154" s="41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K154" s="41" t="inlineStr">
@@ -7723,42 +7723,42 @@
     <row r="155">
       <c r="A155" s="37" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B155" s="38" t="n">
-        <v>162411</v>
+        <v>340001</v>
       </c>
       <c r="C155" s="39" t="n">
-        <v>0.4405</v>
+        <v>0.9816</v>
       </c>
       <c r="D155" s="40" t="n">
-        <v>4541.16</v>
+        <v>1630.08</v>
       </c>
       <c r="E155" s="40" t="n">
-        <v>1171.62</v>
+        <v>1964.74</v>
       </c>
       <c r="F155" s="40" t="n">
-        <v>-828.76</v>
+        <v>364.65</v>
       </c>
       <c r="G155" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H155" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I155" s="41" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J155" s="41" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K155" s="41" t="inlineStr">
@@ -7770,42 +7770,42 @@
     <row r="156">
       <c r="A156" s="37" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B156" s="38" t="n">
-        <v>478</v>
+        <v>164906</v>
       </c>
       <c r="C156" s="39" t="n">
-        <v>1.9358</v>
+        <v>1.137</v>
       </c>
       <c r="D156" s="40" t="n">
-        <v>413.27</v>
+        <v>1407.29</v>
       </c>
       <c r="E156" s="40" t="n">
-        <v>812.98</v>
+        <v>1833.7</v>
       </c>
       <c r="F156" s="40" t="n">
-        <v>12.98</v>
+        <v>233.61</v>
       </c>
       <c r="G156" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H156" s="41" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I156" s="41" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J156" s="41" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K156" s="41" t="inlineStr">
@@ -7817,42 +7817,42 @@
     <row r="157">
       <c r="A157" s="37" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B157" s="38" t="n">
-        <v>50025</v>
+        <v>1469</v>
       </c>
       <c r="C157" s="39" t="n">
-        <v>2.1006</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="D157" s="40" t="n">
-        <v>380.85</v>
+        <v>1267.08</v>
       </c>
       <c r="E157" s="40" t="n">
-        <v>781.58</v>
+        <v>1259.48</v>
       </c>
       <c r="F157" s="40" t="n">
-        <v>-18.43</v>
+        <v>59.43</v>
       </c>
       <c r="G157" s="41" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H157" s="41" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I157" s="41" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J157" s="41" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K157" s="41" t="inlineStr">
@@ -7864,23 +7864,23 @@
     <row r="158">
       <c r="A158" s="37" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B158" s="38" t="n">
-        <v>502010</v>
+        <v>162413</v>
       </c>
       <c r="C158" s="39" t="n">
-        <v>0.8063</v>
+        <v>0.776</v>
       </c>
       <c r="D158" s="40" t="n">
-        <v>496.13</v>
+        <v>1546.42</v>
       </c>
       <c r="E158" s="40" t="n">
-        <v>499.95</v>
+        <v>1281.05</v>
       </c>
       <c r="F158" s="40" t="n">
-        <v>99.92</v>
+        <v>81.03</v>
       </c>
       <c r="G158" s="41" t="inlineStr">
         <is>
@@ -7889,17 +7889,17 @@
       </c>
       <c r="H158" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I158" s="41" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J158" s="41" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K158" s="41" t="inlineStr">
@@ -7911,42 +7911,42 @@
     <row r="159">
       <c r="A159" s="37" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B159" s="38" t="n">
-        <v>216</v>
+        <v>1051</v>
       </c>
       <c r="C159" s="39" t="n">
-        <v>0.8811</v>
+        <v>0.8966</v>
       </c>
       <c r="D159" s="40" t="n">
-        <v>366.9</v>
+        <v>1338.46</v>
       </c>
       <c r="E159" s="40" t="n">
-        <v>486.62</v>
+        <v>1258.69</v>
       </c>
       <c r="F159" s="40" t="n">
-        <v>163.34</v>
+        <v>58.62</v>
       </c>
       <c r="G159" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H159" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I159" s="41" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J159" s="41" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K159" s="41" t="inlineStr">
@@ -7958,42 +7958,42 @@
     <row r="160">
       <c r="A160" s="37" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B160" s="38" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C160" s="39" t="n">
-        <v>1.2285</v>
+        <v>1.3488</v>
       </c>
       <c r="D160" s="40" t="n">
-        <v>325.61</v>
+        <v>889.71</v>
       </c>
       <c r="E160" s="40" t="n">
-        <v>405.68</v>
+        <v>1232.52</v>
       </c>
       <c r="F160" s="40" t="n">
-        <v>5.67</v>
+        <v>32.47</v>
       </c>
       <c r="G160" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H160" s="41" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I160" s="41" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J160" s="41" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K160" s="41" t="inlineStr">
@@ -8005,45 +8005,327 @@
     <row r="161">
       <c r="A161" s="37" t="inlineStr">
         <is>
+          <t>华宝标普油气上游股票人民币A</t>
+        </is>
+      </c>
+      <c r="B161" s="38" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C161" s="39" t="n">
+        <v>0.4405</v>
+      </c>
+      <c r="D161" s="40" t="n">
+        <v>4541.16</v>
+      </c>
+      <c r="E161" s="40" t="n">
+        <v>1117.13</v>
+      </c>
+      <c r="F161" s="40" t="n">
+        <v>-883.26</v>
+      </c>
+      <c r="G161" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H161" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I161" s="41" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J161" s="41" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K161" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="37" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B162" s="38" t="n">
+        <v>478</v>
+      </c>
+      <c r="C162" s="39" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="D162" s="40" t="n">
+        <v>413.27</v>
+      </c>
+      <c r="E162" s="40" t="n">
+        <v>818.9400000000001</v>
+      </c>
+      <c r="F162" s="40" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="G162" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H162" s="41" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I162" s="41" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J162" s="41" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K162" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="37" t="inlineStr">
+        <is>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B163" s="38" t="n">
+        <v>50025</v>
+      </c>
+      <c r="C163" s="39" t="n">
+        <v>2.1006</v>
+      </c>
+      <c r="D163" s="40" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="E163" s="40" t="n">
+        <v>854.21</v>
+      </c>
+      <c r="F163" s="40" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="G163" s="41" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H163" s="41" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="I163" s="41" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+      <c r="J163" s="41" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K163" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="37" t="inlineStr">
+        <is>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="B164" s="38" t="n">
+        <v>502010</v>
+      </c>
+      <c r="C164" s="39" t="n">
+        <v>0.8063</v>
+      </c>
+      <c r="D164" s="40" t="n">
+        <v>496.13</v>
+      </c>
+      <c r="E164" s="40" t="n">
+        <v>502.98</v>
+      </c>
+      <c r="F164" s="40" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="G164" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H164" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I164" s="41" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="J164" s="41" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K164" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="37" t="inlineStr">
+        <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B165" s="38" t="n">
+        <v>216</v>
+      </c>
+      <c r="C165" s="39" t="n">
+        <v>0.8811</v>
+      </c>
+      <c r="D165" s="40" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="E165" s="40" t="n">
+        <v>499.24</v>
+      </c>
+      <c r="F165" s="40" t="n">
+        <v>175.97</v>
+      </c>
+      <c r="G165" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H165" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I165" s="41" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J165" s="41" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K165" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="37" t="inlineStr">
+        <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B166" s="38" t="n">
+        <v>51</v>
+      </c>
+      <c r="C166" s="39" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D166" s="40" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E166" s="40" t="n">
+        <v>409.85</v>
+      </c>
+      <c r="F166" s="40" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G166" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H166" s="41" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I166" s="41" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="J166" s="41" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K166" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="37" t="inlineStr">
+        <is>
           <t>南方原油A</t>
         </is>
       </c>
-      <c r="B161" s="38" t="n">
+      <c r="B167" s="38" t="n">
         <v>501018</v>
       </c>
-      <c r="C161" s="39" t="n">
+      <c r="C167" s="39" t="n">
         <v>0.7171</v>
       </c>
-      <c r="D161" s="40" t="n">
+      <c r="D167" s="40" t="n">
         <v>557.83</v>
       </c>
-      <c r="E161" s="40" t="n">
-        <v>463</v>
-      </c>
-      <c r="F161" s="40" t="n">
-        <v>62.98</v>
-      </c>
-      <c r="G161" s="41" t="inlineStr">
+      <c r="E167" s="40" t="n">
+        <v>454.07</v>
+      </c>
+      <c r="F167" s="40" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="G167" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H161" s="41" t="inlineStr">
+      <c r="H167" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I161" s="41" t="inlineStr">
+      <c r="I167" s="41" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="J161" s="41" t="inlineStr">
+      <c r="J167" s="41" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="K161" s="41" t="inlineStr">
+      <c r="K167" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>

--- a/scripts/output/202004/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202004/全家/全家整体资产配置.xlsx
@@ -586,16 +586,16 @@
         <v>519671</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>1.4209</v>
+        <v>1.4188</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>3980.9</v>
+        <v>4063.69</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>5230.9</v>
+        <v>5351.88</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>-425.56</v>
+        <v>-413.68</v>
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
@@ -633,16 +633,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6502</v>
+        <v>1.6481</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>3303.75</v>
+        <v>3368.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>5074.56</v>
+        <v>5193.78</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-377.29</v>
+        <v>-357.37</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>4586.65</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4381.17</v>
+        <v>4496.75</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>68.34</v>
+        <v>183.92</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         <v>2551.86</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3487.37</v>
+        <v>3472.06</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>67.37</v>
+        <v>52.06</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>1220.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2540.09</v>
+        <v>2543.87</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-61.86</v>
+        <v>-58.08</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2455.29</v>
+        <v>2464.97</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>3</v>
+        <v>12.68</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -868,16 +868,16 @@
         <v>1594</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>1.1759</v>
+        <v>1.1705</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1535.38</v>
+        <v>1629.81</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1660.51</v>
+        <v>1768.34</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>-144.94</v>
+        <v>-139.35</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -908,42 +908,42 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>968</v>
+        <v>6327</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9589</v>
+        <v>1.1593</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>1067.42</v>
+        <v>974.46</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1071.69</v>
+        <v>1099.58</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>48.14</v>
+        <v>-30.11</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I10" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K10" s="11" t="inlineStr">
@@ -955,42 +955,42 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>6327</v>
+        <v>968</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>1.1619</v>
+        <v>0.9589</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>952.1799999999999</v>
+        <v>1067.42</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>1043.02</v>
+        <v>1095.49</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-63.32</v>
+        <v>71.94</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K11" s="11" t="inlineStr">
@@ -1009,16 +1009,16 @@
         <v>164906</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>1.1985</v>
+        <v>1.217</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>549.2</v>
+        <v>597.96</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>715.61</v>
+        <v>800.0700000000001</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>57.39</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>253.87</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>663.11</v>
+        <v>690.78</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>80.73</v>
+        <v>108.4</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1109,10 +1109,10 @@
         <v>247.91</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>311.13</v>
+        <v>311.37</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-2.13</v>
+        <v>-1.88</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1143,42 +1143,42 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B15" s="8" t="n">
-        <v>161725</v>
+        <v>161128</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>0.8312</v>
+        <v>1.7056</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>300.61</v>
+        <v>164.83</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>278.91</v>
+        <v>287.02</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>29.04</v>
+        <v>5.88</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
-          <t>全指消费</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J15" s="11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K15" s="11" t="inlineStr">
@@ -1190,42 +1190,42 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="B16" s="8" t="n">
-        <v>161128</v>
+        <v>161725</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>1.6977</v>
+        <v>0.8312</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>150.78</v>
+        <v>300.61</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>257</v>
+        <v>279.27</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>1.03</v>
+        <v>29.4</v>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I16" s="11" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J16" s="11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K16" s="11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         <v>110003</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>1.7006</v>
+        <v>1.7014</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>64.27</v>
+        <v>128.92</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>109.23</v>
+        <v>220.87</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         <v>64.5</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>80.11</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>-12.6</v>
+        <v>-12.42</v>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
@@ -1485,10 +1485,10 @@
         <v>38345.9</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>46916.21</v>
+        <v>46954.55</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>444.81</v>
+        <v>483.16</v>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>29071.68</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>31411.95</v>
+        <v>31528.24</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>543.64</v>
+        <v>659.9299999999999</v>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>10080.25</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>15795.75</v>
+        <v>15916.71</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>135.08</v>
+        <v>256.04</v>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
@@ -1626,10 +1626,10 @@
         <v>11580.99</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>15740.88</v>
+        <v>15769.83</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>177.19</v>
+        <v>206.14</v>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
@@ -1660,23 +1660,23 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B26" s="8" t="n">
-        <v>6060</v>
+        <v>6585</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>1.0843</v>
+        <v>2.2219</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>14369.85</v>
+        <v>7072.09</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>15684.69</v>
+        <v>15729.04</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>103.46</v>
+        <v>15.56</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1690,12 +1690,12 @@
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="J26" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr">
@@ -1707,23 +1707,23 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B27" s="8" t="n">
-        <v>6585</v>
+        <v>6060</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>2.2219</v>
+        <v>1.0843</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>7072.09</v>
+        <v>14369.85</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>15654.07</v>
+        <v>15722.05</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>-59.41</v>
+        <v>140.82</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1737,12 +1737,12 @@
       </c>
       <c r="I27" s="11" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J27" s="11" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K27" s="11" t="inlineStr">
@@ -1767,10 +1767,10 @@
         <v>9821.860000000001</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>15625.6</v>
+        <v>15712.03</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>-22.59</v>
+        <v>63.84</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>16731.88</v>
       </c>
       <c r="E31" s="20" t="n">
-        <v>9354.790000000001</v>
+        <v>9654.290000000001</v>
       </c>
       <c r="F31" s="20" t="n">
-        <v>-2645.31</v>
+        <v>-2345.81</v>
       </c>
       <c r="G31" s="21" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
         <v>13896</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>10797.19</v>
+        <v>10741.61</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>2348.42</v>
+        <v>2292.84</v>
       </c>
       <c r="G32" s="26" t="inlineStr">
         <is>
@@ -2002,10 +2002,10 @@
         <v>3000</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>2817</v>
+        <v>2829</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G33" s="26" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         <v>9600</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>12921.6</v>
+        <v>12950.4</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>422.4</v>
+        <v>451.2</v>
       </c>
       <c r="G34" s="26" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
         <v>12000</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>11076</v>
+        <v>11352</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>1092</v>
+        <v>1368</v>
       </c>
       <c r="G35" s="26" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         <v>3300</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2488.2</v>
+        <v>2511.3</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="G36" s="26" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>3100</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2504.8</v>
+        <v>2520.3</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="G37" s="26" t="inlineStr">
         <is>
@@ -2237,10 +2237,10 @@
         <v>2700</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>7392.6</v>
+        <v>7427.7</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>1206.9</v>
+        <v>1242</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         <v>9100</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>34252.4</v>
+        <v>34425.3</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>3448.9</v>
+        <v>3621.8</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>37600</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>212515.2</v>
+        <v>214432.8</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>2669.6</v>
+        <v>4587.2</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2378,10 +2378,10 @@
         <v>33800</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>25485.2</v>
+        <v>25721.8</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>-4157.4</v>
+        <v>-3920.8</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2425,10 +2425,10 @@
         <v>32700</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>30705.3</v>
+        <v>30868.8</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>5101.2</v>
+        <v>5264.7</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         <v>34100</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>27552.8</v>
+        <v>27723.3</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>-2080.1</v>
+        <v>-1909.6</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2519,10 +2519,10 @@
         <v>2300</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>8443.299999999999</v>
+        <v>8514.6</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>3224.6</v>
+        <v>3295.9</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2566,10 +2566,10 @@
         <v>9600</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>15072</v>
+        <v>15456</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>3859.2</v>
+        <v>4243.2</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         <v>4157.52</v>
       </c>
       <c r="E46" s="35" t="n">
-        <v>8238.540000000001</v>
+        <v>8485.91</v>
       </c>
       <c r="F46" s="35" t="n">
-        <v>234.48</v>
+        <v>481.86</v>
       </c>
       <c r="G46" s="36" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         <v>9722</v>
       </c>
       <c r="E47" s="35" t="n">
-        <v>5435.57</v>
+        <v>5609.59</v>
       </c>
       <c r="F47" s="35" t="n">
-        <v>99.16</v>
+        <v>273.19</v>
       </c>
       <c r="G47" s="36" t="inlineStr">
         <is>
@@ -2707,10 +2707,10 @@
         <v>4943.96</v>
       </c>
       <c r="E48" s="35" t="n">
-        <v>4963.74</v>
+        <v>5073.99</v>
       </c>
       <c r="F48" s="35" t="n">
-        <v>294.66</v>
+        <v>404.91</v>
       </c>
       <c r="G48" s="36" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         <v>7379.54</v>
       </c>
       <c r="E49" s="35" t="n">
-        <v>4223.31</v>
+        <v>4338.43</v>
       </c>
       <c r="F49" s="35" t="n">
-        <v>221.39</v>
+        <v>336.51</v>
       </c>
       <c r="G49" s="36" t="inlineStr">
         <is>
@@ -2801,10 +2801,10 @@
         <v>4074.72</v>
       </c>
       <c r="E50" s="35" t="n">
-        <v>3875.06</v>
+        <v>3895.43</v>
       </c>
       <c r="F50" s="35" t="n">
-        <v>-127.13</v>
+        <v>-106.76</v>
       </c>
       <c r="G50" s="36" t="inlineStr">
         <is>
@@ -2848,10 +2848,10 @@
         <v>4550.55</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>3565.36</v>
+        <v>3729.63</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>230.26</v>
+        <v>394.53</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2895,10 +2895,10 @@
         <v>809.28</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>788.16</v>
+        <v>810.01</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>121.15</v>
+        <v>143</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2942,10 +2942,10 @@
         <v>611.53</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>607.86</v>
+        <v>613.4299999999999</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>-59.13</v>
+        <v>-53.57</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2989,10 +2989,10 @@
         <v>473.85</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>480.39</v>
+        <v>486.36</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>13.5</v>
+        <v>19.48</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3130,10 +3130,10 @@
         <v>4147.87</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>4309.64</v>
+        <v>4210.09</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>307.77</v>
+        <v>208.22</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
         <v>342.8</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>768.87</v>
+        <v>765.85</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>101.88</v>
+        <v>98.86</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3224,10 +3224,10 @@
         <v>1483.88</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2055.62</v>
+        <v>2036.92</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>54.61</v>
+        <v>35.91</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3271,10 +3271,10 @@
         <v>576.8</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>751.5700000000001</v>
+        <v>771.76</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>84.56</v>
+        <v>104.75</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         <v>5299.96</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>1303.79</v>
+        <v>1324.99</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-696.9400000000001</v>
+        <v>-675.74</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3365,10 +3365,10 @@
         <v>1026.5</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>797.59</v>
+        <v>793.48</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>130.57</v>
+        <v>126.46</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         <v>930.1900000000001</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>757.17</v>
+        <v>759.04</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>90.14</v>
+        <v>92</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3459,10 +3459,10 @@
         <v>1564.33</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>3099.88</v>
+        <v>3192.95</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>99.8</v>
+        <v>192.88</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3506,10 +3506,10 @@
         <v>3083.26</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>2932.18</v>
+        <v>2947.6</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>-67.83</v>
+        <v>-52.42</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3553,10 +3553,10 @@
         <v>1812.7</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>1037.41</v>
+        <v>1065.69</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>37.34</v>
+        <v>65.62</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         <v>1059.17</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>996.04</v>
+        <v>1006</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-3.92</v>
+        <v>6.04</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3647,10 +3647,10 @@
         <v>916.83</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>911.33</v>
+        <v>919.67</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-88.66</v>
+        <v>-80.31</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         <v>822.11</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>644.12</v>
+        <v>673.8</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-25.9</v>
+        <v>3.78</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3741,10 +3741,10 @@
         <v>1423.86</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>1972.47</v>
+        <v>1954.53</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>-27.48</v>
+        <v>-45.42</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3788,10 +3788,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>1172.47</v>
+        <v>1203.96</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>172.5</v>
+        <v>203.99</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>2047.94</v>
       </c>
       <c r="E72" s="35" t="n">
-        <v>2127.81</v>
+        <v>2078.66</v>
       </c>
       <c r="F72" s="35" t="n">
-        <v>127.79</v>
+        <v>78.64</v>
       </c>
       <c r="G72" s="36" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
         <v>438.17</v>
       </c>
       <c r="E73" s="35" t="n">
-        <v>982.77</v>
+        <v>978.92</v>
       </c>
       <c r="F73" s="35" t="n">
-        <v>-17.22</v>
+        <v>-21.08</v>
       </c>
       <c r="G73" s="36" t="inlineStr">
         <is>
@@ -3929,10 +3929,10 @@
         <v>7734.05</v>
       </c>
       <c r="E74" s="35" t="n">
-        <v>1902.58</v>
+        <v>1933.51</v>
       </c>
       <c r="F74" s="35" t="n">
-        <v>-1097.46</v>
+        <v>-1066.53</v>
       </c>
       <c r="G74" s="36" t="inlineStr">
         <is>
@@ -3976,10 +3976,10 @@
         <v>1394.58</v>
       </c>
       <c r="E75" s="35" t="n">
-        <v>1135.19</v>
+        <v>1137.98</v>
       </c>
       <c r="F75" s="35" t="n">
-        <v>135.13</v>
+        <v>137.92</v>
       </c>
       <c r="G75" s="36" t="inlineStr">
         <is>
@@ -4023,10 +4023,10 @@
         <v>917.23</v>
       </c>
       <c r="E76" s="35" t="n">
-        <v>1248.07</v>
+        <v>1268.71</v>
       </c>
       <c r="F76" s="35" t="n">
-        <v>248.11</v>
+        <v>268.75</v>
       </c>
       <c r="G76" s="36" t="inlineStr">
         <is>
@@ -4070,10 +4070,10 @@
         <v>595.47</v>
       </c>
       <c r="E77" s="35" t="n">
-        <v>1051</v>
+        <v>1056.36</v>
       </c>
       <c r="F77" s="35" t="n">
-        <v>51.03</v>
+        <v>56.39</v>
       </c>
       <c r="G77" s="36" t="inlineStr">
         <is>
@@ -4117,10 +4117,10 @@
         <v>72337.78999999999</v>
       </c>
       <c r="E78" s="40" t="n">
-        <v>68793.24000000001</v>
+        <v>69154.92999999999</v>
       </c>
       <c r="F78" s="40" t="n">
-        <v>2466.72</v>
+        <v>2828.41</v>
       </c>
       <c r="G78" s="41" t="inlineStr">
         <is>
@@ -4164,10 +4164,10 @@
         <v>63490</v>
       </c>
       <c r="E79" s="40" t="n">
-        <v>63743.96</v>
+        <v>65159.79</v>
       </c>
       <c r="F79" s="40" t="n">
-        <v>5542.68</v>
+        <v>6958.5</v>
       </c>
       <c r="G79" s="41" t="inlineStr">
         <is>
@@ -4211,10 +4211,10 @@
         <v>41627.14</v>
       </c>
       <c r="E80" s="40" t="n">
-        <v>43250.6</v>
+        <v>42251.55</v>
       </c>
       <c r="F80" s="40" t="n">
-        <v>1448.62</v>
+        <v>449.57</v>
       </c>
       <c r="G80" s="41" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         <v>32370.29</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>39015.91</v>
+        <v>39329.9</v>
       </c>
       <c r="F81" s="40" t="n">
-        <v>7014.64</v>
+        <v>7328.63</v>
       </c>
       <c r="G81" s="41" t="inlineStr">
         <is>
@@ -4305,10 +4305,10 @@
         <v>41014.88</v>
       </c>
       <c r="E82" s="40" t="n">
-        <v>39944.39</v>
+        <v>41051.79</v>
       </c>
       <c r="F82" s="40" t="n">
-        <v>9384.200000000001</v>
+        <v>10491.61</v>
       </c>
       <c r="G82" s="41" t="inlineStr">
         <is>
@@ -4352,10 +4352,10 @@
         <v>20086.63</v>
       </c>
       <c r="E83" s="40" t="n">
-        <v>35452.9</v>
+        <v>35633.68</v>
       </c>
       <c r="F83" s="40" t="n">
-        <v>3452.89</v>
+        <v>3633.67</v>
       </c>
       <c r="G83" s="41" t="inlineStr">
         <is>
@@ -4399,10 +4399,10 @@
         <v>27031.68</v>
       </c>
       <c r="E84" s="40" t="n">
-        <v>26869.49</v>
+        <v>27115.48</v>
       </c>
       <c r="F84" s="40" t="n">
-        <v>1267.79</v>
+        <v>1513.77</v>
       </c>
       <c r="G84" s="41" t="inlineStr">
         <is>
@@ -4446,10 +4446,10 @@
         <v>14624.61</v>
       </c>
       <c r="E85" s="40" t="n">
-        <v>22931.39</v>
+        <v>23223.88</v>
       </c>
       <c r="F85" s="40" t="n">
-        <v>3730.74</v>
+        <v>4023.23</v>
       </c>
       <c r="G85" s="41" t="inlineStr">
         <is>
@@ -4493,10 +4493,10 @@
         <v>16626.05</v>
       </c>
       <c r="E86" s="40" t="n">
-        <v>23032.07</v>
+        <v>22822.58</v>
       </c>
       <c r="F86" s="40" t="n">
-        <v>330.86</v>
+        <v>121.37</v>
       </c>
       <c r="G86" s="41" t="inlineStr">
         <is>
@@ -4540,10 +4540,10 @@
         <v>16778.47</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>21862.35</v>
+        <v>22449.59</v>
       </c>
       <c r="F87" s="40" t="n">
-        <v>2661.07</v>
+        <v>3248.31</v>
       </c>
       <c r="G87" s="41" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E88" s="40" t="n">
-        <v>16391.27</v>
+        <v>16762.94</v>
       </c>
       <c r="F88" s="40" t="n">
-        <v>3590.83</v>
+        <v>3962.49</v>
       </c>
       <c r="G88" s="41" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         <v>13403.92</v>
       </c>
       <c r="E89" s="40" t="n">
-        <v>7494.13</v>
+        <v>7734.06</v>
       </c>
       <c r="F89" s="40" t="n">
-        <v>1093.76</v>
+        <v>1333.69</v>
       </c>
       <c r="G89" s="41" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         <v>3289.25</v>
       </c>
       <c r="E90" s="40" t="n">
-        <v>7377.46</v>
+        <v>7348.51</v>
       </c>
       <c r="F90" s="40" t="n">
-        <v>977.24</v>
+        <v>948.29</v>
       </c>
       <c r="G90" s="41" t="inlineStr">
         <is>
@@ -4728,10 +4728,10 @@
         <v>37267.45</v>
       </c>
       <c r="E91" s="40" t="n">
-        <v>9167.790000000001</v>
+        <v>9316.860000000001</v>
       </c>
       <c r="F91" s="40" t="n">
-        <v>-10032.4</v>
+        <v>-9883.33</v>
       </c>
       <c r="G91" s="41" t="inlineStr">
         <is>
@@ -4775,10 +4775,10 @@
         <v>3299.64</v>
       </c>
       <c r="E92" s="40" t="n">
-        <v>6538.57</v>
+        <v>6734.9</v>
       </c>
       <c r="F92" s="40" t="n">
-        <v>138.25</v>
+        <v>334.58</v>
       </c>
       <c r="G92" s="41" t="inlineStr">
         <is>
@@ -4822,10 +4822,10 @@
         <v>8925.34</v>
       </c>
       <c r="E93" s="40" t="n">
-        <v>7265.23</v>
+        <v>7283.08</v>
       </c>
       <c r="F93" s="40" t="n">
-        <v>864.87</v>
+        <v>882.72</v>
       </c>
       <c r="G93" s="41" t="inlineStr">
         <is>
@@ -4910,16 +4910,16 @@
         <v>519671</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>1.4178</v>
+        <v>1.4157</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>1586.43</v>
+        <v>1619.55</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>2084.57</v>
+        <v>2132.95</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>-164.67</v>
+        <v>-159.85</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4957,16 +4957,16 @@
         <v>90010</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>1.6542</v>
+        <v>1.652</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>1325.41</v>
+        <v>1351.19</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>2035.83</v>
+        <v>2083.53</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-156.66</v>
+        <v>-148.63</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -5010,10 +5010,10 @@
         <v>1797.43</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>1716.91</v>
+        <v>1762.2</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>26.06</v>
+        <v>71.36</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5057,10 +5057,10 @@
         <v>1051.5</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>1436.98</v>
+        <v>1430.67</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>27.55</v>
+        <v>21.24</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5104,10 +5104,10 @@
         <v>485.77</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>1011.28</v>
+        <v>1012.78</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>-27.4</v>
+        <v>-25.89</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>528.99</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>952.66</v>
+        <v>956.41</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>0.9</v>
+        <v>4.66</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5192,16 +5192,16 @@
         <v>1594</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>1.1719</v>
+        <v>1.1669</v>
       </c>
       <c r="D101" s="10" t="n">
-        <v>631.0700000000001</v>
+        <v>668.84</v>
       </c>
       <c r="E101" s="10" t="n">
-        <v>682.5</v>
+        <v>725.6900000000001</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>-57.05</v>
+        <v>-54.78</v>
       </c>
       <c r="G101" s="11" t="inlineStr">
         <is>
@@ -5239,16 +5239,16 @@
         <v>6327</v>
       </c>
       <c r="C102" s="9" t="n">
-        <v>1.1598</v>
+        <v>1.1573</v>
       </c>
       <c r="D102" s="10" t="n">
-        <v>387.21</v>
+        <v>396.12</v>
       </c>
       <c r="E102" s="10" t="n">
-        <v>424.15</v>
+        <v>446.98</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>-24.94</v>
+        <v>-11.45</v>
       </c>
       <c r="G102" s="11" t="inlineStr">
         <is>
@@ -5292,10 +5292,10 @@
         <v>426.97</v>
       </c>
       <c r="E103" s="10" t="n">
-        <v>428.68</v>
+        <v>438.2</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>19.3</v>
+        <v>28.82</v>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
@@ -5333,16 +5333,16 @@
         <v>164906</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>1.1987</v>
+        <v>1.2161</v>
       </c>
       <c r="D104" s="10" t="n">
-        <v>235.02</v>
+        <v>254.52</v>
       </c>
       <c r="E104" s="10" t="n">
-        <v>306.23</v>
+        <v>340.55</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>24.51</v>
+        <v>31.03</v>
       </c>
       <c r="G104" s="11" t="inlineStr">
         <is>
@@ -5386,10 +5386,10 @@
         <v>111.78</v>
       </c>
       <c r="E105" s="10" t="n">
-        <v>291.97</v>
+        <v>304.15</v>
       </c>
       <c r="F105" s="10" t="n">
-        <v>35.78</v>
+        <v>47.96</v>
       </c>
       <c r="G105" s="11" t="inlineStr">
         <is>
@@ -5433,10 +5433,10 @@
         <v>142.1</v>
       </c>
       <c r="E106" s="10" t="n">
-        <v>178.34</v>
+        <v>178.48</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>-4.12</v>
+        <v>-3.98</v>
       </c>
       <c r="G106" s="11" t="inlineStr">
         <is>
@@ -5480,10 +5480,10 @@
         <v>140.72</v>
       </c>
       <c r="E107" s="10" t="n">
-        <v>130.56</v>
+        <v>130.73</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>13.96</v>
+        <v>14.13</v>
       </c>
       <c r="G107" s="11" t="inlineStr">
         <is>
@@ -5521,16 +5521,16 @@
         <v>161128</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>1.6817</v>
+        <v>1.6918</v>
       </c>
       <c r="D108" s="10" t="n">
-        <v>63.82</v>
+        <v>69.44</v>
       </c>
       <c r="E108" s="10" t="n">
-        <v>108.78</v>
+        <v>120.92</v>
       </c>
       <c r="F108" s="10" t="n">
-        <v>1.46</v>
+        <v>3.44</v>
       </c>
       <c r="G108" s="11" t="inlineStr">
         <is>
@@ -5568,16 +5568,16 @@
         <v>110003</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>1.7012</v>
+        <v>1.7017</v>
       </c>
       <c r="D109" s="10" t="n">
-        <v>25.7</v>
+        <v>51.56</v>
       </c>
       <c r="E109" s="10" t="n">
-        <v>43.68</v>
+        <v>88.33</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>-0.04</v>
+        <v>0.59</v>
       </c>
       <c r="G109" s="11" t="inlineStr">
         <is>
@@ -5621,10 +5621,10 @@
         <v>25.8</v>
       </c>
       <c r="E110" s="10" t="n">
-        <v>32.04</v>
+        <v>32.12</v>
       </c>
       <c r="F110" s="10" t="n">
-        <v>-5.04</v>
+        <v>-4.96</v>
       </c>
       <c r="G110" s="11" t="inlineStr">
         <is>
@@ -5809,10 +5809,10 @@
         <v>1588.12</v>
       </c>
       <c r="E114" s="10" t="n">
-        <v>1943.06</v>
+        <v>1944.65</v>
       </c>
       <c r="F114" s="10" t="n">
-        <v>9.69</v>
+        <v>11.28</v>
       </c>
       <c r="G114" s="11" t="inlineStr">
         <is>
@@ -5856,10 +5856,10 @@
         <v>876.9</v>
       </c>
       <c r="E115" s="10" t="n">
-        <v>957.14</v>
+        <v>959.42</v>
       </c>
       <c r="F115" s="10" t="n">
-        <v>-9.56</v>
+        <v>-7.28</v>
       </c>
       <c r="G115" s="11" t="inlineStr">
         <is>
@@ -5903,10 +5903,10 @@
         <v>883.55</v>
       </c>
       <c r="E116" s="10" t="n">
-        <v>954.6799999999999</v>
+        <v>958.21</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>-12.02</v>
+        <v>-8.48</v>
       </c>
       <c r="G116" s="11" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         <v>355.34</v>
       </c>
       <c r="E117" s="10" t="n">
-        <v>482.98</v>
+        <v>483.87</v>
       </c>
       <c r="F117" s="10" t="n">
-        <v>-0.36</v>
+        <v>0.53</v>
       </c>
       <c r="G117" s="11" t="inlineStr">
         <is>
@@ -5997,10 +5997,10 @@
         <v>304.75</v>
       </c>
       <c r="E118" s="10" t="n">
-        <v>477.54</v>
+        <v>481.2</v>
       </c>
       <c r="F118" s="10" t="n">
-        <v>-5.79</v>
+        <v>-2.13</v>
       </c>
       <c r="G118" s="11" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         <v>1487.05</v>
       </c>
       <c r="E119" s="10" t="n">
-        <v>1953.98</v>
+        <v>1958.44</v>
       </c>
       <c r="F119" s="10" t="n">
-        <v>-162.83</v>
+        <v>-158.37</v>
       </c>
       <c r="G119" s="11" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         <v>1210.44</v>
       </c>
       <c r="E120" s="10" t="n">
-        <v>1859.24</v>
+        <v>1866.5</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>-138.96</v>
+        <v>-131.7</v>
       </c>
       <c r="G120" s="11" t="inlineStr">
         <is>
@@ -6138,10 +6138,10 @@
         <v>1697.75</v>
       </c>
       <c r="E121" s="10" t="n">
-        <v>1621.69</v>
+        <v>1664.47</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>25.64</v>
+        <v>68.42</v>
       </c>
       <c r="G121" s="11" t="inlineStr">
         <is>
@@ -6185,10 +6185,10 @@
         <v>977.05</v>
       </c>
       <c r="E122" s="10" t="n">
-        <v>1335.24</v>
+        <v>1329.37</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>19.83</v>
+        <v>13.97</v>
       </c>
       <c r="G122" s="11" t="inlineStr">
         <is>
@@ -6232,10 +6232,10 @@
         <v>456.18</v>
       </c>
       <c r="E123" s="10" t="n">
-        <v>949.6799999999999</v>
+        <v>951.09</v>
       </c>
       <c r="F123" s="10" t="n">
-        <v>-19.52</v>
+        <v>-18.11</v>
       </c>
       <c r="G123" s="11" t="inlineStr">
         <is>
@@ -6279,10 +6279,10 @@
         <v>492.58</v>
       </c>
       <c r="E124" s="10" t="n">
-        <v>887.09</v>
+        <v>890.58</v>
       </c>
       <c r="F124" s="10" t="n">
-        <v>2.12</v>
+        <v>5.62</v>
       </c>
       <c r="G124" s="11" t="inlineStr">
         <is>
@@ -6326,10 +6326,10 @@
         <v>519.77</v>
       </c>
       <c r="E125" s="10" t="n">
-        <v>562.13</v>
+        <v>563.95</v>
       </c>
       <c r="F125" s="10" t="n">
-        <v>-51.15</v>
+        <v>-49.33</v>
       </c>
       <c r="G125" s="11" t="inlineStr">
         <is>
@@ -6367,16 +6367,16 @@
         <v>6327</v>
       </c>
       <c r="C126" s="9" t="n">
-        <v>1.1657</v>
+        <v>1.1638</v>
       </c>
       <c r="D126" s="10" t="n">
         <v>362.5</v>
       </c>
       <c r="E126" s="10" t="n">
-        <v>397.08</v>
+        <v>409.05</v>
       </c>
       <c r="F126" s="10" t="n">
-        <v>-25.48</v>
+        <v>-12.83</v>
       </c>
       <c r="G126" s="11" t="inlineStr">
         <is>
@@ -6420,10 +6420,10 @@
         <v>390.82</v>
       </c>
       <c r="E127" s="10" t="n">
-        <v>392.38</v>
+        <v>401.1</v>
       </c>
       <c r="F127" s="10" t="n">
-        <v>17.24</v>
+        <v>25.95</v>
       </c>
       <c r="G127" s="11" t="inlineStr">
         <is>
@@ -6461,16 +6461,16 @@
         <v>164906</v>
       </c>
       <c r="C128" s="9" t="n">
-        <v>1.2201</v>
+        <v>1.2329</v>
       </c>
       <c r="D128" s="10" t="n">
         <v>109.81</v>
       </c>
       <c r="E128" s="10" t="n">
-        <v>143.08</v>
+        <v>146.93</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>9.1</v>
+        <v>11.54</v>
       </c>
       <c r="G128" s="11" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         <v>38.03</v>
       </c>
       <c r="E129" s="10" t="n">
-        <v>99.33</v>
+        <v>103.48</v>
       </c>
       <c r="F129" s="10" t="n">
-        <v>12.8</v>
+        <v>16.95</v>
       </c>
       <c r="G129" s="11" t="inlineStr">
         <is>
@@ -6555,16 +6555,16 @@
         <v>161128</v>
       </c>
       <c r="C130" s="9" t="n">
-        <v>1.7366</v>
+        <v>1.7335</v>
       </c>
       <c r="D130" s="10" t="n">
         <v>53.35</v>
       </c>
       <c r="E130" s="10" t="n">
-        <v>90.94</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F130" s="10" t="n">
-        <v>-1.71</v>
+        <v>0.42</v>
       </c>
       <c r="G130" s="11" t="inlineStr">
         <is>
@@ -6608,10 +6608,10 @@
         <v>62.09</v>
       </c>
       <c r="E131" s="10" t="n">
-        <v>77.92</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="F131" s="10" t="n">
-        <v>-2.12</v>
+        <v>-2.06</v>
       </c>
       <c r="G131" s="11" t="inlineStr">
         <is>
@@ -6655,10 +6655,10 @@
         <v>25.7</v>
       </c>
       <c r="E132" s="10" t="n">
-        <v>43.68</v>
+        <v>44.03</v>
       </c>
       <c r="F132" s="10" t="n">
-        <v>-0.04</v>
+        <v>0.31</v>
       </c>
       <c r="G132" s="11" t="inlineStr">
         <is>
@@ -6702,10 +6702,10 @@
         <v>38.25</v>
       </c>
       <c r="E133" s="10" t="n">
-        <v>35.49</v>
+        <v>35.53</v>
       </c>
       <c r="F133" s="10" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="G133" s="11" t="inlineStr">
         <is>
@@ -6749,10 +6749,10 @@
         <v>25.8</v>
       </c>
       <c r="E134" s="10" t="n">
-        <v>32.04</v>
+        <v>32.12</v>
       </c>
       <c r="F134" s="10" t="n">
-        <v>-5.04</v>
+        <v>-4.96</v>
       </c>
       <c r="G134" s="11" t="inlineStr">
         <is>
@@ -6937,10 +6937,10 @@
         <v>204702.46</v>
       </c>
       <c r="E138" s="10" t="n">
-        <v>250453.46</v>
+        <v>250658.16</v>
       </c>
       <c r="F138" s="10" t="n">
-        <v>1678.56</v>
+        <v>1883.26</v>
       </c>
       <c r="G138" s="11" t="inlineStr">
         <is>
@@ -6984,10 +6984,10 @@
         <v>155193.38</v>
       </c>
       <c r="E139" s="10" t="n">
-        <v>167686.45</v>
+        <v>168307.22</v>
       </c>
       <c r="F139" s="10" t="n">
-        <v>-1412.26</v>
+        <v>-791.49</v>
       </c>
       <c r="G139" s="11" t="inlineStr">
         <is>
@@ -7031,10 +7031,10 @@
         <v>53807.75</v>
       </c>
       <c r="E140" s="10" t="n">
-        <v>84316.74000000001</v>
+        <v>84962.44</v>
       </c>
       <c r="F140" s="10" t="n">
-        <v>-473.51</v>
+        <v>172.18</v>
       </c>
       <c r="G140" s="11" t="inlineStr">
         <is>
@@ -7078,10 +7078,10 @@
         <v>61822.59</v>
       </c>
       <c r="E141" s="10" t="n">
-        <v>84029.25999999999</v>
+        <v>84183.82000000001</v>
       </c>
       <c r="F141" s="10" t="n">
-        <v>228.74</v>
+        <v>383.3</v>
       </c>
       <c r="G141" s="11" t="inlineStr">
         <is>
@@ -7125,10 +7125,10 @@
         <v>76710.81</v>
       </c>
       <c r="E142" s="10" t="n">
-        <v>83729.85000000001</v>
+        <v>83929.3</v>
       </c>
       <c r="F142" s="10" t="n">
-        <v>-398.9</v>
+        <v>-199.45</v>
       </c>
       <c r="G142" s="11" t="inlineStr">
         <is>
@@ -7172,10 +7172,10 @@
         <v>37702.16</v>
       </c>
       <c r="E143" s="10" t="n">
-        <v>83453.73</v>
+        <v>83853.37</v>
       </c>
       <c r="F143" s="10" t="n">
-        <v>-361.94</v>
+        <v>37.7</v>
       </c>
       <c r="G143" s="11" t="inlineStr">
         <is>
@@ -7219,10 +7219,10 @@
         <v>52379.09</v>
       </c>
       <c r="E144" s="10" t="n">
-        <v>83329.89</v>
+        <v>83790.83</v>
       </c>
       <c r="F144" s="10" t="n">
-        <v>-120.47</v>
+        <v>340.46</v>
       </c>
       <c r="G144" s="11" t="inlineStr">
         <is>
@@ -7266,10 +7266,10 @@
         <v>9368.450000000001</v>
       </c>
       <c r="E145" s="40" t="n">
-        <v>10606.02</v>
+        <v>10893.63</v>
       </c>
       <c r="F145" s="40" t="n">
-        <v>815.0599999999999</v>
+        <v>1102.67</v>
       </c>
       <c r="G145" s="41" t="inlineStr">
         <is>
@@ -7313,10 +7313,10 @@
         <v>10068.96</v>
       </c>
       <c r="E146" s="40" t="n">
-        <v>9575.58</v>
+        <v>9625.93</v>
       </c>
       <c r="F146" s="40" t="n">
-        <v>375.57</v>
+        <v>425.92</v>
       </c>
       <c r="G146" s="41" t="inlineStr">
         <is>
@@ -7360,10 +7360,10 @@
         <v>6096.21</v>
       </c>
       <c r="E147" s="40" t="n">
-        <v>6120.59</v>
+        <v>6256.54</v>
       </c>
       <c r="F147" s="40" t="n">
-        <v>920.53</v>
+        <v>1056.47</v>
       </c>
       <c r="G147" s="41" t="inlineStr">
         <is>
@@ -7407,10 +7407,10 @@
         <v>6187.76</v>
       </c>
       <c r="E148" s="40" t="n">
-        <v>6026.26</v>
+        <v>6193.33</v>
       </c>
       <c r="F148" s="40" t="n">
-        <v>1740</v>
+        <v>1907.07</v>
       </c>
       <c r="G148" s="41" t="inlineStr">
         <is>
@@ -7454,10 +7454,10 @@
         <v>2760.12</v>
       </c>
       <c r="E149" s="40" t="n">
-        <v>4327.87</v>
+        <v>4383.07</v>
       </c>
       <c r="F149" s="40" t="n">
-        <v>727.84</v>
+        <v>783.05</v>
       </c>
       <c r="G149" s="41" t="inlineStr">
         <is>
@@ -7501,10 +7501,10 @@
         <v>1981.84</v>
       </c>
       <c r="E150" s="40" t="n">
-        <v>3497.95</v>
+        <v>3515.78</v>
       </c>
       <c r="F150" s="40" t="n">
-        <v>306.79</v>
+        <v>324.63</v>
       </c>
       <c r="G150" s="41" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         <v>2046.97</v>
       </c>
       <c r="E151" s="40" t="n">
-        <v>3520.79</v>
+        <v>3600.62</v>
       </c>
       <c r="F151" s="40" t="n">
-        <v>808.55</v>
+        <v>888.38</v>
       </c>
       <c r="G151" s="41" t="inlineStr">
         <is>
@@ -7595,10 +7595,10 @@
         <v>5949.77</v>
       </c>
       <c r="E152" s="40" t="n">
-        <v>3326.52</v>
+        <v>3433.02</v>
       </c>
       <c r="F152" s="40" t="n">
-        <v>126.14</v>
+        <v>232.64</v>
       </c>
       <c r="G152" s="41" t="inlineStr">
         <is>
@@ -7642,10 +7642,10 @@
         <v>3988.79</v>
       </c>
       <c r="E153" s="40" t="n">
-        <v>3125.22</v>
+        <v>3269.21</v>
       </c>
       <c r="F153" s="40" t="n">
-        <v>299.56</v>
+        <v>443.55</v>
       </c>
       <c r="G153" s="41" t="inlineStr">
         <is>
@@ -7689,10 +7689,10 @@
         <v>2730.84</v>
       </c>
       <c r="E154" s="40" t="n">
-        <v>2837.34</v>
+        <v>2771.8</v>
       </c>
       <c r="F154" s="40" t="n">
-        <v>37.14</v>
+        <v>-28.4</v>
       </c>
       <c r="G154" s="41" t="inlineStr">
         <is>
@@ -7736,10 +7736,10 @@
         <v>1630.08</v>
       </c>
       <c r="E155" s="40" t="n">
-        <v>1964.74</v>
+        <v>1980.55</v>
       </c>
       <c r="F155" s="40" t="n">
-        <v>364.65</v>
+        <v>380.46</v>
       </c>
       <c r="G155" s="41" t="inlineStr">
         <is>
@@ -7783,10 +7783,10 @@
         <v>1407.29</v>
       </c>
       <c r="E156" s="40" t="n">
-        <v>1833.7</v>
+        <v>1882.95</v>
       </c>
       <c r="F156" s="40" t="n">
-        <v>233.61</v>
+        <v>282.87</v>
       </c>
       <c r="G156" s="41" t="inlineStr">
         <is>
@@ -7830,10 +7830,10 @@
         <v>1267.08</v>
       </c>
       <c r="E157" s="40" t="n">
-        <v>1259.48</v>
+        <v>1271.01</v>
       </c>
       <c r="F157" s="40" t="n">
-        <v>59.43</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="G157" s="41" t="inlineStr">
         <is>
@@ -7877,10 +7877,10 @@
         <v>1546.42</v>
       </c>
       <c r="E158" s="40" t="n">
-        <v>1281.05</v>
+        <v>1307.81</v>
       </c>
       <c r="F158" s="40" t="n">
-        <v>81.03</v>
+        <v>107.79</v>
       </c>
       <c r="G158" s="41" t="inlineStr">
         <is>
@@ -7924,10 +7924,10 @@
         <v>1338.46</v>
       </c>
       <c r="E159" s="40" t="n">
-        <v>1258.69</v>
+        <v>1271.27</v>
       </c>
       <c r="F159" s="40" t="n">
-        <v>58.62</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="G159" s="41" t="inlineStr">
         <is>
@@ -7971,10 +7971,10 @@
         <v>889.71</v>
       </c>
       <c r="E160" s="40" t="n">
-        <v>1232.52</v>
+        <v>1221.3</v>
       </c>
       <c r="F160" s="40" t="n">
-        <v>32.47</v>
+        <v>21.26</v>
       </c>
       <c r="G160" s="41" t="inlineStr">
         <is>
@@ -8018,10 +8018,10 @@
         <v>4541.16</v>
       </c>
       <c r="E161" s="40" t="n">
-        <v>1117.13</v>
+        <v>1135.29</v>
       </c>
       <c r="F161" s="40" t="n">
-        <v>-883.26</v>
+        <v>-865.09</v>
       </c>
       <c r="G161" s="41" t="inlineStr">
         <is>
@@ -8065,10 +8065,10 @@
         <v>413.27</v>
       </c>
       <c r="E162" s="40" t="n">
-        <v>818.9400000000001</v>
+        <v>843.53</v>
       </c>
       <c r="F162" s="40" t="n">
-        <v>18.93</v>
+        <v>43.52</v>
       </c>
       <c r="G162" s="41" t="inlineStr">
         <is>
@@ -8112,10 +8112,10 @@
         <v>380.85</v>
       </c>
       <c r="E163" s="40" t="n">
-        <v>854.21</v>
+        <v>850.86</v>
       </c>
       <c r="F163" s="40" t="n">
-        <v>54.19</v>
+        <v>50.84</v>
       </c>
       <c r="G163" s="41" t="inlineStr">
         <is>
@@ -8159,10 +8159,10 @@
         <v>496.13</v>
       </c>
       <c r="E164" s="40" t="n">
-        <v>502.98</v>
+        <v>509.23</v>
       </c>
       <c r="F164" s="40" t="n">
-        <v>102.95</v>
+        <v>109.2</v>
       </c>
       <c r="G164" s="41" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         <v>366.9</v>
       </c>
       <c r="E165" s="40" t="n">
-        <v>499.24</v>
+        <v>507.5</v>
       </c>
       <c r="F165" s="40" t="n">
-        <v>175.97</v>
+        <v>184.22</v>
       </c>
       <c r="G165" s="41" t="inlineStr">
         <is>
@@ -8253,10 +8253,10 @@
         <v>325.61</v>
       </c>
       <c r="E166" s="40" t="n">
-        <v>409.85</v>
+        <v>414.92</v>
       </c>
       <c r="F166" s="40" t="n">
-        <v>9.83</v>
+        <v>14.91</v>
       </c>
       <c r="G166" s="41" t="inlineStr">
         <is>
@@ -8300,10 +8300,10 @@
         <v>557.83</v>
       </c>
       <c r="E167" s="40" t="n">
-        <v>454.07</v>
+        <v>455.19</v>
       </c>
       <c r="F167" s="40" t="n">
-        <v>54.05</v>
+        <v>55.17</v>
       </c>
       <c r="G167" s="41" t="inlineStr">
         <is>

--- a/scripts/output/202004/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202004/全家/全家整体资产配置.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>68824.92999999999</v>
+        <v>103214.32</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>68824.92999999999</v>
+        <v>103214.32</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>5821.71</v>
@@ -586,16 +586,16 @@
         <v>519671</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>1.4188</v>
+        <v>1.4168</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>4063.69</v>
+        <v>4143.86</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>5351.88</v>
+        <v>5561.06</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>-413.68</v>
+        <v>-309.96</v>
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
@@ -633,16 +633,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6481</v>
+        <v>1.6462</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>3368.21</v>
+        <v>3430.59</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>5193.78</v>
+        <v>5327.71</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-357.37</v>
+        <v>-319.73</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>4586.65</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4496.75</v>
+        <v>4366.95</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>183.92</v>
+        <v>54.12</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         <v>2551.86</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3472.06</v>
+        <v>3578.22</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>52.06</v>
+        <v>158.22</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>1220.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2543.87</v>
+        <v>2567.78</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-58.08</v>
+        <v>-34.16</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2464.97</v>
+        <v>2479.7</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>12.68</v>
+        <v>27.4</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -868,16 +868,16 @@
         <v>1594</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>1.1705</v>
+        <v>1.1661</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1629.81</v>
+        <v>1721.81</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1768.34</v>
+        <v>1936.35</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>-139.35</v>
+        <v>-71.45999999999999</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -915,16 +915,16 @@
         <v>6327</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>1.1593</v>
+        <v>1.1589</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>974.46</v>
+        <v>996.36</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1099.58</v>
+        <v>1141.03</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-30.11</v>
+        <v>-13.65</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         <v>1067.42</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>1095.49</v>
+        <v>1105.85</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>71.94</v>
+        <v>82.3</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>164906</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>1.217</v>
+        <v>1.2268</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>597.96</v>
+        <v>642.38</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>800.0700000000001</v>
+        <v>871.71</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>72.34999999999999</v>
+        <v>83.64</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>253.87</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>690.78</v>
+        <v>700.6799999999999</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>108.4</v>
+        <v>118.3</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1096,23 +1096,23 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>易方达上证50指数A</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>501050</v>
+        <v>110003</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>1.2636</v>
+        <v>1.7096</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>247.91</v>
+        <v>189.81</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>311.37</v>
+        <v>336.06</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-1.88</v>
+        <v>11.56</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J14" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K14" s="11" t="inlineStr">
@@ -1143,42 +1143,42 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B15" s="8" t="n">
-        <v>161128</v>
+        <v>501050</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>1.7056</v>
+        <v>1.2636</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>164.83</v>
+        <v>247.91</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>287.02</v>
+        <v>317.57</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>5.88</v>
+        <v>4.31</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J15" s="11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K15" s="11" t="inlineStr">
@@ -1203,10 +1203,10 @@
         <v>300.61</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>279.27</v>
+        <v>291.8</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>29.4</v>
+        <v>41.94</v>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
@@ -1237,42 +1237,42 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>易方达上证50指数A</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B17" s="8" t="n">
-        <v>110003</v>
+        <v>161128</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>1.7014</v>
+        <v>1.7056</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>128.92</v>
+        <v>164.83</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>220.87</v>
+        <v>291.55</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>1.52</v>
+        <v>10.42</v>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K17" s="11" t="inlineStr">
@@ -1284,23 +1284,23 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>富国中证消费50ETF联接A</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>310398</v>
+        <v>8975</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>1.4374</v>
+        <v>1.0429</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>64.5</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>80.29000000000001</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>-12.42</v>
+        <v>3.15</v>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
@@ -1331,23 +1331,23 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B19" s="8" t="n">
-        <v>1550</v>
+        <v>310398</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.4374</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>0</v>
+        <v>-10.91</v>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I19" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J19" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K19" s="11" t="inlineStr">
@@ -1378,14 +1378,14 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B20" s="8" t="n">
-        <v>2086</v>
+        <v>1550</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>1.2256</v>
+        <v>0.6708</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>0</v>
@@ -1398,22 +1398,22 @@
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
@@ -1425,14 +1425,14 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>501029</v>
+        <v>2086</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>0.9827</v>
+        <v>1.2256</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>0</v>
@@ -1441,26 +1441,26 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I21" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J21" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K21" s="11" t="inlineStr">
@@ -1472,70 +1472,70 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B22" s="8" t="n">
-        <v>2147</v>
+        <v>501029</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>1.2119</v>
+        <v>0.9827</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>38345.9</v>
+        <v>0</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>46954.55</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>483.16</v>
+        <v>-0</v>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J22" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>长安鑫益增强混合C</t>
         </is>
       </c>
       <c r="B23" s="8" t="n">
-        <v>7749</v>
+        <v>2147</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>1.0618</v>
+        <v>1.2119</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>29071.68</v>
+        <v>38345.9</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>31528.24</v>
+        <v>46996.74</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>659.9299999999999</v>
+        <v>525.34</v>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
@@ -1566,23 +1566,23 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>民生加银鹏程混合C</t>
         </is>
       </c>
       <c r="B24" s="8" t="n">
-        <v>485011</v>
+        <v>7749</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>1.5536</v>
+        <v>1.0618</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>10080.25</v>
+        <v>29071.68</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>15916.71</v>
+        <v>31723.02</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>256.04</v>
+        <v>854.71</v>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
@@ -1613,23 +1613,23 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B25" s="8" t="n">
-        <v>1338</v>
+        <v>485011</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>1.3439</v>
+        <v>1.5536</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>11580.99</v>
+        <v>10080.25</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>15769.83</v>
+        <v>16007.44</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>206.14</v>
+        <v>346.76</v>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
@@ -1673,10 +1673,10 @@
         <v>7072.09</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>15729.04</v>
+        <v>15852.8</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>15.56</v>
+        <v>139.32</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1707,23 +1707,23 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>安信稳健增值混合C</t>
         </is>
       </c>
       <c r="B27" s="8" t="n">
-        <v>6060</v>
+        <v>1338</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>1.0843</v>
+        <v>1.3439</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>14369.85</v>
+        <v>11580.99</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>15722.05</v>
+        <v>15839.32</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>140.82</v>
+        <v>275.63</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1767,10 +1767,10 @@
         <v>9821.860000000001</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>15712.03</v>
+        <v>15784.71</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>63.84</v>
+        <v>136.52</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1799,232 +1799,232 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>住房公积金</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="n">
-        <v>999989</v>
-      </c>
-      <c r="C29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15" t="n">
-        <v>319017.75</v>
-      </c>
-      <c r="E29" s="15" t="n">
-        <v>319017.75</v>
-      </c>
-      <c r="F29" s="15" t="n">
-        <v>7027.67</v>
-      </c>
-      <c r="G29" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
-        </is>
-      </c>
-      <c r="H29" s="16" t="inlineStr">
-        <is>
-          <t>有息资金</t>
-        </is>
-      </c>
-      <c r="I29" s="16" t="inlineStr">
-        <is>
-          <t>住房公积金</t>
-        </is>
-      </c>
-      <c r="J29" s="16" t="inlineStr">
-        <is>
-          <t>989</t>
-        </is>
-      </c>
-      <c r="K29" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>鹏扬泓利债券C</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1.0843</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>14369.85</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>15760.85</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>179.62</v>
+      </c>
+      <c r="G29" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H29" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I29" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J29" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K29" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="inlineStr">
         <is>
-          <t>外借款</t>
+          <t>住房公积金</t>
         </is>
       </c>
       <c r="B30" s="13" t="n">
-        <v>999988</v>
+        <v>999989</v>
       </c>
       <c r="C30" s="14" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="15" t="n">
+        <v>319017.75</v>
+      </c>
+      <c r="E30" s="15" t="n">
+        <v>319017.75</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>7027.67</v>
+      </c>
+      <c r="G30" s="16" t="inlineStr">
+        <is>
+          <t>冻结资金</t>
+        </is>
+      </c>
+      <c r="H30" s="16" t="inlineStr">
+        <is>
+          <t>有息资金</t>
+        </is>
+      </c>
+      <c r="I30" s="16" t="inlineStr">
+        <is>
+          <t>住房公积金</t>
+        </is>
+      </c>
+      <c r="J30" s="16" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="K30" s="16" t="inlineStr">
+        <is>
+          <t>冻结资金</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>外借款</t>
+        </is>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>999988</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15" t="n">
         <v>5000</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E31" s="15" t="n">
         <v>5000</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F31" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="16" t="inlineStr">
+      <c r="G31" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
-      <c r="H30" s="16" t="inlineStr">
+      <c r="H31" s="16" t="inlineStr">
         <is>
           <t>无息资金</t>
         </is>
       </c>
-      <c r="I30" s="16" t="inlineStr">
+      <c r="I31" s="16" t="inlineStr">
         <is>
           <t>无息外借款</t>
         </is>
       </c>
-      <c r="J30" s="16" t="inlineStr">
+      <c r="J31" s="16" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="K30" s="16" t="inlineStr">
+      <c r="K31" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="17" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="17" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B31" s="18" t="n">
+      <c r="B32" s="18" t="n">
         <v>1064</v>
       </c>
-      <c r="C31" s="19" t="n">
+      <c r="C32" s="19" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D31" s="20" t="n">
+      <c r="D32" s="20" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E31" s="20" t="n">
-        <v>9654.290000000001</v>
-      </c>
-      <c r="F31" s="20" t="n">
-        <v>-2345.81</v>
-      </c>
-      <c r="G31" s="21" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H31" s="21" t="inlineStr">
+      <c r="E32" s="20" t="n">
+        <v>9465.219999999999</v>
+      </c>
+      <c r="F32" s="20" t="n">
+        <v>-2534.88</v>
+      </c>
+      <c r="G32" s="21" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H32" s="21" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I31" s="21" t="inlineStr">
+      <c r="I32" s="21" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J31" s="21" t="inlineStr">
+      <c r="J32" s="21" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K31" s="21" t="inlineStr">
+      <c r="K32" s="21" t="inlineStr">
         <is>
           <t>支付宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="inlineStr">
-        <is>
-          <t>石油基金</t>
-        </is>
-      </c>
-      <c r="B32" s="23" t="n">
-        <v>160416</v>
-      </c>
-      <c r="C32" s="24" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="D32" s="25" t="n">
-        <v>13896</v>
-      </c>
-      <c r="E32" s="25" t="n">
-        <v>10741.61</v>
-      </c>
-      <c r="F32" s="25" t="n">
-        <v>2292.84</v>
-      </c>
-      <c r="G32" s="26" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H32" s="26" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I32" s="26" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="J32" s="26" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="K32" s="26" t="inlineStr">
-        <is>
-          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>100红利</t>
+          <t>南方原油</t>
         </is>
       </c>
       <c r="B33" s="23" t="n">
-        <v>515180</v>
+        <v>501018</v>
       </c>
       <c r="C33" s="24" t="n">
-        <v>0.865</v>
+        <v>0.7171</v>
       </c>
       <c r="D33" s="25" t="n">
-        <v>3000</v>
+        <v>11249</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>2829</v>
+        <v>7379.34</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>234</v>
+        <v>-687.3099999999999</v>
       </c>
       <c r="G33" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I33" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J33" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K33" s="26" t="inlineStr">
@@ -2036,42 +2036,42 @@
     <row r="34">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B34" s="23" t="n">
-        <v>159920</v>
+        <v>510500</v>
       </c>
       <c r="C34" s="24" t="n">
-        <v>1.302</v>
+        <v>5.653</v>
       </c>
       <c r="D34" s="25" t="n">
-        <v>9600</v>
+        <v>12900</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>12950.4</v>
+        <v>73078.5</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>451.2</v>
+        <v>154.8</v>
       </c>
       <c r="G34" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I34" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J34" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K34" s="26" t="inlineStr">
@@ -2083,42 +2083,42 @@
     <row r="35">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B35" s="23" t="n">
-        <v>513520</v>
+        <v>512580</v>
       </c>
       <c r="C35" s="24" t="n">
-        <v>0.832</v>
+        <v>0.754</v>
       </c>
       <c r="D35" s="25" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>11352</v>
+        <v>2491.5</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>1368</v>
+        <v>3.3</v>
       </c>
       <c r="G35" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I35" s="26" t="inlineStr">
         <is>
-          <t>日经225</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J35" s="26" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K35" s="26" t="inlineStr">
@@ -2130,23 +2130,23 @@
     <row r="36">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B36" s="23" t="n">
-        <v>512580</v>
+        <v>512980</v>
       </c>
       <c r="C36" s="24" t="n">
-        <v>0.754</v>
+        <v>0.767</v>
       </c>
       <c r="D36" s="25" t="n">
         <v>3300</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2511.3</v>
+        <v>2696.1</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>23.1</v>
+        <v>165</v>
       </c>
       <c r="G36" s="26" t="inlineStr">
         <is>
@@ -2160,12 +2160,12 @@
       </c>
       <c r="I36" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J36" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K36" s="26" t="inlineStr">
@@ -2177,42 +2177,42 @@
     <row r="37">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="B37" s="23" t="n">
-        <v>512980</v>
+        <v>513520</v>
       </c>
       <c r="C37" s="24" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="D37" s="25" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2520.3</v>
+        <v>2940</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>15.5</v>
+        <v>1452</v>
       </c>
       <c r="G37" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="I37" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>日经225</t>
         </is>
       </c>
       <c r="J37" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K37" s="26" t="inlineStr">
@@ -2222,166 +2222,166 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="B38" s="28" t="n">
-        <v>510050</v>
-      </c>
-      <c r="C38" s="29" t="n">
-        <v>2.291</v>
-      </c>
-      <c r="D38" s="30" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E38" s="30" t="n">
-        <v>7427.7</v>
-      </c>
-      <c r="F38" s="30" t="n">
-        <v>1242</v>
-      </c>
-      <c r="G38" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H38" s="31" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I38" s="31" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="J38" s="31" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K38" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
+      <c r="A38" s="22" t="inlineStr">
+        <is>
+          <t>100红利</t>
+        </is>
+      </c>
+      <c r="B38" s="23" t="n">
+        <v>515180</v>
+      </c>
+      <c r="C38" s="24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D38" s="25" t="n">
+        <v>400</v>
+      </c>
+      <c r="E38" s="25" t="n">
+        <v>379.6</v>
+      </c>
+      <c r="F38" s="25" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="G38" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H38" s="26" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I38" s="26" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J38" s="26" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K38" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B39" s="28" t="n">
-        <v>510300</v>
-      </c>
-      <c r="C39" s="29" t="n">
-        <v>3.385</v>
-      </c>
-      <c r="D39" s="30" t="n">
-        <v>9100</v>
-      </c>
-      <c r="E39" s="30" t="n">
-        <v>34425.3</v>
-      </c>
-      <c r="F39" s="30" t="n">
-        <v>3621.8</v>
-      </c>
-      <c r="G39" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H39" s="31" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I39" s="31" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="J39" s="31" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="K39" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
+      <c r="A39" s="22" t="inlineStr">
+        <is>
+          <t>恒生ETF</t>
+        </is>
+      </c>
+      <c r="B39" s="23" t="n">
+        <v>159920</v>
+      </c>
+      <c r="C39" s="24" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="D39" s="25" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E39" s="25" t="n">
+        <v>4819.5</v>
+      </c>
+      <c r="F39" s="25" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="G39" s="26" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H39" s="26" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I39" s="26" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J39" s="26" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K39" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>500ETF</t>
-        </is>
-      </c>
-      <c r="B40" s="28" t="n">
-        <v>510500</v>
-      </c>
-      <c r="C40" s="29" t="n">
-        <v>5.581</v>
-      </c>
-      <c r="D40" s="30" t="n">
-        <v>37600</v>
-      </c>
-      <c r="E40" s="30" t="n">
-        <v>214432.8</v>
-      </c>
-      <c r="F40" s="30" t="n">
-        <v>4587.2</v>
-      </c>
-      <c r="G40" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H40" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I40" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J40" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K40" s="31" t="inlineStr">
-        <is>
-          <t>华泰证券</t>
+      <c r="A40" s="22" t="inlineStr">
+        <is>
+          <t>石油基金</t>
+        </is>
+      </c>
+      <c r="B40" s="23" t="n">
+        <v>160416</v>
+      </c>
+      <c r="C40" s="24" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="D40" s="25" t="n">
+        <v>13896</v>
+      </c>
+      <c r="E40" s="25" t="n">
+        <v>10727.71</v>
+      </c>
+      <c r="F40" s="25" t="n">
+        <v>2278.94</v>
+      </c>
+      <c r="G40" s="26" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H40" s="26" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I40" s="26" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J40" s="26" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K40" s="26" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>512580</v>
+        <v>510050</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>0.877</v>
+        <v>2.29</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>33800</v>
+        <v>2700</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>25721.8</v>
+        <v>7638.3</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>-3920.8</v>
+        <v>1455.3</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
@@ -2412,23 +2412,23 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>512880</v>
+        <v>510300</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>0.783</v>
+        <v>3.385</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>32700</v>
+        <v>9100</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>30868.8</v>
+        <v>35044.1</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>5264.7</v>
+        <v>4240.6</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2437,17 +2437,17 @@
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
@@ -2459,23 +2459,23 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>512980</v>
+        <v>510500</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>0.869</v>
+        <v>5.515</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>34100</v>
+        <v>22900</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>27723.3</v>
+        <v>129728.5</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>-1909.6</v>
+        <v>3435</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2484,17 +2484,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2506,42 +2506,42 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>518880</v>
+        <v>512580</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>2.269</v>
+        <v>0.889</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>2300</v>
+        <v>30500</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>8514.6</v>
+        <v>23027.5</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>3295.9</v>
+        <v>-4087</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2553,211 +2553,211 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>广发医药</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
+        <v>512880</v>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="D45" s="30" t="n">
+        <v>32700</v>
+      </c>
+      <c r="E45" s="30" t="n">
+        <v>30280.2</v>
+      </c>
+      <c r="F45" s="30" t="n">
+        <v>4676.1</v>
+      </c>
+      <c r="G45" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H45" s="31" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I45" s="31" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="J45" s="31" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K45" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>传媒ETF</t>
+        </is>
+      </c>
+      <c r="B46" s="28" t="n">
+        <v>512980</v>
+      </c>
+      <c r="C46" s="29" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="D46" s="30" t="n">
+        <v>31000</v>
+      </c>
+      <c r="E46" s="30" t="n">
+        <v>25327</v>
+      </c>
+      <c r="F46" s="30" t="n">
+        <v>-1767</v>
+      </c>
+      <c r="G46" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H46" s="31" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I46" s="31" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J46" s="31" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K46" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B47" s="28" t="n">
+        <v>518880</v>
+      </c>
+      <c r="C47" s="29" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="D47" s="30" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="30" t="n">
+        <v>8585.9</v>
+      </c>
+      <c r="F47" s="30" t="n">
+        <v>3367.2</v>
+      </c>
+      <c r="G47" s="31" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H47" s="31" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I47" s="31" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J47" s="31" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K47" s="31" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="inlineStr">
+        <is>
+          <t>医药</t>
+        </is>
+      </c>
+      <c r="B48" s="28" t="n">
         <v>159938</v>
       </c>
-      <c r="C45" s="29" t="n">
+      <c r="C48" s="29" t="n">
         <v>1.168</v>
       </c>
-      <c r="D45" s="30" t="n">
+      <c r="D48" s="30" t="n">
         <v>9600</v>
       </c>
-      <c r="E45" s="30" t="n">
-        <v>15456</v>
-      </c>
-      <c r="F45" s="30" t="n">
-        <v>4243.2</v>
-      </c>
-      <c r="G45" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H45" s="31" t="inlineStr">
+      <c r="E48" s="30" t="n">
+        <v>15302.4</v>
+      </c>
+      <c r="F48" s="30" t="n">
+        <v>4089.6</v>
+      </c>
+      <c r="G48" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H48" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I45" s="31" t="inlineStr">
+      <c r="I48" s="31" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J45" s="31" t="inlineStr">
+      <c r="J48" s="31" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K45" s="31" t="inlineStr">
+      <c r="K48" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="32" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B46" s="33" t="n">
-        <v>478</v>
-      </c>
-      <c r="C46" s="34" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D46" s="35" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E46" s="35" t="n">
-        <v>8485.91</v>
-      </c>
-      <c r="F46" s="35" t="n">
-        <v>481.86</v>
-      </c>
-      <c r="G46" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H46" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I46" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J46" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K46" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="32" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接A</t>
-        </is>
-      </c>
-      <c r="B47" s="33" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C47" s="34" t="n">
-        <v>0.5489000000000001</v>
-      </c>
-      <c r="D47" s="35" t="n">
-        <v>9722</v>
-      </c>
-      <c r="E47" s="35" t="n">
-        <v>5609.59</v>
-      </c>
-      <c r="F47" s="35" t="n">
-        <v>273.19</v>
-      </c>
-      <c r="G47" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H47" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I47" s="36" t="inlineStr">
-        <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-      <c r="J47" s="36" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="K47" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="32" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B48" s="33" t="n">
-        <v>968</v>
-      </c>
-      <c r="C48" s="34" t="n">
-        <v>0.9444</v>
-      </c>
-      <c r="D48" s="35" t="n">
-        <v>4943.96</v>
-      </c>
-      <c r="E48" s="35" t="n">
-        <v>5073.99</v>
-      </c>
-      <c r="F48" s="35" t="n">
-        <v>404.91</v>
-      </c>
-      <c r="G48" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H48" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I48" s="36" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J48" s="36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K48" s="36" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="32" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B49" s="33" t="n">
-        <v>1052</v>
+        <v>478</v>
       </c>
       <c r="C49" s="34" t="n">
-        <v>0.5423</v>
+        <v>1.9252</v>
       </c>
       <c r="D49" s="35" t="n">
-        <v>7379.54</v>
+        <v>4157.52</v>
       </c>
       <c r="E49" s="35" t="n">
-        <v>4338.43</v>
+        <v>8461.799999999999</v>
       </c>
       <c r="F49" s="35" t="n">
-        <v>336.51</v>
+        <v>457.74</v>
       </c>
       <c r="G49" s="36" t="inlineStr">
         <is>
@@ -2788,23 +2788,23 @@
     <row r="50">
       <c r="A50" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B50" s="33" t="n">
-        <v>100032</v>
+        <v>1064</v>
       </c>
       <c r="C50" s="34" t="n">
-        <v>0.9822</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D50" s="35" t="n">
-        <v>4074.72</v>
+        <v>9722</v>
       </c>
       <c r="E50" s="35" t="n">
-        <v>3895.43</v>
+        <v>5499.74</v>
       </c>
       <c r="F50" s="35" t="n">
-        <v>-106.76</v>
+        <v>163.33</v>
       </c>
       <c r="G50" s="36" t="inlineStr">
         <is>
@@ -2813,17 +2813,17 @@
       </c>
       <c r="H50" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I50" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J50" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K50" s="36" t="inlineStr">
@@ -2835,23 +2835,23 @@
     <row r="51">
       <c r="A51" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B51" s="33" t="n">
-        <v>4752</v>
+        <v>968</v>
       </c>
       <c r="C51" s="34" t="n">
-        <v>0.7329</v>
+        <v>0.9444</v>
       </c>
       <c r="D51" s="35" t="n">
-        <v>4550.55</v>
+        <v>4943.96</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>3729.63</v>
+        <v>5121.94</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>394.53</v>
+        <v>452.87</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2865,12 +2865,12 @@
       </c>
       <c r="I51" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J51" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K51" s="36" t="inlineStr">
@@ -2882,23 +2882,23 @@
     <row r="52">
       <c r="A52" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B52" s="33" t="n">
-        <v>1180</v>
+        <v>1052</v>
       </c>
       <c r="C52" s="34" t="n">
-        <v>0.8242</v>
+        <v>0.5423</v>
       </c>
       <c r="D52" s="35" t="n">
-        <v>809.28</v>
+        <v>7379.54</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>810.01</v>
+        <v>4270.54</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>143</v>
+        <v>268.62</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2907,17 +2907,17 @@
       </c>
       <c r="H52" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I52" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J52" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K52" s="36" t="inlineStr">
@@ -2929,23 +2929,23 @@
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>1469</v>
+        <v>100032</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>1.0907</v>
+        <v>0.9822</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>611.53</v>
+        <v>4074.72</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>613.4299999999999</v>
+        <v>3919.88</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>-53.57</v>
+        <v>-82.31</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2976,23 +2976,23 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>502010</v>
+        <v>4752</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.9853</v>
+        <v>0.7329</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>473.85</v>
+        <v>4550.55</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>486.36</v>
+        <v>3693.23</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>19.48</v>
+        <v>358.13</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3023,23 +3023,23 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>110026</v>
+        <v>1180</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>0</v>
+        <v>0.8242</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>0</v>
+        <v>809.28</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>0</v>
+        <v>795.12</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>0</v>
+        <v>128.11</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3048,17 +3048,17 @@
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3070,23 +3070,23 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>3765</v>
+        <v>1469</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>0</v>
+        <v>1.0907</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>0</v>
+        <v>611.53</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>0</v>
+        <v>624.0700000000001</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>0</v>
+        <v>-42.93</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3095,17 +3095,17 @@
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3117,42 +3117,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>614</v>
+        <v>502010</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>0.9648</v>
+        <v>0.9853</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>4147.87</v>
+        <v>473.85</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>4210.09</v>
+        <v>480.48</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>208.22</v>
+        <v>13.6</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3164,42 +3164,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>50025</v>
+        <v>110026</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>1.9457</v>
+        <v>0</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>342.8</v>
+        <v>0</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>765.85</v>
+        <v>0</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>98.86</v>
+        <v>0</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3211,42 +3211,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>71</v>
+        <v>3765</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>1.3485</v>
+        <v>0</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1483.88</v>
+        <v>0</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2036.92</v>
+        <v>0</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>35.91</v>
+        <v>0</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3258,42 +3258,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.1564</v>
+        <v>0.9648</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>576.8</v>
+        <v>4147.87</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>771.76</v>
+        <v>4367.71</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>104.75</v>
+        <v>365.84</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3305,42 +3305,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>博时标普500ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>162411</v>
+        <v>50025</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>0.3775</v>
+        <v>1.9457</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>5299.96</v>
+        <v>342.8</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>1324.99</v>
+        <v>790.39</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-675.74</v>
+        <v>123.41</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>标普500</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3352,42 +3352,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华安标普石油指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>160416</v>
+        <v>71</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>0.6498</v>
+        <v>1.3485</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>1026.5</v>
+        <v>1483.88</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>793.48</v>
+        <v>2087.37</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>126.46</v>
+        <v>86.36</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3399,42 +3399,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>南方原油A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>501018</v>
+        <v>164906</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>0.7171</v>
+        <v>1.1564</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>930.1900000000001</v>
+        <v>576.8</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>759.04</v>
+        <v>782.72</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>92</v>
+        <v>115.71</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3446,164 +3446,164 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>478</v>
+        <v>162411</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>1.9178</v>
+        <v>0.3775</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>1564.33</v>
+        <v>5299.96</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>3192.95</v>
+        <v>1356.79</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>192.88</v>
+        <v>-643.95</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>华安标普石油指数</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>100032</v>
+        <v>160416</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.973</v>
+        <v>0.6498</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>3083.26</v>
+        <v>1026.5</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>2947.6</v>
+        <v>792.46</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>-52.42</v>
+        <v>125.44</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>南方原油A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1052</v>
+        <v>501018</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.5517</v>
+        <v>0</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>1812.7</v>
+        <v>0</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>1065.69</v>
+        <v>0</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>65.62</v>
+        <v>0</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>1051</v>
+        <v>478</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>0.9441000000000001</v>
+        <v>1.9178</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>1059.17</v>
+        <v>1564.33</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>1006</v>
+        <v>3183.88</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>6.04</v>
+        <v>183.81</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3612,17 +3612,17 @@
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3634,23 +3634,23 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>1469</v>
+        <v>100032</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>1.0907</v>
+        <v>0.973</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>916.83</v>
+        <v>3083.26</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>919.67</v>
+        <v>2966.1</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-80.31</v>
+        <v>-33.92</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3659,17 +3659,17 @@
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3681,23 +3681,23 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>822.11</v>
+        <v>1812.7</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>673.8</v>
+        <v>1049.01</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>3.78</v>
+        <v>48.94</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="H69" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I69" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J69" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K69" s="36" t="inlineStr">
@@ -3728,42 +3728,42 @@
     <row r="70">
       <c r="A70" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B70" s="33" t="n">
-        <v>71</v>
+        <v>1051</v>
       </c>
       <c r="C70" s="34" t="n">
-        <v>1.4046</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D70" s="35" t="n">
-        <v>1423.86</v>
+        <v>1059.17</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>1954.53</v>
+        <v>1032.06</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>-45.42</v>
+        <v>32.09</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H70" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I70" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J70" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K70" s="36" t="inlineStr">
@@ -3775,42 +3775,42 @@
     <row r="71">
       <c r="A71" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B71" s="33" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C71" s="34" t="n">
-        <v>1.1113</v>
+        <v>1.0907</v>
       </c>
       <c r="D71" s="35" t="n">
-        <v>899.8200000000001</v>
+        <v>916.83</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>1203.96</v>
+        <v>935.63</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>203.99</v>
+        <v>-64.36</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H71" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I71" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J71" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K71" s="36" t="inlineStr">
@@ -3822,42 +3822,42 @@
     <row r="72">
       <c r="A72" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B72" s="33" t="n">
-        <v>614</v>
+        <v>4752</v>
       </c>
       <c r="C72" s="34" t="n">
-        <v>0.9766</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D72" s="35" t="n">
-        <v>2047.94</v>
+        <v>822.11</v>
       </c>
       <c r="E72" s="35" t="n">
-        <v>2078.66</v>
+        <v>667.22</v>
       </c>
       <c r="F72" s="35" t="n">
-        <v>78.64</v>
+        <v>-2.8</v>
       </c>
       <c r="G72" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H72" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I72" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J72" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K72" s="36" t="inlineStr">
@@ -3869,42 +3869,42 @@
     <row r="73">
       <c r="A73" s="32" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B73" s="33" t="n">
-        <v>50025</v>
+        <v>71</v>
       </c>
       <c r="C73" s="34" t="n">
-        <v>2.2822</v>
+        <v>1.4046</v>
       </c>
       <c r="D73" s="35" t="n">
-        <v>438.17</v>
+        <v>1423.86</v>
       </c>
       <c r="E73" s="35" t="n">
-        <v>978.92</v>
+        <v>2002.94</v>
       </c>
       <c r="F73" s="35" t="n">
-        <v>-21.08</v>
+        <v>2.99</v>
       </c>
       <c r="G73" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H73" s="36" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I73" s="36" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J73" s="36" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K73" s="36" t="inlineStr">
@@ -3916,42 +3916,42 @@
     <row r="74">
       <c r="A74" s="32" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B74" s="33" t="n">
-        <v>162411</v>
+        <v>164906</v>
       </c>
       <c r="C74" s="34" t="n">
-        <v>0.3879</v>
+        <v>1.1113</v>
       </c>
       <c r="D74" s="35" t="n">
-        <v>7734.05</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E74" s="35" t="n">
-        <v>1933.51</v>
+        <v>1221.06</v>
       </c>
       <c r="F74" s="35" t="n">
-        <v>-1066.53</v>
+        <v>221.09</v>
       </c>
       <c r="G74" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H74" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I74" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J74" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K74" s="36" t="inlineStr">
@@ -3963,42 +3963,42 @@
     <row r="75">
       <c r="A75" s="32" t="inlineStr">
         <is>
-          <t>南方原油A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B75" s="33" t="n">
-        <v>501018</v>
+        <v>614</v>
       </c>
       <c r="C75" s="34" t="n">
-        <v>0.7171</v>
+        <v>0.9766</v>
       </c>
       <c r="D75" s="35" t="n">
-        <v>1394.58</v>
+        <v>2047.94</v>
       </c>
       <c r="E75" s="35" t="n">
-        <v>1137.98</v>
+        <v>2156.48</v>
       </c>
       <c r="F75" s="35" t="n">
-        <v>137.92</v>
+        <v>156.46</v>
       </c>
       <c r="G75" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H75" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I75" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J75" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K75" s="36" t="inlineStr">
@@ -4010,42 +4010,42 @@
     <row r="76">
       <c r="A76" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>博时标普500ETF联接A</t>
         </is>
       </c>
       <c r="B76" s="33" t="n">
-        <v>216</v>
+        <v>50025</v>
       </c>
       <c r="C76" s="34" t="n">
-        <v>1.0902</v>
+        <v>2.2822</v>
       </c>
       <c r="D76" s="35" t="n">
-        <v>917.23</v>
+        <v>438.17</v>
       </c>
       <c r="E76" s="35" t="n">
-        <v>1268.71</v>
+        <v>1010.29</v>
       </c>
       <c r="F76" s="35" t="n">
-        <v>268.75</v>
+        <v>10.3</v>
       </c>
       <c r="G76" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H76" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I76" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>标普500</t>
         </is>
       </c>
       <c r="J76" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K76" s="36" t="inlineStr">
@@ -4057,230 +4057,230 @@
     <row r="77">
       <c r="A77" s="32" t="inlineStr">
         <is>
+          <t>华宝标普石油指数A</t>
+        </is>
+      </c>
+      <c r="B77" s="33" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C77" s="34" t="n">
+        <v>0.3879</v>
+      </c>
+      <c r="D77" s="35" t="n">
+        <v>7734.05</v>
+      </c>
+      <c r="E77" s="35" t="n">
+        <v>1979.92</v>
+      </c>
+      <c r="F77" s="35" t="n">
+        <v>-1020.12</v>
+      </c>
+      <c r="G77" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H77" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I77" s="36" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J77" s="36" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K77" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="32" t="inlineStr">
+        <is>
+          <t>南方原油A</t>
+        </is>
+      </c>
+      <c r="B78" s="33" t="n">
+        <v>501018</v>
+      </c>
+      <c r="C78" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H78" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I78" s="36" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J78" s="36" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K78" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="32" t="inlineStr">
+        <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B79" s="33" t="n">
+        <v>216</v>
+      </c>
+      <c r="C79" s="34" t="n">
+        <v>1.0902</v>
+      </c>
+      <c r="D79" s="35" t="n">
+        <v>917.23</v>
+      </c>
+      <c r="E79" s="35" t="n">
+        <v>1268.25</v>
+      </c>
+      <c r="F79" s="35" t="n">
+        <v>268.29</v>
+      </c>
+      <c r="G79" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H79" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I79" s="36" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J79" s="36" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K79" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="32" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B77" s="33" t="n">
+      <c r="B80" s="33" t="n">
         <v>110027</v>
       </c>
-      <c r="C77" s="34" t="n">
+      <c r="C80" s="34" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D77" s="35" t="n">
+      <c r="D80" s="35" t="n">
         <v>595.47</v>
       </c>
-      <c r="E77" s="35" t="n">
-        <v>1056.36</v>
-      </c>
-      <c r="F77" s="35" t="n">
-        <v>56.39</v>
-      </c>
-      <c r="G77" s="36" t="inlineStr">
+      <c r="E80" s="35" t="n">
+        <v>1067.68</v>
+      </c>
+      <c r="F80" s="35" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="G80" s="36" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H77" s="36" t="inlineStr">
+      <c r="H80" s="36" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I77" s="36" t="inlineStr">
+      <c r="I80" s="36" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J77" s="36" t="inlineStr">
+      <c r="J80" s="36" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K77" s="36" t="inlineStr">
+      <c r="K80" s="36" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="37" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强A</t>
-        </is>
-      </c>
-      <c r="B78" s="38" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C78" s="39" t="n">
-        <v>0.9169</v>
-      </c>
-      <c r="D78" s="40" t="n">
-        <v>72337.78999999999</v>
-      </c>
-      <c r="E78" s="40" t="n">
-        <v>69154.92999999999</v>
-      </c>
-      <c r="F78" s="40" t="n">
-        <v>2828.41</v>
-      </c>
-      <c r="G78" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H78" s="41" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I78" s="41" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J78" s="41" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K78" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="37" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B79" s="38" t="n">
-        <v>968</v>
-      </c>
-      <c r="C79" s="39" t="n">
-        <v>0.9167</v>
-      </c>
-      <c r="D79" s="40" t="n">
-        <v>63490</v>
-      </c>
-      <c r="E79" s="40" t="n">
-        <v>65159.79</v>
-      </c>
-      <c r="F79" s="40" t="n">
-        <v>6958.5</v>
-      </c>
-      <c r="G79" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H79" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I79" s="41" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J79" s="41" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K79" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="37" t="inlineStr">
-        <is>
-          <t>华安德国30(DAX)联接</t>
-        </is>
-      </c>
-      <c r="B80" s="38" t="n">
-        <v>614</v>
-      </c>
-      <c r="C80" s="39" t="n">
-        <v>1.0042</v>
-      </c>
-      <c r="D80" s="40" t="n">
-        <v>41627.14</v>
-      </c>
-      <c r="E80" s="40" t="n">
-        <v>42251.55</v>
-      </c>
-      <c r="F80" s="40" t="n">
-        <v>449.57</v>
-      </c>
-      <c r="G80" s="41" t="inlineStr">
-        <is>
-          <t>海外成熟</t>
-        </is>
-      </c>
-      <c r="H80" s="41" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="I80" s="41" t="inlineStr">
-        <is>
-          <t>德国30</t>
-        </is>
-      </c>
-      <c r="J80" s="41" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="K80" s="41" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="37" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B81" s="38" t="n">
-        <v>340001</v>
+        <v>100032</v>
       </c>
       <c r="C81" s="39" t="n">
-        <v>0.9886</v>
+        <v>0.9169</v>
       </c>
       <c r="D81" s="40" t="n">
-        <v>32370.29</v>
+        <v>72337.78999999999</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>39329.9</v>
+        <v>69588.95</v>
       </c>
       <c r="F81" s="40" t="n">
-        <v>7328.63</v>
+        <v>3262.43</v>
       </c>
       <c r="G81" s="41" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H81" s="41" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I81" s="41" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J81" s="41" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K81" s="41" t="inlineStr">
@@ -4292,23 +4292,23 @@
     <row r="82">
       <c r="A82" s="37" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B82" s="38" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C82" s="39" t="n">
-        <v>0.7451</v>
+        <v>0.9167</v>
       </c>
       <c r="D82" s="40" t="n">
-        <v>41014.88</v>
+        <v>63490</v>
       </c>
       <c r="E82" s="40" t="n">
-        <v>41051.79</v>
+        <v>65775.64</v>
       </c>
       <c r="F82" s="40" t="n">
-        <v>10491.61</v>
+        <v>7574.36</v>
       </c>
       <c r="G82" s="41" t="inlineStr">
         <is>
@@ -4322,12 +4322,12 @@
       </c>
       <c r="I82" s="41" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J82" s="41" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K82" s="41" t="inlineStr">
@@ -4339,42 +4339,42 @@
     <row r="83">
       <c r="A83" s="37" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B83" s="38" t="n">
-        <v>110027</v>
+        <v>614</v>
       </c>
       <c r="C83" s="39" t="n">
-        <v>1.5931</v>
+        <v>1.0042</v>
       </c>
       <c r="D83" s="40" t="n">
-        <v>20086.63</v>
+        <v>41627.14</v>
       </c>
       <c r="E83" s="40" t="n">
-        <v>35633.68</v>
+        <v>43833.38</v>
       </c>
       <c r="F83" s="40" t="n">
-        <v>3633.67</v>
+        <v>2031.4</v>
       </c>
       <c r="G83" s="41" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H83" s="41" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I83" s="41" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J83" s="41" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K83" s="41" t="inlineStr">
@@ -4386,23 +4386,23 @@
     <row r="84">
       <c r="A84" s="37" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B84" s="38" t="n">
-        <v>1469</v>
+        <v>1180</v>
       </c>
       <c r="C84" s="39" t="n">
-        <v>0.9471000000000001</v>
+        <v>0.7451</v>
       </c>
       <c r="D84" s="40" t="n">
-        <v>27031.68</v>
+        <v>41014.88</v>
       </c>
       <c r="E84" s="40" t="n">
-        <v>27115.48</v>
+        <v>40297.12</v>
       </c>
       <c r="F84" s="40" t="n">
-        <v>1513.77</v>
+        <v>9736.93</v>
       </c>
       <c r="G84" s="41" t="inlineStr">
         <is>
@@ -4416,12 +4416,12 @@
       </c>
       <c r="I84" s="41" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J84" s="41" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K84" s="41" t="inlineStr">
@@ -4433,42 +4433,42 @@
     <row r="85">
       <c r="A85" s="37" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B85" s="38" t="n">
-        <v>100038</v>
+        <v>340001</v>
       </c>
       <c r="C85" s="39" t="n">
-        <v>1.3129</v>
+        <v>0.9886</v>
       </c>
       <c r="D85" s="40" t="n">
-        <v>14624.61</v>
+        <v>32370.29</v>
       </c>
       <c r="E85" s="40" t="n">
-        <v>23223.88</v>
+        <v>39715.11</v>
       </c>
       <c r="F85" s="40" t="n">
-        <v>4023.23</v>
+        <v>7713.84</v>
       </c>
       <c r="G85" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H85" s="41" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I85" s="41" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J85" s="41" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K85" s="41" t="inlineStr">
@@ -4480,42 +4480,42 @@
     <row r="86">
       <c r="A86" s="37" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B86" s="38" t="n">
-        <v>71</v>
+        <v>110027</v>
       </c>
       <c r="C86" s="39" t="n">
-        <v>1.3654</v>
+        <v>1.5931</v>
       </c>
       <c r="D86" s="40" t="n">
-        <v>16626.05</v>
+        <v>20086.63</v>
       </c>
       <c r="E86" s="40" t="n">
-        <v>22822.58</v>
+        <v>36015.33</v>
       </c>
       <c r="F86" s="40" t="n">
-        <v>121.37</v>
+        <v>4015.32</v>
       </c>
       <c r="G86" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H86" s="41" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I86" s="41" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J86" s="41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K86" s="41" t="inlineStr">
@@ -4527,42 +4527,42 @@
     <row r="87">
       <c r="A87" s="37" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B87" s="38" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C87" s="39" t="n">
-        <v>1.1444</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="D87" s="40" t="n">
-        <v>16778.47</v>
+        <v>27031.68</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>22449.59</v>
+        <v>27585.83</v>
       </c>
       <c r="F87" s="40" t="n">
-        <v>3248.31</v>
+        <v>1984.13</v>
       </c>
       <c r="G87" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H87" s="41" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I87" s="41" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J87" s="41" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K87" s="41" t="inlineStr">
@@ -4574,23 +4574,23 @@
     <row r="88">
       <c r="A88" s="37" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B88" s="38" t="n">
-        <v>161017</v>
+        <v>100038</v>
       </c>
       <c r="C88" s="39" t="n">
-        <v>1.3432</v>
+        <v>1.3129</v>
       </c>
       <c r="D88" s="40" t="n">
-        <v>9529.809999999999</v>
+        <v>14624.61</v>
       </c>
       <c r="E88" s="40" t="n">
-        <v>16762.94</v>
+        <v>23721.12</v>
       </c>
       <c r="F88" s="40" t="n">
-        <v>3962.49</v>
+        <v>4520.47</v>
       </c>
       <c r="G88" s="41" t="inlineStr">
         <is>
@@ -4599,17 +4599,17 @@
       </c>
       <c r="H88" s="41" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I88" s="41" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J88" s="41" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K88" s="41" t="inlineStr">
@@ -4621,42 +4621,42 @@
     <row r="89">
       <c r="A89" s="37" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B89" s="38" t="n">
-        <v>1064</v>
+        <v>71</v>
       </c>
       <c r="C89" s="39" t="n">
-        <v>0.4775</v>
+        <v>1.3654</v>
       </c>
       <c r="D89" s="40" t="n">
-        <v>13403.92</v>
+        <v>16626.05</v>
       </c>
       <c r="E89" s="40" t="n">
-        <v>7734.06</v>
+        <v>23387.86</v>
       </c>
       <c r="F89" s="40" t="n">
-        <v>1333.69</v>
+        <v>686.66</v>
       </c>
       <c r="G89" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H89" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I89" s="41" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J89" s="41" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K89" s="41" t="inlineStr">
@@ -4668,42 +4668,42 @@
     <row r="90">
       <c r="A90" s="37" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B90" s="38" t="n">
-        <v>50025</v>
+        <v>164906</v>
       </c>
       <c r="C90" s="39" t="n">
-        <v>1.9458</v>
+        <v>1.1444</v>
       </c>
       <c r="D90" s="40" t="n">
-        <v>3289.25</v>
+        <v>16778.47</v>
       </c>
       <c r="E90" s="40" t="n">
-        <v>7348.51</v>
+        <v>22768.38</v>
       </c>
       <c r="F90" s="40" t="n">
-        <v>948.29</v>
+        <v>3567.1</v>
       </c>
       <c r="G90" s="41" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H90" s="41" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I90" s="41" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J90" s="41" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K90" s="41" t="inlineStr">
@@ -4715,42 +4715,42 @@
     <row r="91">
       <c r="A91" s="37" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B91" s="38" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C91" s="39" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D91" s="40" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E91" s="40" t="n">
-        <v>9316.860000000001</v>
+        <v>16629.52</v>
       </c>
       <c r="F91" s="40" t="n">
-        <v>-9883.33</v>
+        <v>3829.08</v>
       </c>
       <c r="G91" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H91" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I91" s="41" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J91" s="41" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K91" s="41" t="inlineStr">
@@ -4762,42 +4762,42 @@
     <row r="92">
       <c r="A92" s="37" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B92" s="38" t="n">
-        <v>478</v>
+        <v>162411</v>
       </c>
       <c r="C92" s="39" t="n">
-        <v>1.9397</v>
+        <v>0.5152</v>
       </c>
       <c r="D92" s="40" t="n">
-        <v>3299.64</v>
+        <v>37267.45</v>
       </c>
       <c r="E92" s="40" t="n">
-        <v>6734.9</v>
+        <v>9540.469999999999</v>
       </c>
       <c r="F92" s="40" t="n">
-        <v>334.58</v>
+        <v>-9659.719999999999</v>
       </c>
       <c r="G92" s="41" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H92" s="41" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I92" s="41" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J92" s="41" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K92" s="41" t="inlineStr">
@@ -4809,277 +4809,277 @@
     <row r="93">
       <c r="A93" s="37" t="inlineStr">
         <is>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B93" s="38" t="n">
+        <v>50025</v>
+      </c>
+      <c r="C93" s="39" t="n">
+        <v>1.9458</v>
+      </c>
+      <c r="D93" s="40" t="n">
+        <v>3289.25</v>
+      </c>
+      <c r="E93" s="40" t="n">
+        <v>7584.02</v>
+      </c>
+      <c r="F93" s="40" t="n">
+        <v>1183.8</v>
+      </c>
+      <c r="G93" s="41" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H93" s="41" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="I93" s="41" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+      <c r="J93" s="41" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K93" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="37" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接A</t>
+        </is>
+      </c>
+      <c r="B94" s="38" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C94" s="39" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="D94" s="40" t="n">
+        <v>13403.92</v>
+      </c>
+      <c r="E94" s="40" t="n">
+        <v>7582.6</v>
+      </c>
+      <c r="F94" s="40" t="n">
+        <v>1182.23</v>
+      </c>
+      <c r="G94" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H94" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I94" s="41" t="inlineStr">
+        <is>
+          <t>中证环保</t>
+        </is>
+      </c>
+      <c r="J94" s="41" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K94" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="37" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B95" s="38" t="n">
+        <v>478</v>
+      </c>
+      <c r="C95" s="39" t="n">
+        <v>1.9397</v>
+      </c>
+      <c r="D95" s="40" t="n">
+        <v>3299.64</v>
+      </c>
+      <c r="E95" s="40" t="n">
+        <v>6715.76</v>
+      </c>
+      <c r="F95" s="40" t="n">
+        <v>315.45</v>
+      </c>
+      <c r="G95" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H95" s="41" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I95" s="41" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J95" s="41" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K95" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="37" t="inlineStr">
+        <is>
           <t>南方原油A</t>
         </is>
       </c>
-      <c r="B93" s="38" t="n">
+      <c r="B96" s="38" t="n">
         <v>501018</v>
       </c>
-      <c r="C93" s="39" t="n">
+      <c r="C96" s="39" t="n">
         <v>0.7171</v>
       </c>
-      <c r="D93" s="40" t="n">
-        <v>8925.34</v>
-      </c>
-      <c r="E93" s="40" t="n">
-        <v>7283.08</v>
-      </c>
-      <c r="F93" s="40" t="n">
-        <v>882.72</v>
-      </c>
-      <c r="G93" s="41" t="inlineStr">
+      <c r="D96" s="40" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E96" s="40" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F96" s="40" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G96" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H93" s="41" t="inlineStr">
+      <c r="H96" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I93" s="41" t="inlineStr">
+      <c r="I96" s="41" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="J93" s="41" t="inlineStr">
+      <c r="J96" s="41" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="K93" s="41" t="inlineStr">
+      <c r="K96" s="41" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>货币基金综合</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B97" s="3" t="n">
         <v>999999</v>
       </c>
-      <c r="C94" s="4" t="n">
+      <c r="C97" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D94" s="5" t="n">
+      <c r="D97" s="5" t="n">
         <v>1001.99</v>
       </c>
-      <c r="E94" s="5" t="n">
+      <c r="E97" s="5" t="n">
         <v>1001.99</v>
       </c>
-      <c r="F94" s="5" t="n">
+      <c r="F97" s="5" t="n">
         <v>1.99</v>
       </c>
-      <c r="G94" s="6" t="inlineStr">
+      <c r="G97" s="6" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="H97" s="6" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr">
+      <c r="I97" s="6" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J94" s="6" t="inlineStr">
+      <c r="J97" s="6" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K94" s="6" t="inlineStr">
+      <c r="K97" s="6" t="inlineStr">
         <is>
           <t>现金账户父母</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="7" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B95" s="8" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C95" s="9" t="n">
-        <v>1.4157</v>
-      </c>
-      <c r="D95" s="10" t="n">
-        <v>1619.55</v>
-      </c>
-      <c r="E95" s="10" t="n">
-        <v>2132.95</v>
-      </c>
-      <c r="F95" s="10" t="n">
-        <v>-159.85</v>
-      </c>
-      <c r="G95" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H95" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I95" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J95" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K95" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="7" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="B96" s="8" t="n">
-        <v>90010</v>
-      </c>
-      <c r="C96" s="9" t="n">
-        <v>1.652</v>
-      </c>
-      <c r="D96" s="10" t="n">
-        <v>1351.19</v>
-      </c>
-      <c r="E96" s="10" t="n">
-        <v>2083.53</v>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>-148.63</v>
-      </c>
-      <c r="G96" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H96" s="11" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I96" s="11" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J96" s="11" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K96" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="7" t="inlineStr">
-        <is>
-          <t>景顺长城中证500低波动</t>
-        </is>
-      </c>
-      <c r="B97" s="8" t="n">
-        <v>3318</v>
-      </c>
-      <c r="C97" s="9" t="n">
-        <v>0.9407</v>
-      </c>
-      <c r="D97" s="10" t="n">
-        <v>1797.43</v>
-      </c>
-      <c r="E97" s="10" t="n">
-        <v>1762.2</v>
-      </c>
-      <c r="F97" s="10" t="n">
-        <v>71.36</v>
-      </c>
-      <c r="G97" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H97" s="11" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I97" s="11" t="inlineStr">
-        <is>
-          <t>500低波动</t>
-        </is>
-      </c>
-      <c r="J97" s="11" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="K97" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>501021</v>
+        <v>519671</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>1.3404</v>
+        <v>1.4148</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>1051.5</v>
+        <v>1635.58</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>1430.67</v>
+        <v>2194.95</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>21.24</v>
+        <v>-119.07</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H98" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
@@ -5091,23 +5091,23 @@
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B99" s="8" t="n">
-        <v>530015</v>
+        <v>90010</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>2.1382</v>
+        <v>1.6511</v>
       </c>
       <c r="D99" s="10" t="n">
-        <v>485.77</v>
+        <v>1363.67</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>1012.78</v>
+        <v>2117.78</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>-25.89</v>
+        <v>-133.78</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5116,17 +5116,17 @@
       </c>
       <c r="H99" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I99" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J99" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K99" s="11" t="inlineStr">
@@ -5138,23 +5138,23 @@
     <row r="100">
       <c r="A100" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B100" s="8" t="n">
-        <v>70023</v>
+        <v>3318</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>1.7992</v>
+        <v>0.9407</v>
       </c>
       <c r="D100" s="10" t="n">
-        <v>528.99</v>
+        <v>1797.43</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>956.41</v>
+        <v>1711.33</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>4.66</v>
+        <v>20.49</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5163,17 +5163,17 @@
       </c>
       <c r="H100" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I100" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J100" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K100" s="11" t="inlineStr">
@@ -5185,42 +5185,42 @@
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B101" s="8" t="n">
-        <v>1594</v>
+        <v>501021</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>1.1669</v>
+        <v>1.3404</v>
       </c>
       <c r="D101" s="10" t="n">
-        <v>668.84</v>
+        <v>1051.5</v>
       </c>
       <c r="E101" s="10" t="n">
-        <v>725.6900000000001</v>
+        <v>1474.41</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>-54.78</v>
+        <v>64.98</v>
       </c>
       <c r="G101" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H101" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I101" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J101" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K101" s="11" t="inlineStr">
@@ -5232,42 +5232,42 @@
     <row r="102">
       <c r="A102" s="7" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B102" s="8" t="n">
-        <v>6327</v>
+        <v>530015</v>
       </c>
       <c r="C102" s="9" t="n">
-        <v>1.1573</v>
+        <v>2.1382</v>
       </c>
       <c r="D102" s="10" t="n">
-        <v>396.12</v>
+        <v>485.77</v>
       </c>
       <c r="E102" s="10" t="n">
-        <v>446.98</v>
+        <v>1022.3</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>-11.45</v>
+        <v>-16.37</v>
       </c>
       <c r="G102" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H102" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I102" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J102" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K102" s="11" t="inlineStr">
@@ -5279,23 +5279,23 @@
     <row r="103">
       <c r="A103" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B103" s="8" t="n">
-        <v>968</v>
+        <v>70023</v>
       </c>
       <c r="C103" s="9" t="n">
-        <v>0.9588</v>
+        <v>1.7992</v>
       </c>
       <c r="D103" s="10" t="n">
-        <v>426.97</v>
+        <v>528.99</v>
       </c>
       <c r="E103" s="10" t="n">
-        <v>438.2</v>
+        <v>962.13</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>28.82</v>
+        <v>10.37</v>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
@@ -5304,17 +5304,17 @@
       </c>
       <c r="H103" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I103" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J103" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K103" s="11" t="inlineStr">
@@ -5326,42 +5326,42 @@
     <row r="104">
       <c r="A104" s="7" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B104" s="8" t="n">
-        <v>164906</v>
+        <v>1594</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>1.2161</v>
+        <v>1.1647</v>
       </c>
       <c r="D104" s="10" t="n">
-        <v>254.52</v>
+        <v>687.24</v>
       </c>
       <c r="E104" s="10" t="n">
-        <v>340.55</v>
+        <v>772.87</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>31.03</v>
+        <v>-27.56</v>
       </c>
       <c r="G104" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H104" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I104" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J104" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K104" s="11" t="inlineStr">
@@ -5373,42 +5373,42 @@
     <row r="105">
       <c r="A105" s="7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B105" s="8" t="n">
-        <v>40046</v>
+        <v>6327</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>2.2919</v>
+        <v>1.1571</v>
       </c>
       <c r="D105" s="10" t="n">
-        <v>111.78</v>
+        <v>400.5</v>
       </c>
       <c r="E105" s="10" t="n">
-        <v>304.15</v>
+        <v>458.65</v>
       </c>
       <c r="F105" s="10" t="n">
-        <v>47.96</v>
+        <v>-4.77</v>
       </c>
       <c r="G105" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H105" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I105" s="11" t="inlineStr">
         <is>
-          <t>纳斯达克</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J105" s="11" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K105" s="11" t="inlineStr">
@@ -5420,23 +5420,23 @@
     <row r="106">
       <c r="A106" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B106" s="8" t="n">
-        <v>501050</v>
+        <v>968</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>1.284</v>
+        <v>0.9588</v>
       </c>
       <c r="D106" s="10" t="n">
-        <v>142.1</v>
+        <v>426.97</v>
       </c>
       <c r="E106" s="10" t="n">
-        <v>178.48</v>
+        <v>442.34</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>-3.98</v>
+        <v>32.96</v>
       </c>
       <c r="G106" s="11" t="inlineStr">
         <is>
@@ -5445,17 +5445,17 @@
       </c>
       <c r="H106" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I106" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J106" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K106" s="11" t="inlineStr">
@@ -5467,42 +5467,42 @@
     <row r="107">
       <c r="A107" s="7" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B107" s="8" t="n">
-        <v>161725</v>
+        <v>164906</v>
       </c>
       <c r="C107" s="9" t="n">
-        <v>0.8286</v>
+        <v>1.2208</v>
       </c>
       <c r="D107" s="10" t="n">
-        <v>140.72</v>
+        <v>263.41</v>
       </c>
       <c r="E107" s="10" t="n">
-        <v>130.73</v>
+        <v>357.45</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>14.13</v>
+        <v>35.88</v>
       </c>
       <c r="G107" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H107" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I107" s="11" t="inlineStr">
         <is>
-          <t>全指消费</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J107" s="11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K107" s="11" t="inlineStr">
@@ -5514,23 +5514,23 @@
     <row r="108">
       <c r="A108" s="7" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>华安纳斯达克100指数</t>
         </is>
       </c>
       <c r="B108" s="8" t="n">
-        <v>161128</v>
+        <v>40046</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>1.6918</v>
+        <v>2.2919</v>
       </c>
       <c r="D108" s="10" t="n">
-        <v>69.44</v>
+        <v>111.78</v>
       </c>
       <c r="E108" s="10" t="n">
-        <v>120.92</v>
+        <v>308.51</v>
       </c>
       <c r="F108" s="10" t="n">
-        <v>3.44</v>
+        <v>52.32</v>
       </c>
       <c r="G108" s="11" t="inlineStr">
         <is>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="I108" s="11" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>纳斯达克</t>
         </is>
       </c>
       <c r="J108" s="11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K108" s="11" t="inlineStr">
@@ -5561,23 +5561,23 @@
     <row r="109">
       <c r="A109" s="7" t="inlineStr">
         <is>
-          <t>易方达上证50指数A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B109" s="8" t="n">
-        <v>110003</v>
+        <v>501050</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>1.7017</v>
+        <v>1.284</v>
       </c>
       <c r="D109" s="10" t="n">
-        <v>51.56</v>
+        <v>142.1</v>
       </c>
       <c r="E109" s="10" t="n">
-        <v>88.33</v>
+        <v>182.03</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>0.59</v>
+        <v>-0.43</v>
       </c>
       <c r="G109" s="11" t="inlineStr">
         <is>
@@ -5591,12 +5591,12 @@
       </c>
       <c r="I109" s="11" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J109" s="11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K109" s="11" t="inlineStr">
@@ -5608,23 +5608,23 @@
     <row r="110">
       <c r="A110" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="B110" s="8" t="n">
-        <v>310398</v>
+        <v>161725</v>
       </c>
       <c r="C110" s="9" t="n">
-        <v>1.4372</v>
+        <v>0.8286</v>
       </c>
       <c r="D110" s="10" t="n">
-        <v>25.8</v>
+        <v>140.72</v>
       </c>
       <c r="E110" s="10" t="n">
-        <v>32.12</v>
+        <v>136.6</v>
       </c>
       <c r="F110" s="10" t="n">
-        <v>-4.96</v>
+        <v>20</v>
       </c>
       <c r="G110" s="11" t="inlineStr">
         <is>
@@ -5633,17 +5633,17 @@
       </c>
       <c r="H110" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I110" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J110" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K110" s="11" t="inlineStr">
@@ -5655,42 +5655,42 @@
     <row r="111">
       <c r="A111" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B111" s="8" t="n">
-        <v>1550</v>
+        <v>161128</v>
       </c>
       <c r="C111" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.6918</v>
       </c>
       <c r="D111" s="10" t="n">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="E111" s="10" t="n">
-        <v>0</v>
+        <v>122.83</v>
       </c>
       <c r="F111" s="10" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="G111" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H111" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I111" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J111" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K111" s="11" t="inlineStr">
@@ -5702,42 +5702,42 @@
     <row r="112">
       <c r="A112" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>易方达上证50指数A</t>
         </is>
       </c>
       <c r="B112" s="8" t="n">
-        <v>2086</v>
+        <v>110003</v>
       </c>
       <c r="C112" s="9" t="n">
-        <v>1.2257</v>
+        <v>1.7066</v>
       </c>
       <c r="D112" s="10" t="n">
-        <v>0</v>
+        <v>63.74</v>
       </c>
       <c r="E112" s="10" t="n">
-        <v>0</v>
+        <v>112.85</v>
       </c>
       <c r="F112" s="10" t="n">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="G112" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H112" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I112" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J112" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K112" s="11" t="inlineStr">
@@ -5749,23 +5749,23 @@
     <row r="113">
       <c r="A113" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B113" s="8" t="n">
-        <v>501029</v>
+        <v>310398</v>
       </c>
       <c r="C113" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.4372</v>
       </c>
       <c r="D113" s="10" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E113" s="10" t="n">
-        <v>0</v>
+        <v>32.72</v>
       </c>
       <c r="F113" s="10" t="n">
-        <v>-0</v>
+        <v>-4.36</v>
       </c>
       <c r="G113" s="11" t="inlineStr">
         <is>
@@ -5774,17 +5774,17 @@
       </c>
       <c r="H113" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I113" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J113" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K113" s="11" t="inlineStr">
@@ -5796,211 +5796,211 @@
     <row r="114">
       <c r="A114" s="7" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>富国中证消费50ETF联接A</t>
         </is>
       </c>
       <c r="B114" s="8" t="n">
-        <v>2147</v>
+        <v>8975</v>
       </c>
       <c r="C114" s="9" t="n">
-        <v>1.2174</v>
+        <v>1.0427</v>
       </c>
       <c r="D114" s="10" t="n">
-        <v>1588.12</v>
+        <v>16.17</v>
       </c>
       <c r="E114" s="10" t="n">
-        <v>1944.65</v>
+        <v>17.49</v>
       </c>
       <c r="F114" s="10" t="n">
-        <v>11.28</v>
+        <v>0.63</v>
       </c>
       <c r="G114" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H114" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I114" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J114" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K114" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B115" s="8" t="n">
-        <v>6060</v>
+        <v>1550</v>
       </c>
       <c r="C115" s="9" t="n">
-        <v>1.1024</v>
+        <v>0.6708</v>
       </c>
       <c r="D115" s="10" t="n">
-        <v>876.9</v>
+        <v>0</v>
       </c>
       <c r="E115" s="10" t="n">
-        <v>959.42</v>
+        <v>0</v>
       </c>
       <c r="F115" s="10" t="n">
-        <v>-7.28</v>
+        <v>0</v>
       </c>
       <c r="G115" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H115" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I115" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J115" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K115" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B116" s="8" t="n">
-        <v>7749</v>
+        <v>2086</v>
       </c>
       <c r="C116" s="9" t="n">
-        <v>1.0941</v>
+        <v>1.2257</v>
       </c>
       <c r="D116" s="10" t="n">
-        <v>883.55</v>
+        <v>0</v>
       </c>
       <c r="E116" s="10" t="n">
-        <v>958.21</v>
+        <v>0</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>-8.48</v>
+        <v>0</v>
       </c>
       <c r="G116" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H116" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I116" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J116" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K116" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B117" s="8" t="n">
-        <v>1338</v>
+        <v>501029</v>
       </c>
       <c r="C117" s="9" t="n">
-        <v>1.3602</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D117" s="10" t="n">
-        <v>355.34</v>
+        <v>0</v>
       </c>
       <c r="E117" s="10" t="n">
-        <v>483.87</v>
+        <v>0</v>
       </c>
       <c r="F117" s="10" t="n">
-        <v>0.53</v>
+        <v>-0</v>
       </c>
       <c r="G117" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H117" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I117" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J117" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K117" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365母</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="7" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>长安鑫益增强混合C</t>
         </is>
       </c>
       <c r="B118" s="8" t="n">
-        <v>485011</v>
+        <v>2147</v>
       </c>
       <c r="C118" s="9" t="n">
-        <v>1.586</v>
+        <v>1.2174</v>
       </c>
       <c r="D118" s="10" t="n">
-        <v>304.75</v>
+        <v>1588.12</v>
       </c>
       <c r="E118" s="10" t="n">
-        <v>481.2</v>
+        <v>1946.4</v>
       </c>
       <c r="F118" s="10" t="n">
-        <v>-2.13</v>
+        <v>13.02</v>
       </c>
       <c r="G118" s="11" t="inlineStr">
         <is>
@@ -6031,371 +6031,371 @@
     <row r="119">
       <c r="A119" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>民生加银鹏程混合C</t>
         </is>
       </c>
       <c r="B119" s="8" t="n">
-        <v>519671</v>
+        <v>7749</v>
       </c>
       <c r="C119" s="9" t="n">
-        <v>1.4235</v>
+        <v>1.0941</v>
       </c>
       <c r="D119" s="10" t="n">
-        <v>1487.05</v>
+        <v>883.55</v>
       </c>
       <c r="E119" s="10" t="n">
-        <v>1958.44</v>
+        <v>964.13</v>
       </c>
       <c r="F119" s="10" t="n">
-        <v>-158.37</v>
+        <v>-2.56</v>
       </c>
       <c r="G119" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H119" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I119" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J119" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K119" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B120" s="8" t="n">
-        <v>90010</v>
+        <v>6060</v>
       </c>
       <c r="C120" s="9" t="n">
-        <v>1.6508</v>
+        <v>1.1024</v>
       </c>
       <c r="D120" s="10" t="n">
-        <v>1210.44</v>
+        <v>876.9</v>
       </c>
       <c r="E120" s="10" t="n">
-        <v>1866.5</v>
+        <v>961.78</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>-131.7</v>
+        <v>-4.91</v>
       </c>
       <c r="G120" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H120" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I120" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J120" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K120" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>安信稳健增值混合C</t>
         </is>
       </c>
       <c r="B121" s="8" t="n">
-        <v>3318</v>
+        <v>1338</v>
       </c>
       <c r="C121" s="9" t="n">
-        <v>0.9401</v>
+        <v>1.3602</v>
       </c>
       <c r="D121" s="10" t="n">
-        <v>1697.75</v>
+        <v>355.34</v>
       </c>
       <c r="E121" s="10" t="n">
-        <v>1664.47</v>
+        <v>486</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>68.42</v>
+        <v>2.67</v>
       </c>
       <c r="G121" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H121" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I121" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J121" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K121" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B122" s="8" t="n">
-        <v>501021</v>
+        <v>485011</v>
       </c>
       <c r="C122" s="9" t="n">
-        <v>1.3463</v>
+        <v>1.586</v>
       </c>
       <c r="D122" s="10" t="n">
-        <v>977.05</v>
+        <v>304.75</v>
       </c>
       <c r="E122" s="10" t="n">
-        <v>1329.37</v>
+        <v>483.94</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>13.97</v>
+        <v>0.61</v>
       </c>
       <c r="G122" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H122" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I122" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J122" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K122" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B123" s="8" t="n">
-        <v>530015</v>
+        <v>2086</v>
       </c>
       <c r="C123" s="9" t="n">
-        <v>2.1246</v>
+        <v>1.2567</v>
       </c>
       <c r="D123" s="10" t="n">
-        <v>456.18</v>
+        <v>0</v>
       </c>
       <c r="E123" s="10" t="n">
-        <v>951.09</v>
+        <v>0</v>
       </c>
       <c r="F123" s="10" t="n">
-        <v>-18.11</v>
+        <v>0</v>
       </c>
       <c r="G123" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H123" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I123" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J123" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K123" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝90母</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>易方达安瑞短债C</t>
         </is>
       </c>
       <c r="B124" s="8" t="n">
-        <v>70023</v>
+        <v>6320</v>
       </c>
       <c r="C124" s="9" t="n">
-        <v>1.7966</v>
+        <v>1.0047</v>
       </c>
       <c r="D124" s="10" t="n">
-        <v>492.58</v>
+        <v>0</v>
       </c>
       <c r="E124" s="10" t="n">
-        <v>890.58</v>
+        <v>0</v>
       </c>
       <c r="F124" s="10" t="n">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="G124" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H124" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I124" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J124" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K124" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝90母</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>新华纯债添利债券发起C</t>
         </is>
       </c>
       <c r="B125" s="8" t="n">
-        <v>1594</v>
+        <v>519153</v>
       </c>
       <c r="C125" s="9" t="n">
-        <v>1.1799</v>
+        <v>1.1711</v>
       </c>
       <c r="D125" s="10" t="n">
-        <v>519.77</v>
+        <v>0</v>
       </c>
       <c r="E125" s="10" t="n">
-        <v>563.95</v>
+        <v>0</v>
       </c>
       <c r="F125" s="10" t="n">
-        <v>-49.33</v>
+        <v>0</v>
       </c>
       <c r="G125" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H125" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I125" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J125" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K125" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝90母</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B126" s="8" t="n">
-        <v>6327</v>
+        <v>519671</v>
       </c>
       <c r="C126" s="9" t="n">
-        <v>1.1638</v>
+        <v>1.4213</v>
       </c>
       <c r="D126" s="10" t="n">
-        <v>362.5</v>
+        <v>1519.12</v>
       </c>
       <c r="E126" s="10" t="n">
-        <v>409.05</v>
+        <v>2038.66</v>
       </c>
       <c r="F126" s="10" t="n">
-        <v>-12.83</v>
+        <v>-120.47</v>
       </c>
       <c r="G126" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H126" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I126" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J126" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K126" s="11" t="inlineStr">
@@ -6407,23 +6407,23 @@
     <row r="127">
       <c r="A127" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B127" s="8" t="n">
-        <v>968</v>
+        <v>90010</v>
       </c>
       <c r="C127" s="9" t="n">
-        <v>0.9599</v>
+        <v>1.6488</v>
       </c>
       <c r="D127" s="10" t="n">
-        <v>390.82</v>
+        <v>1235.39</v>
       </c>
       <c r="E127" s="10" t="n">
-        <v>401.1</v>
+        <v>1918.56</v>
       </c>
       <c r="F127" s="10" t="n">
-        <v>25.95</v>
+        <v>-118.35</v>
       </c>
       <c r="G127" s="11" t="inlineStr">
         <is>
@@ -6432,17 +6432,17 @@
       </c>
       <c r="H127" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I127" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J127" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K127" s="11" t="inlineStr">
@@ -6454,42 +6454,42 @@
     <row r="128">
       <c r="A128" s="7" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B128" s="8" t="n">
-        <v>164906</v>
+        <v>3318</v>
       </c>
       <c r="C128" s="9" t="n">
-        <v>1.2329</v>
+        <v>0.9401</v>
       </c>
       <c r="D128" s="10" t="n">
-        <v>109.81</v>
+        <v>1697.75</v>
       </c>
       <c r="E128" s="10" t="n">
-        <v>146.93</v>
+        <v>1616.43</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>11.54</v>
+        <v>20.37</v>
       </c>
       <c r="G128" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H128" s="11" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I128" s="11" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J128" s="11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K128" s="11" t="inlineStr">
@@ -6501,42 +6501,42 @@
     <row r="129">
       <c r="A129" s="7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B129" s="8" t="n">
-        <v>40046</v>
+        <v>501021</v>
       </c>
       <c r="C129" s="9" t="n">
-        <v>2.2753</v>
+        <v>1.3463</v>
       </c>
       <c r="D129" s="10" t="n">
-        <v>38.03</v>
+        <v>977.05</v>
       </c>
       <c r="E129" s="10" t="n">
-        <v>103.48</v>
+        <v>1370.02</v>
       </c>
       <c r="F129" s="10" t="n">
-        <v>16.95</v>
+        <v>54.62</v>
       </c>
       <c r="G129" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H129" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I129" s="11" t="inlineStr">
         <is>
-          <t>纳斯达克</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J129" s="11" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K129" s="11" t="inlineStr">
@@ -6548,42 +6548,42 @@
     <row r="130">
       <c r="A130" s="7" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B130" s="8" t="n">
-        <v>161128</v>
+        <v>530015</v>
       </c>
       <c r="C130" s="9" t="n">
-        <v>1.7335</v>
+        <v>2.1246</v>
       </c>
       <c r="D130" s="10" t="n">
-        <v>53.35</v>
+        <v>456.18</v>
       </c>
       <c r="E130" s="10" t="n">
-        <v>92.90000000000001</v>
+        <v>960.03</v>
       </c>
       <c r="F130" s="10" t="n">
-        <v>0.42</v>
+        <v>-9.17</v>
       </c>
       <c r="G130" s="11" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H130" s="11" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I130" s="11" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J130" s="11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K130" s="11" t="inlineStr">
@@ -6595,23 +6595,23 @@
     <row r="131">
       <c r="A131" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B131" s="8" t="n">
-        <v>501050</v>
+        <v>70023</v>
       </c>
       <c r="C131" s="9" t="n">
-        <v>1.2891</v>
+        <v>1.7966</v>
       </c>
       <c r="D131" s="10" t="n">
-        <v>62.09</v>
+        <v>492.58</v>
       </c>
       <c r="E131" s="10" t="n">
-        <v>77.98999999999999</v>
+        <v>895.9</v>
       </c>
       <c r="F131" s="10" t="n">
-        <v>-2.06</v>
+        <v>10.94</v>
       </c>
       <c r="G131" s="11" t="inlineStr">
         <is>
@@ -6625,12 +6625,12 @@
       </c>
       <c r="I131" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J131" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K131" s="11" t="inlineStr">
@@ -6642,23 +6642,23 @@
     <row r="132">
       <c r="A132" s="7" t="inlineStr">
         <is>
-          <t>易方达上证50指数A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B132" s="8" t="n">
-        <v>110003</v>
+        <v>1594</v>
       </c>
       <c r="C132" s="9" t="n">
-        <v>1.7012</v>
+        <v>1.1738</v>
       </c>
       <c r="D132" s="10" t="n">
-        <v>25.7</v>
+        <v>556.5700000000001</v>
       </c>
       <c r="E132" s="10" t="n">
-        <v>44.03</v>
+        <v>625.92</v>
       </c>
       <c r="F132" s="10" t="n">
-        <v>0.31</v>
+        <v>-27.38</v>
       </c>
       <c r="G132" s="11" t="inlineStr">
         <is>
@@ -6667,17 +6667,17 @@
       </c>
       <c r="H132" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I132" s="11" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J132" s="11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K132" s="11" t="inlineStr">
@@ -6689,42 +6689,42 @@
     <row r="133">
       <c r="A133" s="7" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B133" s="8" t="n">
-        <v>161725</v>
+        <v>6327</v>
       </c>
       <c r="C133" s="9" t="n">
-        <v>0.8711</v>
+        <v>1.1633</v>
       </c>
       <c r="D133" s="10" t="n">
-        <v>38.25</v>
+        <v>371.26</v>
       </c>
       <c r="E133" s="10" t="n">
-        <v>35.53</v>
+        <v>425.17</v>
       </c>
       <c r="F133" s="10" t="n">
-        <v>2.21</v>
+        <v>-6.72</v>
       </c>
       <c r="G133" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H133" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I133" s="11" t="inlineStr">
         <is>
-          <t>全指消费</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J133" s="11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K133" s="11" t="inlineStr">
@@ -6736,23 +6736,23 @@
     <row r="134">
       <c r="A134" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B134" s="8" t="n">
-        <v>310398</v>
+        <v>968</v>
       </c>
       <c r="C134" s="9" t="n">
-        <v>1.4372</v>
+        <v>0.9599</v>
       </c>
       <c r="D134" s="10" t="n">
-        <v>25.8</v>
+        <v>390.82</v>
       </c>
       <c r="E134" s="10" t="n">
-        <v>32.12</v>
+        <v>404.89</v>
       </c>
       <c r="F134" s="10" t="n">
-        <v>-4.96</v>
+        <v>29.74</v>
       </c>
       <c r="G134" s="11" t="inlineStr">
         <is>
@@ -6761,17 +6761,17 @@
       </c>
       <c r="H134" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I134" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J134" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K134" s="11" t="inlineStr">
@@ -6783,42 +6783,42 @@
     <row r="135">
       <c r="A135" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B135" s="8" t="n">
-        <v>1550</v>
+        <v>164906</v>
       </c>
       <c r="C135" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2502</v>
       </c>
       <c r="D135" s="10" t="n">
-        <v>0</v>
+        <v>127.58</v>
       </c>
       <c r="E135" s="10" t="n">
-        <v>0</v>
+        <v>173.13</v>
       </c>
       <c r="F135" s="10" t="n">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="G135" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H135" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I135" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J135" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K135" s="11" t="inlineStr">
@@ -6830,42 +6830,42 @@
     <row r="136">
       <c r="A136" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>华安纳斯达克100指数</t>
         </is>
       </c>
       <c r="B136" s="8" t="n">
-        <v>2086</v>
+        <v>40046</v>
       </c>
       <c r="C136" s="9" t="n">
-        <v>1.2258</v>
+        <v>2.2753</v>
       </c>
       <c r="D136" s="10" t="n">
-        <v>0</v>
+        <v>38.03</v>
       </c>
       <c r="E136" s="10" t="n">
-        <v>0</v>
+        <v>104.96</v>
       </c>
       <c r="F136" s="10" t="n">
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="G136" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H136" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I136" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>纳斯达克</t>
         </is>
       </c>
       <c r="J136" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K136" s="11" t="inlineStr">
@@ -6877,42 +6877,42 @@
     <row r="137">
       <c r="A137" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B137" s="8" t="n">
-        <v>501029</v>
+        <v>161128</v>
       </c>
       <c r="C137" s="9" t="n">
-        <v>0.9829</v>
+        <v>1.7335</v>
       </c>
       <c r="D137" s="10" t="n">
-        <v>0</v>
+        <v>53.35</v>
       </c>
       <c r="E137" s="10" t="n">
-        <v>0</v>
+        <v>94.37</v>
       </c>
       <c r="F137" s="10" t="n">
-        <v>-0</v>
+        <v>1.88</v>
       </c>
       <c r="G137" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H137" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I137" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J137" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K137" s="11" t="inlineStr">
@@ -6924,1010 +6924,1010 @@
     <row r="138">
       <c r="A138" s="7" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>易方达上证50指数A</t>
         </is>
       </c>
       <c r="B138" s="8" t="n">
-        <v>2147</v>
+        <v>110003</v>
       </c>
       <c r="C138" s="9" t="n">
-        <v>1.2153</v>
+        <v>1.7139</v>
       </c>
       <c r="D138" s="10" t="n">
-        <v>204702.46</v>
+        <v>50.05</v>
       </c>
       <c r="E138" s="10" t="n">
-        <v>250658.16</v>
+        <v>88.61</v>
       </c>
       <c r="F138" s="10" t="n">
-        <v>1883.26</v>
+        <v>2.83</v>
       </c>
       <c r="G138" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H138" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I138" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J138" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K138" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B139" s="8" t="n">
-        <v>7749</v>
+        <v>501050</v>
       </c>
       <c r="C139" s="9" t="n">
-        <v>1.0896</v>
+        <v>1.2891</v>
       </c>
       <c r="D139" s="10" t="n">
-        <v>155193.38</v>
+        <v>62.09</v>
       </c>
       <c r="E139" s="10" t="n">
-        <v>168307.22</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="F139" s="10" t="n">
-        <v>-791.49</v>
+        <v>-0.5</v>
       </c>
       <c r="G139" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H139" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I139" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J139" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K139" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="B140" s="8" t="n">
-        <v>485011</v>
+        <v>161725</v>
       </c>
       <c r="C140" s="9" t="n">
-        <v>1.5758</v>
+        <v>0.8711</v>
       </c>
       <c r="D140" s="10" t="n">
-        <v>53807.75</v>
+        <v>38.25</v>
       </c>
       <c r="E140" s="10" t="n">
-        <v>84962.44</v>
+        <v>37.13</v>
       </c>
       <c r="F140" s="10" t="n">
-        <v>172.18</v>
+        <v>3.81</v>
       </c>
       <c r="G140" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H140" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I140" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J140" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K140" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>富国中证消费50ETF联接A</t>
         </is>
       </c>
       <c r="B141" s="8" t="n">
-        <v>1338</v>
+        <v>8975</v>
       </c>
       <c r="C141" s="9" t="n">
-        <v>1.3555</v>
+        <v>1.043</v>
       </c>
       <c r="D141" s="10" t="n">
-        <v>61822.59</v>
+        <v>32.34</v>
       </c>
       <c r="E141" s="10" t="n">
-        <v>84183.82000000001</v>
+        <v>34.99</v>
       </c>
       <c r="F141" s="10" t="n">
-        <v>383.3</v>
+        <v>1.25</v>
       </c>
       <c r="G141" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H141" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I141" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="J141" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K141" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B142" s="8" t="n">
-        <v>6060</v>
+        <v>310398</v>
       </c>
       <c r="C142" s="9" t="n">
-        <v>1.0967</v>
+        <v>1.4372</v>
       </c>
       <c r="D142" s="10" t="n">
-        <v>76710.81</v>
+        <v>25.8</v>
       </c>
       <c r="E142" s="10" t="n">
-        <v>83929.3</v>
+        <v>32.72</v>
       </c>
       <c r="F142" s="10" t="n">
-        <v>-199.45</v>
+        <v>-4.36</v>
       </c>
       <c r="G142" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H142" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I142" s="11" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J142" s="11" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K142" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B143" s="8" t="n">
-        <v>6585</v>
+        <v>1550</v>
       </c>
       <c r="C143" s="9" t="n">
-        <v>2.2231</v>
+        <v>0.6708</v>
       </c>
       <c r="D143" s="10" t="n">
-        <v>37702.16</v>
+        <v>0</v>
       </c>
       <c r="E143" s="10" t="n">
-        <v>83853.37</v>
+        <v>0</v>
       </c>
       <c r="F143" s="10" t="n">
-        <v>37.7</v>
+        <v>0</v>
       </c>
       <c r="G143" s="11" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H143" s="11" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I143" s="11" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J143" s="11" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K143" s="11" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="inlineStr">
         <is>
+          <t>大成景安短融债券E</t>
+        </is>
+      </c>
+      <c r="B144" s="8" t="n">
+        <v>2086</v>
+      </c>
+      <c r="C144" s="9" t="n">
+        <v>1.2258</v>
+      </c>
+      <c r="D144" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="11" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H144" s="11" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I144" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J144" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K144" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="inlineStr">
+        <is>
+          <t>华宝红利基金</t>
+        </is>
+      </c>
+      <c r="B145" s="8" t="n">
+        <v>501029</v>
+      </c>
+      <c r="C145" s="9" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="D145" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G145" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H145" s="11" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I145" s="11" t="inlineStr">
+        <is>
+          <t>标普红利</t>
+        </is>
+      </c>
+      <c r="J145" s="11" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K145" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="inlineStr">
+        <is>
+          <t>长安鑫益增强混合C</t>
+        </is>
+      </c>
+      <c r="B146" s="8" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C146" s="9" t="n">
+        <v>1.2153</v>
+      </c>
+      <c r="D146" s="10" t="n">
+        <v>204702.46</v>
+      </c>
+      <c r="E146" s="10" t="n">
+        <v>250883.33</v>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>2108.44</v>
+      </c>
+      <c r="G146" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H146" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I146" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J146" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K146" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="inlineStr">
+        <is>
+          <t>民生加银鹏程混合C</t>
+        </is>
+      </c>
+      <c r="B147" s="8" t="n">
+        <v>7749</v>
+      </c>
+      <c r="C147" s="9" t="n">
+        <v>1.0896</v>
+      </c>
+      <c r="D147" s="10" t="n">
+        <v>155193.38</v>
+      </c>
+      <c r="E147" s="10" t="n">
+        <v>169347.02</v>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>248.31</v>
+      </c>
+      <c r="G147" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H147" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I147" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J147" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K147" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="inlineStr">
+        <is>
+          <t>工银双利债券B</t>
+        </is>
+      </c>
+      <c r="B148" s="8" t="n">
+        <v>485011</v>
+      </c>
+      <c r="C148" s="9" t="n">
+        <v>1.5758</v>
+      </c>
+      <c r="D148" s="10" t="n">
+        <v>53807.75</v>
+      </c>
+      <c r="E148" s="10" t="n">
+        <v>85446.71000000001</v>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>656.45</v>
+      </c>
+      <c r="G148" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H148" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I148" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J148" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K148" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="inlineStr">
+        <is>
+          <t>安信稳健增值混合C</t>
+        </is>
+      </c>
+      <c r="B149" s="8" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C149" s="9" t="n">
+        <v>1.3555</v>
+      </c>
+      <c r="D149" s="10" t="n">
+        <v>61822.59</v>
+      </c>
+      <c r="E149" s="10" t="n">
+        <v>84554.75999999999</v>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>754.24</v>
+      </c>
+      <c r="G149" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H149" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I149" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J149" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K149" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="B150" s="8" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C150" s="9" t="n">
+        <v>2.2231</v>
+      </c>
+      <c r="D150" s="10" t="n">
+        <v>37702.16</v>
+      </c>
+      <c r="E150" s="10" t="n">
+        <v>84513.16</v>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>697.49</v>
+      </c>
+      <c r="G150" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H150" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I150" s="11" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="J150" s="11" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K150" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="inlineStr">
+        <is>
           <t>广发趋势优选混合C</t>
         </is>
       </c>
-      <c r="B144" s="8" t="n">
+      <c r="B151" s="8" t="n">
         <v>8127</v>
       </c>
-      <c r="C144" s="9" t="n">
+      <c r="C151" s="9" t="n">
         <v>1.5932</v>
       </c>
-      <c r="D144" s="10" t="n">
+      <c r="D151" s="10" t="n">
         <v>52379.09</v>
       </c>
-      <c r="E144" s="10" t="n">
-        <v>83790.83</v>
-      </c>
-      <c r="F144" s="10" t="n">
-        <v>340.46</v>
-      </c>
-      <c r="G144" s="11" t="inlineStr">
+      <c r="E151" s="10" t="n">
+        <v>84178.44</v>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>728.0700000000001</v>
+      </c>
+      <c r="G151" s="11" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H144" s="11" t="inlineStr">
+      <c r="H151" s="11" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I144" s="11" t="inlineStr">
+      <c r="I151" s="11" t="inlineStr">
         <is>
           <t>偏股</t>
         </is>
       </c>
-      <c r="J144" s="11" t="inlineStr">
+      <c r="J151" s="11" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="K144" s="11" t="inlineStr">
+      <c r="K151" s="11" t="inlineStr">
         <is>
           <t>钉钉宝365父</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="37" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B145" s="38" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C145" s="39" t="n">
-        <v>1.0451</v>
-      </c>
-      <c r="D145" s="40" t="n">
-        <v>9368.450000000001</v>
-      </c>
-      <c r="E145" s="40" t="n">
-        <v>10893.63</v>
-      </c>
-      <c r="F145" s="40" t="n">
-        <v>1102.67</v>
-      </c>
-      <c r="G145" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H145" s="41" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I145" s="41" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J145" s="41" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K145" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="37" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强A</t>
-        </is>
-      </c>
-      <c r="B146" s="38" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C146" s="39" t="n">
-        <v>0.9137</v>
-      </c>
-      <c r="D146" s="40" t="n">
-        <v>10068.96</v>
-      </c>
-      <c r="E146" s="40" t="n">
-        <v>9625.93</v>
-      </c>
-      <c r="F146" s="40" t="n">
-        <v>425.92</v>
-      </c>
-      <c r="G146" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H146" s="41" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I146" s="41" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J146" s="41" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K146" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="37" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B147" s="38" t="n">
-        <v>968</v>
-      </c>
-      <c r="C147" s="39" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D147" s="40" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E147" s="40" t="n">
-        <v>6256.54</v>
-      </c>
-      <c r="F147" s="40" t="n">
-        <v>1056.47</v>
-      </c>
-      <c r="G147" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H147" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I147" s="41" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J147" s="41" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K147" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="37" t="inlineStr">
-        <is>
-          <t>广发医药卫生联接A</t>
-        </is>
-      </c>
-      <c r="B148" s="38" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C148" s="39" t="n">
-        <v>0.6927</v>
-      </c>
-      <c r="D148" s="40" t="n">
-        <v>6187.76</v>
-      </c>
-      <c r="E148" s="40" t="n">
-        <v>6193.33</v>
-      </c>
-      <c r="F148" s="40" t="n">
-        <v>1907.07</v>
-      </c>
-      <c r="G148" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H148" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I148" s="41" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J148" s="41" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K148" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="37" t="inlineStr">
-        <is>
-          <t>富国沪深300指数增强</t>
-        </is>
-      </c>
-      <c r="B149" s="38" t="n">
-        <v>100038</v>
-      </c>
-      <c r="C149" s="39" t="n">
-        <v>1.3043</v>
-      </c>
-      <c r="D149" s="40" t="n">
-        <v>2760.12</v>
-      </c>
-      <c r="E149" s="40" t="n">
-        <v>4383.07</v>
-      </c>
-      <c r="F149" s="40" t="n">
-        <v>783.05</v>
-      </c>
-      <c r="G149" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H149" s="41" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I149" s="41" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="J149" s="41" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="K149" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="37" t="inlineStr">
-        <is>
-          <t>易方达安心回报债券A</t>
-        </is>
-      </c>
-      <c r="B150" s="38" t="n">
-        <v>110027</v>
-      </c>
-      <c r="C150" s="39" t="n">
-        <v>1.6102</v>
-      </c>
-      <c r="D150" s="40" t="n">
-        <v>1981.84</v>
-      </c>
-      <c r="E150" s="40" t="n">
-        <v>3515.78</v>
-      </c>
-      <c r="F150" s="40" t="n">
-        <v>324.63</v>
-      </c>
-      <c r="G150" s="41" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="7" t="inlineStr">
+        <is>
+          <t>鹏扬泓利债券C</t>
+        </is>
+      </c>
+      <c r="B152" s="8" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C152" s="9" t="n">
+        <v>1.0967</v>
+      </c>
+      <c r="D152" s="10" t="n">
+        <v>76710.81</v>
+      </c>
+      <c r="E152" s="10" t="n">
+        <v>84136.42</v>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G152" s="11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H152" s="11" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I152" s="11" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J152" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K152" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="inlineStr">
+        <is>
+          <t>新华纯债添利债券发起B</t>
+        </is>
+      </c>
+      <c r="B153" s="8" t="n">
+        <v>9104</v>
+      </c>
+      <c r="C153" s="9" t="n">
+        <v>1.0039</v>
+      </c>
+      <c r="D153" s="10" t="n">
+        <v>3187.87</v>
+      </c>
+      <c r="E153" s="10" t="n">
+        <v>3201.9</v>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G153" s="11" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H150" s="41" t="inlineStr">
+      <c r="H153" s="11" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I150" s="41" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J150" s="41" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K150" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="37" t="inlineStr">
-        <is>
-          <t>富国中证500指数(LOF)</t>
-        </is>
-      </c>
-      <c r="B151" s="38" t="n">
-        <v>161017</v>
-      </c>
-      <c r="C151" s="39" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="D151" s="40" t="n">
-        <v>2046.97</v>
-      </c>
-      <c r="E151" s="40" t="n">
-        <v>3600.62</v>
-      </c>
-      <c r="F151" s="40" t="n">
-        <v>888.38</v>
-      </c>
-      <c r="G151" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H151" s="41" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I151" s="41" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J151" s="41" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K151" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="37" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接A</t>
-        </is>
-      </c>
-      <c r="B152" s="38" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C152" s="39" t="n">
-        <v>0.5379</v>
-      </c>
-      <c r="D152" s="40" t="n">
-        <v>5949.77</v>
-      </c>
-      <c r="E152" s="40" t="n">
-        <v>3433.02</v>
-      </c>
-      <c r="F152" s="40" t="n">
-        <v>232.64</v>
-      </c>
-      <c r="G152" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H152" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I152" s="41" t="inlineStr">
-        <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-      <c r="J152" s="41" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="K152" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="37" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF联接A</t>
-        </is>
-      </c>
-      <c r="B153" s="38" t="n">
-        <v>4752</v>
-      </c>
-      <c r="C153" s="39" t="n">
-        <v>0.7084</v>
-      </c>
-      <c r="D153" s="40" t="n">
-        <v>3988.79</v>
-      </c>
-      <c r="E153" s="40" t="n">
-        <v>3269.21</v>
-      </c>
-      <c r="F153" s="40" t="n">
-        <v>443.55</v>
-      </c>
-      <c r="G153" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H153" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I153" s="41" t="inlineStr">
-        <is>
-          <t>中证传媒</t>
-        </is>
-      </c>
-      <c r="J153" s="41" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="K153" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="I153" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J153" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K153" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝90父</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="37" t="inlineStr">
-        <is>
-          <t>华安德国30(DAX)联接</t>
-        </is>
-      </c>
-      <c r="B154" s="38" t="n">
-        <v>614</v>
-      </c>
-      <c r="C154" s="39" t="n">
-        <v>1.0254</v>
-      </c>
-      <c r="D154" s="40" t="n">
-        <v>2730.84</v>
-      </c>
-      <c r="E154" s="40" t="n">
-        <v>2771.8</v>
-      </c>
-      <c r="F154" s="40" t="n">
-        <v>-28.4</v>
-      </c>
-      <c r="G154" s="41" t="inlineStr">
-        <is>
-          <t>海外成熟</t>
-        </is>
-      </c>
-      <c r="H154" s="41" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="I154" s="41" t="inlineStr">
-        <is>
-          <t>德国30</t>
-        </is>
-      </c>
-      <c r="J154" s="41" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="K154" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="A154" s="7" t="inlineStr">
+        <is>
+          <t>大成景安短融债券E</t>
+        </is>
+      </c>
+      <c r="B154" s="8" t="n">
+        <v>2086</v>
+      </c>
+      <c r="C154" s="9" t="n">
+        <v>1.2785</v>
+      </c>
+      <c r="D154" s="10" t="n">
+        <v>1251.5</v>
+      </c>
+      <c r="E154" s="10" t="n">
+        <v>1602.17</v>
+      </c>
+      <c r="F154" s="10" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G154" s="11" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H154" s="11" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I154" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J154" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K154" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝90父</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="37" t="inlineStr">
-        <is>
-          <t>兴全可转债混合</t>
-        </is>
-      </c>
-      <c r="B155" s="38" t="n">
-        <v>340001</v>
-      </c>
-      <c r="C155" s="39" t="n">
-        <v>0.9816</v>
-      </c>
-      <c r="D155" s="40" t="n">
-        <v>1630.08</v>
-      </c>
-      <c r="E155" s="40" t="n">
-        <v>1980.55</v>
-      </c>
-      <c r="F155" s="40" t="n">
-        <v>380.46</v>
-      </c>
-      <c r="G155" s="41" t="inlineStr">
+      <c r="A155" s="7" t="inlineStr">
+        <is>
+          <t>易方达安瑞短债C</t>
+        </is>
+      </c>
+      <c r="B155" s="8" t="n">
+        <v>6320</v>
+      </c>
+      <c r="C155" s="9" t="n">
+        <v>1.0109</v>
+      </c>
+      <c r="D155" s="10" t="n">
+        <v>1582.82</v>
+      </c>
+      <c r="E155" s="10" t="n">
+        <v>1601.02</v>
+      </c>
+      <c r="F155" s="10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G155" s="11" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H155" s="41" t="inlineStr">
+      <c r="H155" s="11" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I155" s="41" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J155" s="41" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K155" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="I155" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J155" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K155" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝90父</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="37" t="inlineStr">
-        <is>
-          <t>交银中证海外中国互联网指数</t>
-        </is>
-      </c>
-      <c r="B156" s="38" t="n">
-        <v>164906</v>
-      </c>
-      <c r="C156" s="39" t="n">
-        <v>1.137</v>
-      </c>
-      <c r="D156" s="40" t="n">
-        <v>1407.29</v>
-      </c>
-      <c r="E156" s="40" t="n">
-        <v>1882.95</v>
-      </c>
-      <c r="F156" s="40" t="n">
-        <v>282.87</v>
-      </c>
-      <c r="G156" s="41" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H156" s="41" t="inlineStr">
-        <is>
-          <t>海外互联</t>
-        </is>
-      </c>
-      <c r="I156" s="41" t="inlineStr">
-        <is>
-          <t>海外互联网</t>
-        </is>
-      </c>
-      <c r="J156" s="41" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="K156" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="A156" s="7" t="inlineStr">
+        <is>
+          <t>国金及第中短债</t>
+        </is>
+      </c>
+      <c r="B156" s="8" t="n">
+        <v>3002</v>
+      </c>
+      <c r="C156" s="9" t="n">
+        <v>1.0392</v>
+      </c>
+      <c r="D156" s="10" t="n">
+        <v>769.47</v>
+      </c>
+      <c r="E156" s="10" t="n">
+        <v>801.4</v>
+      </c>
+      <c r="F156" s="10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G156" s="11" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H156" s="11" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I156" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J156" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K156" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝90父</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="37" t="inlineStr">
-        <is>
-          <t>广发中证全指金融地产联接A</t>
-        </is>
-      </c>
-      <c r="B157" s="38" t="n">
-        <v>1469</v>
-      </c>
-      <c r="C157" s="39" t="n">
-        <v>0.9471000000000001</v>
-      </c>
-      <c r="D157" s="40" t="n">
-        <v>1267.08</v>
-      </c>
-      <c r="E157" s="40" t="n">
-        <v>1271.01</v>
-      </c>
-      <c r="F157" s="40" t="n">
-        <v>70.95999999999999</v>
-      </c>
-      <c r="G157" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H157" s="41" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I157" s="41" t="inlineStr">
-        <is>
-          <t>金融地产</t>
-        </is>
-      </c>
-      <c r="J157" s="41" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="K157" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="A157" s="7" t="inlineStr">
+        <is>
+          <t>南方初元中短债C</t>
+        </is>
+      </c>
+      <c r="B157" s="8" t="n">
+        <v>7150</v>
+      </c>
+      <c r="C157" s="9" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="D157" s="10" t="n">
+        <v>774.6900000000001</v>
+      </c>
+      <c r="E157" s="10" t="n">
+        <v>800.64</v>
+      </c>
+      <c r="F157" s="10" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G157" s="11" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H157" s="11" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I157" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J157" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K157" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝90父</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="37" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数分级</t>
-        </is>
-      </c>
-      <c r="B158" s="38" t="n">
-        <v>162413</v>
-      </c>
-      <c r="C158" s="39" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="D158" s="40" t="n">
-        <v>1546.42</v>
-      </c>
-      <c r="E158" s="40" t="n">
-        <v>1307.81</v>
-      </c>
-      <c r="F158" s="40" t="n">
-        <v>107.79</v>
-      </c>
-      <c r="G158" s="41" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H158" s="41" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I158" s="41" t="inlineStr">
-        <is>
-          <t>中证1000</t>
-        </is>
-      </c>
-      <c r="J158" s="41" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="K158" s="41" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="A158" s="7" t="inlineStr">
+        <is>
+          <t>新华纯债添利债券发起C</t>
+        </is>
+      </c>
+      <c r="B158" s="8" t="n">
+        <v>519153</v>
+      </c>
+      <c r="C158" s="9" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="D158" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="11" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H158" s="11" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I158" s="11" t="inlineStr">
+        <is>
+          <t>纯债</t>
+        </is>
+      </c>
+      <c r="J158" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K158" s="11" t="inlineStr">
+        <is>
+          <t>钉钉宝90父</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="37" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B159" s="38" t="n">
-        <v>1051</v>
+        <v>162711</v>
       </c>
       <c r="C159" s="39" t="n">
-        <v>0.8966</v>
+        <v>1.0451</v>
       </c>
       <c r="D159" s="40" t="n">
-        <v>1338.46</v>
+        <v>9368.450000000001</v>
       </c>
       <c r="E159" s="40" t="n">
-        <v>1271.27</v>
+        <v>10725.94</v>
       </c>
       <c r="F159" s="40" t="n">
-        <v>71.20999999999999</v>
+        <v>934.97</v>
       </c>
       <c r="G159" s="41" t="inlineStr">
         <is>
@@ -7936,17 +7936,17 @@
       </c>
       <c r="H159" s="41" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I159" s="41" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J159" s="41" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K159" s="41" t="inlineStr">
@@ -7958,42 +7958,42 @@
     <row r="160">
       <c r="A160" s="37" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B160" s="38" t="n">
-        <v>71</v>
+        <v>100032</v>
       </c>
       <c r="C160" s="39" t="n">
-        <v>1.3488</v>
+        <v>0.9137</v>
       </c>
       <c r="D160" s="40" t="n">
-        <v>889.71</v>
+        <v>10068.96</v>
       </c>
       <c r="E160" s="40" t="n">
-        <v>1221.3</v>
+        <v>9686.34</v>
       </c>
       <c r="F160" s="40" t="n">
-        <v>21.26</v>
+        <v>486.33</v>
       </c>
       <c r="G160" s="41" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H160" s="41" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I160" s="41" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J160" s="41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K160" s="41" t="inlineStr">
@@ -8005,42 +8005,42 @@
     <row r="161">
       <c r="A161" s="37" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B161" s="38" t="n">
-        <v>162411</v>
+        <v>968</v>
       </c>
       <c r="C161" s="39" t="n">
-        <v>0.4405</v>
+        <v>0.853</v>
       </c>
       <c r="D161" s="40" t="n">
-        <v>4541.16</v>
+        <v>6096.21</v>
       </c>
       <c r="E161" s="40" t="n">
-        <v>1135.29</v>
+        <v>6315.67</v>
       </c>
       <c r="F161" s="40" t="n">
-        <v>-865.09</v>
+        <v>1115.61</v>
       </c>
       <c r="G161" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H161" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I161" s="41" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J161" s="41" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K161" s="41" t="inlineStr">
@@ -8052,23 +8052,23 @@
     <row r="162">
       <c r="A162" s="37" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B162" s="38" t="n">
-        <v>478</v>
+        <v>1180</v>
       </c>
       <c r="C162" s="39" t="n">
-        <v>1.9358</v>
+        <v>0.6927</v>
       </c>
       <c r="D162" s="40" t="n">
-        <v>413.27</v>
+        <v>6187.76</v>
       </c>
       <c r="E162" s="40" t="n">
-        <v>843.53</v>
+        <v>6079.47</v>
       </c>
       <c r="F162" s="40" t="n">
-        <v>43.52</v>
+        <v>1793.21</v>
       </c>
       <c r="G162" s="41" t="inlineStr">
         <is>
@@ -8077,17 +8077,17 @@
       </c>
       <c r="H162" s="41" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I162" s="41" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J162" s="41" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K162" s="41" t="inlineStr">
@@ -8099,42 +8099,42 @@
     <row r="163">
       <c r="A163" s="37" t="inlineStr">
         <is>
-          <t>博时标普500ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B163" s="38" t="n">
-        <v>50025</v>
+        <v>100038</v>
       </c>
       <c r="C163" s="39" t="n">
-        <v>2.1006</v>
+        <v>1.3043</v>
       </c>
       <c r="D163" s="40" t="n">
-        <v>380.85</v>
+        <v>2760.12</v>
       </c>
       <c r="E163" s="40" t="n">
-        <v>850.86</v>
+        <v>4476.91</v>
       </c>
       <c r="F163" s="40" t="n">
-        <v>50.84</v>
+        <v>876.89</v>
       </c>
       <c r="G163" s="41" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H163" s="41" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I163" s="41" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J163" s="41" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K163" s="41" t="inlineStr">
@@ -8146,23 +8146,23 @@
     <row r="164">
       <c r="A164" s="37" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B164" s="38" t="n">
-        <v>502010</v>
+        <v>161017</v>
       </c>
       <c r="C164" s="39" t="n">
-        <v>0.8063</v>
+        <v>1.325</v>
       </c>
       <c r="D164" s="40" t="n">
-        <v>496.13</v>
+        <v>2046.97</v>
       </c>
       <c r="E164" s="40" t="n">
-        <v>509.23</v>
+        <v>3571.96</v>
       </c>
       <c r="F164" s="40" t="n">
-        <v>109.2</v>
+        <v>859.73</v>
       </c>
       <c r="G164" s="41" t="inlineStr">
         <is>
@@ -8171,17 +8171,17 @@
       </c>
       <c r="H164" s="41" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I164" s="41" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J164" s="41" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K164" s="41" t="inlineStr">
@@ -8193,42 +8193,42 @@
     <row r="165">
       <c r="A165" s="37" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B165" s="38" t="n">
-        <v>216</v>
+        <v>110027</v>
       </c>
       <c r="C165" s="39" t="n">
-        <v>0.8811</v>
+        <v>1.6102</v>
       </c>
       <c r="D165" s="40" t="n">
-        <v>366.9</v>
+        <v>1981.84</v>
       </c>
       <c r="E165" s="40" t="n">
-        <v>507.5</v>
+        <v>3553.44</v>
       </c>
       <c r="F165" s="40" t="n">
-        <v>184.22</v>
+        <v>362.28</v>
       </c>
       <c r="G165" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H165" s="41" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I165" s="41" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J165" s="41" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K165" s="41" t="inlineStr">
@@ -8240,23 +8240,23 @@
     <row r="166">
       <c r="A166" s="37" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B166" s="38" t="n">
-        <v>51</v>
+        <v>1064</v>
       </c>
       <c r="C166" s="39" t="n">
-        <v>1.2285</v>
+        <v>0.5379</v>
       </c>
       <c r="D166" s="40" t="n">
-        <v>325.61</v>
+        <v>5949.77</v>
       </c>
       <c r="E166" s="40" t="n">
-        <v>414.92</v>
+        <v>3365.78</v>
       </c>
       <c r="F166" s="40" t="n">
-        <v>14.91</v>
+        <v>165.4</v>
       </c>
       <c r="G166" s="41" t="inlineStr">
         <is>
@@ -8265,17 +8265,17 @@
       </c>
       <c r="H166" s="41" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I166" s="41" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J166" s="41" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K166" s="41" t="inlineStr">
@@ -8287,45 +8287,703 @@
     <row r="167">
       <c r="A167" s="37" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B167" s="38" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C167" s="39" t="n">
+        <v>0.7084</v>
+      </c>
+      <c r="D167" s="40" t="n">
+        <v>3988.79</v>
+      </c>
+      <c r="E167" s="40" t="n">
+        <v>3237.3</v>
+      </c>
+      <c r="F167" s="40" t="n">
+        <v>411.64</v>
+      </c>
+      <c r="G167" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H167" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I167" s="41" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J167" s="41" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K167" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="37" t="inlineStr">
+        <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B168" s="38" t="n">
+        <v>614</v>
+      </c>
+      <c r="C168" s="39" t="n">
+        <v>1.0254</v>
+      </c>
+      <c r="D168" s="40" t="n">
+        <v>2730.84</v>
+      </c>
+      <c r="E168" s="40" t="n">
+        <v>2875.57</v>
+      </c>
+      <c r="F168" s="40" t="n">
+        <v>75.37</v>
+      </c>
+      <c r="G168" s="41" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H168" s="41" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I168" s="41" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J168" s="41" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K168" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="37" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="B169" s="38" t="n">
+        <v>340001</v>
+      </c>
+      <c r="C169" s="39" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="D169" s="40" t="n">
+        <v>1630.08</v>
+      </c>
+      <c r="E169" s="40" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="F169" s="40" t="n">
+        <v>399.86</v>
+      </c>
+      <c r="G169" s="41" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H169" s="41" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I169" s="41" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J169" s="41" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K169" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="37" t="inlineStr">
+        <is>
+          <t>交银中证海外中国互联网指数</t>
+        </is>
+      </c>
+      <c r="B170" s="38" t="n">
+        <v>164906</v>
+      </c>
+      <c r="C170" s="39" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="D170" s="40" t="n">
+        <v>1407.29</v>
+      </c>
+      <c r="E170" s="40" t="n">
+        <v>1909.69</v>
+      </c>
+      <c r="F170" s="40" t="n">
+        <v>309.6</v>
+      </c>
+      <c r="G170" s="41" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H170" s="41" t="inlineStr">
+        <is>
+          <t>海外互联</t>
+        </is>
+      </c>
+      <c r="I170" s="41" t="inlineStr">
+        <is>
+          <t>海外互联网</t>
+        </is>
+      </c>
+      <c r="J170" s="41" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K170" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="37" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产联接A</t>
+        </is>
+      </c>
+      <c r="B171" s="38" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C171" s="39" t="n">
+        <v>0.9471000000000001</v>
+      </c>
+      <c r="D171" s="40" t="n">
+        <v>1267.08</v>
+      </c>
+      <c r="E171" s="40" t="n">
+        <v>1293.06</v>
+      </c>
+      <c r="F171" s="40" t="n">
+        <v>93</v>
+      </c>
+      <c r="G171" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H171" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I171" s="41" t="inlineStr">
+        <is>
+          <t>金融地产</t>
+        </is>
+      </c>
+      <c r="J171" s="41" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K171" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="37" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF联接A</t>
+        </is>
+      </c>
+      <c r="B172" s="38" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C172" s="39" t="n">
+        <v>0.8966</v>
+      </c>
+      <c r="D172" s="40" t="n">
+        <v>1338.46</v>
+      </c>
+      <c r="E172" s="40" t="n">
+        <v>1304.2</v>
+      </c>
+      <c r="F172" s="40" t="n">
+        <v>104.13</v>
+      </c>
+      <c r="G172" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H172" s="41" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I172" s="41" t="inlineStr">
+        <is>
+          <t>上证50</t>
+        </is>
+      </c>
+      <c r="J172" s="41" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K172" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="37" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数分级</t>
+        </is>
+      </c>
+      <c r="B173" s="38" t="n">
+        <v>162413</v>
+      </c>
+      <c r="C173" s="39" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="D173" s="40" t="n">
+        <v>1546.42</v>
+      </c>
+      <c r="E173" s="40" t="n">
+        <v>1275.95</v>
+      </c>
+      <c r="F173" s="40" t="n">
+        <v>75.93000000000001</v>
+      </c>
+      <c r="G173" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H173" s="41" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I173" s="41" t="inlineStr">
+        <is>
+          <t>中证1000</t>
+        </is>
+      </c>
+      <c r="J173" s="41" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K173" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="37" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B174" s="38" t="n">
+        <v>71</v>
+      </c>
+      <c r="C174" s="39" t="n">
+        <v>1.3488</v>
+      </c>
+      <c r="D174" s="40" t="n">
+        <v>889.71</v>
+      </c>
+      <c r="E174" s="40" t="n">
+        <v>1251.56</v>
+      </c>
+      <c r="F174" s="40" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="G174" s="41" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H174" s="41" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I174" s="41" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J174" s="41" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K174" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="37" t="inlineStr">
+        <is>
+          <t>华宝标普油气上游股票人民币A</t>
+        </is>
+      </c>
+      <c r="B175" s="38" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C175" s="39" t="n">
+        <v>0.4405</v>
+      </c>
+      <c r="D175" s="40" t="n">
+        <v>4541.16</v>
+      </c>
+      <c r="E175" s="40" t="n">
+        <v>1162.54</v>
+      </c>
+      <c r="F175" s="40" t="n">
+        <v>-837.84</v>
+      </c>
+      <c r="G175" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H175" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I175" s="41" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J175" s="41" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K175" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="37" t="inlineStr">
+        <is>
+          <t>博时标普500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B176" s="38" t="n">
+        <v>50025</v>
+      </c>
+      <c r="C176" s="39" t="n">
+        <v>2.1006</v>
+      </c>
+      <c r="D176" s="40" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="E176" s="40" t="n">
+        <v>878.13</v>
+      </c>
+      <c r="F176" s="40" t="n">
+        <v>78.11</v>
+      </c>
+      <c r="G176" s="41" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H176" s="41" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="I176" s="41" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+      <c r="J176" s="41" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K176" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="37" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B177" s="38" t="n">
+        <v>478</v>
+      </c>
+      <c r="C177" s="39" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="D177" s="40" t="n">
+        <v>413.27</v>
+      </c>
+      <c r="E177" s="40" t="n">
+        <v>841.13</v>
+      </c>
+      <c r="F177" s="40" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="G177" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H177" s="41" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I177" s="41" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J177" s="41" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K177" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="37" t="inlineStr">
+        <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B178" s="38" t="n">
+        <v>216</v>
+      </c>
+      <c r="C178" s="39" t="n">
+        <v>0.8811</v>
+      </c>
+      <c r="D178" s="40" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="E178" s="40" t="n">
+        <v>507.31</v>
+      </c>
+      <c r="F178" s="40" t="n">
+        <v>184.04</v>
+      </c>
+      <c r="G178" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H178" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I178" s="41" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J178" s="41" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K178" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="37" t="inlineStr">
+        <is>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="B179" s="38" t="n">
+        <v>502010</v>
+      </c>
+      <c r="C179" s="39" t="n">
+        <v>0.8063</v>
+      </c>
+      <c r="D179" s="40" t="n">
+        <v>496.13</v>
+      </c>
+      <c r="E179" s="40" t="n">
+        <v>503.08</v>
+      </c>
+      <c r="F179" s="40" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="G179" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H179" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I179" s="41" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="J179" s="41" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K179" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="37" t="inlineStr">
+        <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B180" s="38" t="n">
+        <v>51</v>
+      </c>
+      <c r="C180" s="39" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D180" s="40" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E180" s="40" t="n">
+        <v>421.7</v>
+      </c>
+      <c r="F180" s="40" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="G180" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H180" s="41" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I180" s="41" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="J180" s="41" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K180" s="41" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="37" t="inlineStr">
+        <is>
           <t>南方原油A</t>
         </is>
       </c>
-      <c r="B167" s="38" t="n">
+      <c r="B181" s="38" t="n">
         <v>501018</v>
       </c>
-      <c r="C167" s="39" t="n">
+      <c r="C181" s="39" t="n">
         <v>0.7171</v>
       </c>
-      <c r="D167" s="40" t="n">
+      <c r="D181" s="40" t="n">
         <v>557.83</v>
       </c>
-      <c r="E167" s="40" t="n">
-        <v>455.19</v>
-      </c>
-      <c r="F167" s="40" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="G167" s="41" t="inlineStr">
+      <c r="E181" s="40" t="n">
+        <v>365.94</v>
+      </c>
+      <c r="F181" s="40" t="n">
+        <v>-34.08</v>
+      </c>
+      <c r="G181" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H167" s="41" t="inlineStr">
+      <c r="H181" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I167" s="41" t="inlineStr">
+      <c r="I181" s="41" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="J167" s="41" t="inlineStr">
+      <c r="J181" s="41" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="K167" s="41" t="inlineStr">
+      <c r="K181" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
